--- a/Results/SingleDim/Matrix Analysis/pca_results.xlsx
+++ b/Results/SingleDim/Matrix Analysis/pca_results.xlsx
@@ -658,139 +658,139 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.056430389283586</v>
+        <v>-3.435271709227308</v>
       </c>
       <c r="C2">
-        <v>-0.2620582522297326</v>
+        <v>-0.2292649622764656</v>
       </c>
       <c r="D2">
-        <v>-0.07495030925647643</v>
+        <v>0.03403145389124786</v>
       </c>
       <c r="E2">
-        <v>0.0857877816726059</v>
+        <v>0.3126454157431204</v>
       </c>
       <c r="F2">
-        <v>0.1099924421861024</v>
+        <v>0.1780917987694035</v>
       </c>
       <c r="G2">
-        <v>0.004372882405522942</v>
+        <v>-0.02107020429500931</v>
       </c>
       <c r="H2">
-        <v>0.01409812224362489</v>
+        <v>-0.1123243669107692</v>
       </c>
       <c r="I2">
-        <v>-0.02652092354272795</v>
+        <v>-0.00804326851300537</v>
       </c>
       <c r="J2">
-        <v>0.01137273385130231</v>
+        <v>-0.05706482616386203</v>
       </c>
       <c r="K2">
-        <v>-0.004219871981514002</v>
+        <v>-0.008266098872703248</v>
       </c>
       <c r="L2">
-        <v>-0.01206184036549699</v>
+        <v>-0.004324310146376082</v>
       </c>
       <c r="M2">
-        <v>0.0002914685589080081</v>
+        <v>0.05243273192689493</v>
       </c>
       <c r="N2">
-        <v>-0.005579086531263968</v>
+        <v>0.003574488665287007</v>
       </c>
       <c r="O2">
-        <v>-0.0004701861657310976</v>
+        <v>-0.002471394207115678</v>
       </c>
       <c r="P2">
-        <v>-0.00311702005824185</v>
+        <v>-0.02767256958997794</v>
       </c>
       <c r="Q2">
-        <v>-0.004425327064191618</v>
+        <v>0.001256884658274409</v>
       </c>
       <c r="R2">
-        <v>-1.154301021897398E-05</v>
+        <v>2.753550876860445E-05</v>
       </c>
       <c r="S2">
-        <v>-0.01273774503472201</v>
+        <v>2.133397851581111E-05</v>
       </c>
       <c r="T2">
-        <v>-0.00224247894655231</v>
+        <v>-4.390969489138857E-06</v>
       </c>
       <c r="U2">
-        <v>-0.0001216515329287933</v>
+        <v>5.29419333941258E-07</v>
       </c>
       <c r="V2">
-        <v>4.47537691292114E-06</v>
+        <v>-5.575565941585404E-06</v>
       </c>
       <c r="W2">
-        <v>0.002191117086102989</v>
+        <v>-1.380089621050846E-06</v>
       </c>
       <c r="X2">
-        <v>-0.001547192621098391</v>
+        <v>-1.036334414404041E-06</v>
       </c>
       <c r="Y2">
-        <v>-6.616467381993278E-05</v>
+        <v>1.56675067106874E-06</v>
       </c>
       <c r="Z2">
-        <v>1.678063897139109E-07</v>
+        <v>-6.971259092800329E-08</v>
       </c>
       <c r="AA2">
-        <v>-0.00677389597232077</v>
+        <v>-1.195069369156203E-06</v>
       </c>
       <c r="AB2">
-        <v>-5.006419293954427E-05</v>
+        <v>6.765511821344832E-07</v>
       </c>
       <c r="AC2">
-        <v>-2.293595038227233E-06</v>
+        <v>-4.102599576438827E-07</v>
       </c>
       <c r="AD2">
-        <v>5.213819408290734E-06</v>
+        <v>9.530809429222488E-08</v>
       </c>
       <c r="AE2">
-        <v>1.312777367321821E-06</v>
+        <v>1.912627904991036E-07</v>
       </c>
       <c r="AF2">
-        <v>-0.002130550489509077</v>
+        <v>-7.490910466202519E-08</v>
       </c>
       <c r="AG2">
-        <v>-1.517530247365954E-05</v>
+        <v>4.027343286563324E-07</v>
       </c>
       <c r="AH2">
-        <v>-2.282337265349241E-06</v>
+        <v>-5.324319943084796E-08</v>
       </c>
       <c r="AI2">
-        <v>-1.346640755757773E-07</v>
+        <v>2.564465584332411E-07</v>
       </c>
       <c r="AJ2">
-        <v>-9.452138856599781E-09</v>
+        <v>1.304294677371879E-07</v>
       </c>
       <c r="AK2">
-        <v>3.177529725567623E-08</v>
+        <v>1.352697136449307E-07</v>
       </c>
       <c r="AL2">
-        <v>-3.247254546689988E-08</v>
+        <v>1.39820905322819E-08</v>
       </c>
       <c r="AM2">
-        <v>-2.142051928297047E-09</v>
+        <v>-2.463094777469727E-08</v>
       </c>
       <c r="AN2">
-        <v>-1.487716936520568E-08</v>
+        <v>3.468157478522919E-08</v>
       </c>
       <c r="AO2">
-        <v>-8.028011183231504E-08</v>
+        <v>-3.950797373096175E-08</v>
       </c>
       <c r="AP2">
-        <v>1.479928384270073E-09</v>
+        <v>2.05350796276205E-08</v>
       </c>
       <c r="AQ2">
-        <v>-2.450843644107637E-10</v>
+        <v>-3.303007045400736E-09</v>
       </c>
       <c r="AR2">
-        <v>-1.495024576416306E-08</v>
+        <v>3.44270730088962E-08</v>
       </c>
       <c r="AS2">
-        <v>3.979978468488655E-09</v>
+        <v>-6.220574139136462E-10</v>
       </c>
       <c r="AT2">
-        <v>4.399537097979473E-16</v>
+        <v>-3.152045154908596E-16</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -798,139 +798,139 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.18071258118453</v>
+        <v>-2.353033270295769</v>
       </c>
       <c r="C3">
-        <v>-0.6651255268907322</v>
+        <v>0.6812837703661255</v>
       </c>
       <c r="D3">
-        <v>-0.3471482219317641</v>
+        <v>0.4358170930838619</v>
       </c>
       <c r="E3">
-        <v>-0.1258918730148842</v>
+        <v>0.07780280588506491</v>
       </c>
       <c r="F3">
-        <v>-0.1436744297068814</v>
+        <v>-0.1107721134440165</v>
       </c>
       <c r="G3">
-        <v>0.006754833762803484</v>
+        <v>-0.08935707631804492</v>
       </c>
       <c r="H3">
-        <v>-0.0171275650010112</v>
+        <v>0.02402961545873627</v>
       </c>
       <c r="I3">
-        <v>0.02134478002817199</v>
+        <v>0.02665097080260739</v>
       </c>
       <c r="J3">
-        <v>-0.01112474963940302</v>
+        <v>0.03020851079397924</v>
       </c>
       <c r="K3">
-        <v>0.006312130872724594</v>
+        <v>0.001878077773645168</v>
       </c>
       <c r="L3">
-        <v>-0.010317999177059</v>
+        <v>-0.001257439894480701</v>
       </c>
       <c r="M3">
-        <v>-0.001106785055049094</v>
+        <v>-0.01675311685420303</v>
       </c>
       <c r="N3">
-        <v>-0.002634300264821601</v>
+        <v>0.06427965950984391</v>
       </c>
       <c r="O3">
-        <v>0.0005419175907816634</v>
+        <v>-0.002166376472778468</v>
       </c>
       <c r="P3">
-        <v>-0.001135929258980339</v>
+        <v>-0.01214078961217216</v>
       </c>
       <c r="Q3">
-        <v>-0.005665659137942224</v>
+        <v>-0.0008210735380648616</v>
       </c>
       <c r="R3">
-        <v>-4.79987006250586E-05</v>
+        <v>1.78709143129957E-05</v>
       </c>
       <c r="S3">
-        <v>0.0002586989578735623</v>
+        <v>-2.869715928717271E-05</v>
       </c>
       <c r="T3">
-        <v>5.548670471014784E-05</v>
+        <v>-0.0007246617697873322</v>
       </c>
       <c r="U3">
-        <v>0.0005907063277408139</v>
+        <v>0.000444728470128977</v>
       </c>
       <c r="V3">
-        <v>-6.862060959757751E-05</v>
+        <v>-0.00224854236530177</v>
       </c>
       <c r="W3">
-        <v>0.0001271509713612238</v>
+        <v>2.805471319144591E-07</v>
       </c>
       <c r="X3">
-        <v>3.219223766638762E-05</v>
+        <v>3.744888791902914E-07</v>
       </c>
       <c r="Y3">
-        <v>0.001310434201743585</v>
+        <v>-7.213521248426236E-07</v>
       </c>
       <c r="Z3">
-        <v>1.745958734911189E-05</v>
+        <v>3.003394449461885E-08</v>
       </c>
       <c r="AA3">
-        <v>-2.52384245841604E-05</v>
+        <v>5.667898972680217E-07</v>
       </c>
       <c r="AB3">
-        <v>3.769112052512488E-05</v>
+        <v>-3.782174356066076E-07</v>
       </c>
       <c r="AC3">
-        <v>1.424189564130144E-05</v>
+        <v>1.148969365783724E-07</v>
       </c>
       <c r="AD3">
-        <v>-0.0002511761442470942</v>
+        <v>-5.344054307753766E-08</v>
       </c>
       <c r="AE3">
-        <v>-7.752195130776689E-05</v>
+        <v>-1.019621586100147E-07</v>
       </c>
       <c r="AF3">
-        <v>3.095042897690344E-05</v>
+        <v>2.988863997584428E-08</v>
       </c>
       <c r="AG3">
-        <v>0.004144419253913763</v>
+        <v>-2.129277899811429E-07</v>
       </c>
       <c r="AH3">
-        <v>0.00247629107947627</v>
+        <v>2.249808573453104E-08</v>
       </c>
       <c r="AI3">
-        <v>-2.754203055009974E-05</v>
+        <v>-1.183413752970747E-07</v>
       </c>
       <c r="AJ3">
-        <v>-8.819088129593089E-07</v>
+        <v>-6.68542130515115E-08</v>
       </c>
       <c r="AK3">
-        <v>2.947312488924364E-06</v>
+        <v>-6.717267223800569E-08</v>
       </c>
       <c r="AL3">
-        <v>-2.967213630077595E-06</v>
+        <v>-7.320068201434087E-09</v>
       </c>
       <c r="AM3">
-        <v>-1.933619840427373E-07</v>
+        <v>1.230633088665581E-08</v>
       </c>
       <c r="AN3">
-        <v>-1.299271458944044E-06</v>
+        <v>-1.601663494479554E-08</v>
       </c>
       <c r="AO3">
-        <v>-6.871667711662839E-06</v>
+        <v>1.984152690338452E-08</v>
       </c>
       <c r="AP3">
-        <v>1.288749732055212E-07</v>
+        <v>-1.857023742725703E-08</v>
       </c>
       <c r="AQ3">
-        <v>-2.075195209662796E-08</v>
+        <v>1.282463862619225E-09</v>
       </c>
       <c r="AR3">
-        <v>-1.30354860414678E-06</v>
+        <v>-1.251649319239469E-08</v>
       </c>
       <c r="AS3">
-        <v>3.456587698957581E-07</v>
+        <v>2.890637496063251E-10</v>
       </c>
       <c r="AT3">
-        <v>4.399537097978138E-16</v>
+        <v>-3.152045154908712E-16</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -938,139 +938,139 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.211083616638739</v>
+        <v>-1.984209675397415</v>
       </c>
       <c r="C4">
-        <v>-0.1638329816916409</v>
+        <v>0.8200241182673706</v>
       </c>
       <c r="D4">
-        <v>0.005006929010940359</v>
+        <v>0.4020103115674095</v>
       </c>
       <c r="E4">
-        <v>0.1030657655580719</v>
+        <v>-0.02264357805201693</v>
       </c>
       <c r="F4">
-        <v>-0.01941242179861618</v>
+        <v>-0.1094990865543943</v>
       </c>
       <c r="G4">
-        <v>0.07079254345912596</v>
+        <v>0.009006257464267385</v>
       </c>
       <c r="H4">
-        <v>-0.01495458861468724</v>
+        <v>0.07150968555372285</v>
       </c>
       <c r="I4">
-        <v>0.02091958410290733</v>
+        <v>-0.03039460431561541</v>
       </c>
       <c r="J4">
-        <v>0.03213911783322158</v>
+        <v>-0.06768553787607315</v>
       </c>
       <c r="K4">
-        <v>0.008031670904946714</v>
+        <v>0.01649749065611072</v>
       </c>
       <c r="L4">
-        <v>-0.00142857915516199</v>
+        <v>-0.001313587000508225</v>
       </c>
       <c r="M4">
-        <v>0.02472091310722475</v>
+        <v>0.004928506727833261</v>
       </c>
       <c r="N4">
-        <v>0.00257883895841573</v>
+        <v>-0.01165019199227996</v>
       </c>
       <c r="O4">
-        <v>-0.01115240951636256</v>
+        <v>-0.000328773386883573</v>
       </c>
       <c r="P4">
-        <v>0.007054194204254675</v>
+        <v>0.001760535298053943</v>
       </c>
       <c r="Q4">
-        <v>-0.003303723002456779</v>
+        <v>0.0003871343733221847</v>
       </c>
       <c r="R4">
-        <v>-0.001345326724085133</v>
+        <v>-8.952092234812567E-05</v>
       </c>
       <c r="S4">
-        <v>-7.58531390651922E-05</v>
+        <v>4.658666663530675E-05</v>
       </c>
       <c r="T4">
-        <v>0.0007562133818944274</v>
+        <v>0.004176906449432018</v>
       </c>
       <c r="U4">
-        <v>-0.001892650786543426</v>
+        <v>-0.003203575681038101</v>
       </c>
       <c r="V4">
-        <v>0.001161055978197899</v>
+        <v>0.01621937162442957</v>
       </c>
       <c r="W4">
-        <v>2.073990941113121E-05</v>
+        <v>5.330313167212414E-06</v>
       </c>
       <c r="X4">
-        <v>2.613359106426412E-06</v>
+        <v>4.788660863680594E-06</v>
       </c>
       <c r="Y4">
-        <v>0.000131773517224286</v>
+        <v>-6.424596312572048E-06</v>
       </c>
       <c r="Z4">
-        <v>-5.748665658967667E-05</v>
+        <v>1.641521975729102E-07</v>
       </c>
       <c r="AA4">
-        <v>1.191084297881881E-07</v>
+        <v>3.949509659805717E-06</v>
       </c>
       <c r="AB4">
-        <v>-2.260101166174611E-07</v>
+        <v>-2.23834349345495E-06</v>
       </c>
       <c r="AC4">
-        <v>-2.378899635295725E-06</v>
+        <v>1.313122885229184E-06</v>
       </c>
       <c r="AD4">
-        <v>1.008159411067436E-06</v>
+        <v>-2.881877022676059E-07</v>
       </c>
       <c r="AE4">
-        <v>3.176289437050062E-06</v>
+        <v>-5.814656482748312E-07</v>
       </c>
       <c r="AF4">
-        <v>2.915429920162273E-08</v>
+        <v>2.083471924157561E-07</v>
       </c>
       <c r="AG4">
-        <v>-6.932937915456258E-06</v>
+        <v>-1.199915558442072E-06</v>
       </c>
       <c r="AH4">
-        <v>-1.688748417526883E-06</v>
+        <v>1.493512644053013E-07</v>
       </c>
       <c r="AI4">
-        <v>-1.152392334285095E-07</v>
+        <v>-7.238123249795955E-07</v>
       </c>
       <c r="AJ4">
-        <v>8.765611667979355E-06</v>
+        <v>-3.730330224938677E-07</v>
       </c>
       <c r="AK4">
-        <v>2.765582002308608E-07</v>
+        <v>-3.826147736165855E-07</v>
       </c>
       <c r="AL4">
-        <v>-6.284828989690761E-07</v>
+        <v>-4.011015563439433E-08</v>
       </c>
       <c r="AM4">
-        <v>2.679748064402137E-05</v>
+        <v>6.940793139769703E-08</v>
       </c>
       <c r="AN4">
-        <v>-0.0005992124018522749</v>
+        <v>-9.55570974757365E-08</v>
       </c>
       <c r="AO4">
-        <v>1.733313517876112E-05</v>
+        <v>1.122364500623062E-07</v>
       </c>
       <c r="AP4">
-        <v>-8.431091661731966E-08</v>
+        <v>-7.479261131994375E-08</v>
       </c>
       <c r="AQ4">
-        <v>9.907307747080657E-09</v>
+        <v>8.868538098100136E-09</v>
       </c>
       <c r="AR4">
-        <v>5.667069113643709E-07</v>
+        <v>-9.563840623312418E-08</v>
       </c>
       <c r="AS4">
-        <v>-1.379032842504189E-07</v>
+        <v>1.683950591462035E-09</v>
       </c>
       <c r="AT4">
-        <v>4.399537097966471E-16</v>
+        <v>-3.152045154908694E-16</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1078,139 +1078,139 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9035232936972988</v>
+        <v>0.1263967750672887</v>
       </c>
       <c r="C5">
-        <v>0.3580560323421071</v>
+        <v>0.6205285449971861</v>
       </c>
       <c r="D5">
-        <v>-0.1556298657666802</v>
+        <v>-0.263731820120301</v>
       </c>
       <c r="E5">
-        <v>0.1073477153637319</v>
+        <v>-0.1301811040035057</v>
       </c>
       <c r="F5">
-        <v>-0.03652086717842482</v>
+        <v>0.1342554177506223</v>
       </c>
       <c r="G5">
-        <v>-0.0459803752398036</v>
+        <v>-0.02967807649207355</v>
       </c>
       <c r="H5">
-        <v>0.01337829130611355</v>
+        <v>0.002964648546539885</v>
       </c>
       <c r="I5">
-        <v>-0.01625693877531516</v>
+        <v>0.07166564084106111</v>
       </c>
       <c r="J5">
-        <v>-0.02474042956554127</v>
+        <v>-0.006379217693077518</v>
       </c>
       <c r="K5">
-        <v>-0.00232774274428614</v>
+        <v>0.05434225007568315</v>
       </c>
       <c r="L5">
-        <v>-0.001495298170104764</v>
+        <v>-0.02472930070915471</v>
       </c>
       <c r="M5">
-        <v>0.01804094520551075</v>
+        <v>-0.0006326683554465953</v>
       </c>
       <c r="N5">
-        <v>0.001747598702454163</v>
+        <v>-0.0007599178039430856</v>
       </c>
       <c r="O5">
-        <v>0.007252430489114013</v>
+        <v>-0.02082735336621186</v>
       </c>
       <c r="P5">
-        <v>-0.0008871390835285732</v>
+        <v>0.001874767566488043</v>
       </c>
       <c r="Q5">
-        <v>-2.996226351606653E-05</v>
+        <v>0.009620768909780215</v>
       </c>
       <c r="R5">
-        <v>0.008795534776488985</v>
+        <v>-0.005197380679199812</v>
       </c>
       <c r="S5">
-        <v>0.001035979964292403</v>
+        <v>0.001171236296350277</v>
       </c>
       <c r="T5">
-        <v>-0.005906537298275186</v>
+        <v>-0.0008598510490032555</v>
       </c>
       <c r="U5">
-        <v>0.0004722180627788743</v>
+        <v>0.0002165258930431314</v>
       </c>
       <c r="V5">
-        <v>0.002330826442540667</v>
+        <v>0.0001355193639820595</v>
       </c>
       <c r="W5">
-        <v>-3.832575168916468E-06</v>
+        <v>-0.0006308672646437297</v>
       </c>
       <c r="X5">
-        <v>-2.347490764201632E-06</v>
+        <v>-0.0003584829004237271</v>
       </c>
       <c r="Y5">
-        <v>-4.900260285363315E-05</v>
+        <v>0.0005843336597667458</v>
       </c>
       <c r="Z5">
-        <v>-0.005626872110235157</v>
+        <v>-1.40893979961692E-05</v>
       </c>
       <c r="AA5">
-        <v>-1.988659028767354E-06</v>
+        <v>1.552907209596641E-06</v>
       </c>
       <c r="AB5">
-        <v>3.602189766932171E-06</v>
+        <v>1.081844786591486E-05</v>
       </c>
       <c r="AC5">
-        <v>0.0001039522709473101</v>
+        <v>-7.766497578624847E-07</v>
       </c>
       <c r="AD5">
-        <v>-5.518684841342358E-05</v>
+        <v>1.658973130206188E-07</v>
       </c>
       <c r="AE5">
-        <v>-0.005379871806527697</v>
+        <v>5.375966356741099E-07</v>
       </c>
       <c r="AF5">
-        <v>3.792370616053056E-07</v>
+        <v>-2.220212916436769E-07</v>
       </c>
       <c r="AG5">
-        <v>-4.827843497476811E-05</v>
+        <v>1.524727685811102E-06</v>
       </c>
       <c r="AH5">
-        <v>-1.085467495615641E-05</v>
+        <v>-1.982998704157019E-07</v>
       </c>
       <c r="AI5">
-        <v>-1.828101593690082E-07</v>
+        <v>1.376563320000256E-06</v>
       </c>
       <c r="AJ5">
-        <v>-1.022952320790737E-08</v>
+        <v>1.855020956849395E-06</v>
       </c>
       <c r="AK5">
-        <v>4.48318086015037E-08</v>
+        <v>2.307542057431544E-06</v>
       </c>
       <c r="AL5">
-        <v>-3.758734856066828E-08</v>
+        <v>3.194995773469884E-07</v>
       </c>
       <c r="AM5">
-        <v>-4.847460935795556E-10</v>
+        <v>-2.079986766796657E-06</v>
       </c>
       <c r="AN5">
-        <v>-1.64649226649271E-08</v>
+        <v>2.905537240573211E-06</v>
       </c>
       <c r="AO5">
-        <v>-8.133207780641283E-08</v>
+        <v>-0.0001210211577953764</v>
       </c>
       <c r="AP5">
-        <v>1.685889473080498E-09</v>
+        <v>0.0005932488935242704</v>
       </c>
       <c r="AQ5">
-        <v>4.889727932441387E-08</v>
+        <v>1.307994192522922E-06</v>
       </c>
       <c r="AR5">
-        <v>-1.727755094489239E-08</v>
+        <v>-7.790253962845196E-06</v>
       </c>
       <c r="AS5">
-        <v>4.568365427411594E-09</v>
+        <v>1.022587877636515E-07</v>
       </c>
       <c r="AT5">
-        <v>4.39953709797696E-16</v>
+        <v>-3.152045154906814E-16</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1218,139 +1218,139 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.416930674945799</v>
+        <v>-3.839047824756975</v>
       </c>
       <c r="C6">
-        <v>0.3229208865761506</v>
+        <v>-0.8565990796033049</v>
       </c>
       <c r="D6">
-        <v>0.3247039659498893</v>
+        <v>-0.3333403817829967</v>
       </c>
       <c r="E6">
-        <v>0.01956240597594393</v>
+        <v>-0.4214041626945136</v>
       </c>
       <c r="F6">
-        <v>-0.06298153073261799</v>
+        <v>-0.2539774174988323</v>
       </c>
       <c r="G6">
-        <v>-0.01543366382739382</v>
+        <v>-0.07870487651017907</v>
       </c>
       <c r="H6">
-        <v>-0.01855180536479485</v>
+        <v>-0.1013728105569303</v>
       </c>
       <c r="I6">
-        <v>0.005487520853657539</v>
+        <v>0.02396887273631156</v>
       </c>
       <c r="J6">
-        <v>0.004212805172716752</v>
+        <v>-0.04911634900901548</v>
       </c>
       <c r="K6">
-        <v>-0.02454737352842216</v>
+        <v>-0.01660282274637117</v>
       </c>
       <c r="L6">
-        <v>0.00572089751597473</v>
+        <v>-0.004779697871183855</v>
       </c>
       <c r="M6">
-        <v>0.003199785763977287</v>
+        <v>-0.0180564814267341</v>
       </c>
       <c r="N6">
-        <v>-0.02215996847561133</v>
+        <v>-0.002287888836322126</v>
       </c>
       <c r="O6">
-        <v>0.0002151848532045208</v>
+        <v>0.001175924624775833</v>
       </c>
       <c r="P6">
-        <v>0.00130972170741462</v>
+        <v>-0.005005184023715355</v>
       </c>
       <c r="Q6">
-        <v>0.0009948667473856801</v>
+        <v>0.001447188441176128</v>
       </c>
       <c r="R6">
-        <v>7.255913080764445E-05</v>
+        <v>8.76178130525609E-05</v>
       </c>
       <c r="S6">
-        <v>0.0005472428566210424</v>
+        <v>7.634063582744665E-05</v>
       </c>
       <c r="T6">
-        <v>0.000117242460930263</v>
+        <v>3.044791935142347E-05</v>
       </c>
       <c r="U6">
-        <v>-2.359159487468294E-05</v>
+        <v>-8.884991816477432E-06</v>
       </c>
       <c r="V6">
-        <v>8.954743377923536E-07</v>
+        <v>3.288789103265805E-05</v>
       </c>
       <c r="W6">
-        <v>-0.001568888784144172</v>
+        <v>-5.241869265232282E-06</v>
       </c>
       <c r="X6">
-        <v>-0.002867161384708886</v>
+        <v>-4.134429790352307E-06</v>
       </c>
       <c r="Y6">
-        <v>0.0001015714526852097</v>
+        <v>6.431695611107888E-06</v>
       </c>
       <c r="Z6">
-        <v>5.970048655525245E-07</v>
+        <v>-2.156172686227706E-07</v>
       </c>
       <c r="AA6">
-        <v>1.28896584639201E-05</v>
+        <v>-4.758914764578763E-06</v>
       </c>
       <c r="AB6">
-        <v>0.0001569071457016004</v>
+        <v>2.782175754749357E-06</v>
       </c>
       <c r="AC6">
-        <v>-1.650523141905701E-07</v>
+        <v>-1.661413386521584E-06</v>
       </c>
       <c r="AD6">
-        <v>-3.312051043450433E-06</v>
+        <v>3.772090884474872E-07</v>
       </c>
       <c r="AE6">
-        <v>-1.13629720592543E-06</v>
+        <v>7.719250022791232E-07</v>
       </c>
       <c r="AF6">
-        <v>1.60879567709445E-07</v>
+        <v>-2.871423543914097E-07</v>
       </c>
       <c r="AG6">
-        <v>3.869523479582283E-05</v>
+        <v>1.618440901828723E-06</v>
       </c>
       <c r="AH6">
-        <v>1.400864083903249E-05</v>
+        <v>-2.063326769219032E-07</v>
       </c>
       <c r="AI6">
-        <v>0.003673822355404654</v>
+        <v>1.003204316435041E-06</v>
       </c>
       <c r="AJ6">
-        <v>-2.904686978639025E-08</v>
+        <v>5.194169930191329E-07</v>
       </c>
       <c r="AK6">
-        <v>9.345783789421549E-08</v>
+        <v>5.354926390867554E-07</v>
       </c>
       <c r="AL6">
-        <v>-9.223301552366607E-08</v>
+        <v>5.588021099104211E-08</v>
       </c>
       <c r="AM6">
-        <v>-6.001859975375071E-09</v>
+        <v>-9.767447043078997E-08</v>
       </c>
       <c r="AN6">
-        <v>-3.954307801438222E-08</v>
+        <v>1.356894807876481E-07</v>
       </c>
       <c r="AO6">
-        <v>-2.087985763853143E-07</v>
+        <v>-1.584935990741091E-07</v>
       </c>
       <c r="AP6">
-        <v>3.897950018250634E-09</v>
+        <v>9.999945209672245E-08</v>
       </c>
       <c r="AQ6">
-        <v>-6.274673957186088E-10</v>
+        <v>-1.283463497418576E-08</v>
       </c>
       <c r="AR6">
-        <v>-3.934286312777593E-08</v>
+        <v>1.381209212639135E-07</v>
       </c>
       <c r="AS6">
-        <v>1.042833801737113E-08</v>
+        <v>-2.397385715894942E-09</v>
       </c>
       <c r="AT6">
-        <v>4.399537097976447E-16</v>
+        <v>-3.152045154908547E-16</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1358,139 +1358,139 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.07079001199195</v>
+        <v>1.041406255710414</v>
       </c>
       <c r="C7">
-        <v>0.1451031797136867</v>
+        <v>-0.09924134810355786</v>
       </c>
       <c r="D7">
-        <v>-0.1009621763364468</v>
+        <v>-0.02964924518537975</v>
       </c>
       <c r="E7">
-        <v>0.1521137709649552</v>
+        <v>0.08259524564652668</v>
       </c>
       <c r="F7">
-        <v>-0.05152148604677134</v>
+        <v>-0.07350515928608961</v>
       </c>
       <c r="G7">
-        <v>0.01862424983602486</v>
+        <v>0.04760976485193638</v>
       </c>
       <c r="H7">
-        <v>0.02520705651853627</v>
+        <v>-0.01472722262425152</v>
       </c>
       <c r="I7">
-        <v>0.005906232971638217</v>
+        <v>0.02386585520138249</v>
       </c>
       <c r="J7">
-        <v>0.000781002767369232</v>
+        <v>-0.001668617134223966</v>
       </c>
       <c r="K7">
-        <v>-0.006017604071164414</v>
+        <v>0.02207503398305117</v>
       </c>
       <c r="L7">
-        <v>0.001606896619963058</v>
+        <v>0.01979648920006404</v>
       </c>
       <c r="M7">
-        <v>-0.02135556399598661</v>
+        <v>0.001106309712942381</v>
       </c>
       <c r="N7">
-        <v>-0.002017056711176289</v>
+        <v>0.0008170913264141588</v>
       </c>
       <c r="O7">
-        <v>-0.0007326013635712551</v>
+        <v>0.007651366762189348</v>
       </c>
       <c r="P7">
-        <v>-0.00178574295508873</v>
+        <v>0.0003308730719391403</v>
       </c>
       <c r="Q7">
-        <v>0.001078700047819675</v>
+        <v>0.01199604619818432</v>
       </c>
       <c r="R7">
-        <v>-0.005382472440431582</v>
+        <v>-0.004026555911886618</v>
       </c>
       <c r="S7">
-        <v>-0.001379258315503721</v>
+        <v>-0.01165723387997871</v>
       </c>
       <c r="T7">
-        <v>0.007767468589089515</v>
+        <v>1.175536927745884E-05</v>
       </c>
       <c r="U7">
-        <v>0.001468689228075811</v>
+        <v>-0.002881919649728695</v>
       </c>
       <c r="V7">
-        <v>0.01585914636090536</v>
+        <v>-0.0005625687926430451</v>
       </c>
       <c r="W7">
-        <v>1.479935116060495E-05</v>
+        <v>-0.003240439342980848</v>
       </c>
       <c r="X7">
-        <v>-1.90304584564844E-08</v>
+        <v>0.003695984218117101</v>
       </c>
       <c r="Y7">
-        <v>3.033335343827103E-05</v>
+        <v>0.0001686125832891153</v>
       </c>
       <c r="Z7">
-        <v>-0.002570792753631325</v>
+        <v>-0.001488722821900567</v>
       </c>
       <c r="AA7">
-        <v>-4.354532849808001E-07</v>
+        <v>-0.002054202871477936</v>
       </c>
       <c r="AB7">
-        <v>2.15640773220863E-07</v>
+        <v>9.624735563257889E-05</v>
       </c>
       <c r="AC7">
-        <v>-0.0001852180980384156</v>
+        <v>-0.0001005921549283728</v>
       </c>
       <c r="AD7">
-        <v>9.937081388410177E-07</v>
+        <v>0.0002415311446720123</v>
       </c>
       <c r="AE7">
-        <v>0.0003812861691382471</v>
+        <v>-0.0003644561835413918</v>
       </c>
       <c r="AF7">
-        <v>-5.522096071652596E-08</v>
+        <v>-6.772217449463428E-05</v>
       </c>
       <c r="AG7">
-        <v>1.274393283252859E-05</v>
+        <v>6.278693521172241E-05</v>
       </c>
       <c r="AH7">
-        <v>3.383995244144758E-06</v>
+        <v>-0.0001634813514833665</v>
       </c>
       <c r="AI7">
-        <v>6.320489088835119E-08</v>
+        <v>2.597165632551684E-05</v>
       </c>
       <c r="AJ7">
-        <v>6.445309216509152E-08</v>
+        <v>-9.535534990657696E-05</v>
       </c>
       <c r="AK7">
-        <v>-1.968226955638452E-08</v>
+        <v>0.00193577699043094</v>
       </c>
       <c r="AL7">
-        <v>-5.955163791666105E-09</v>
+        <v>0.0007435883239239293</v>
       </c>
       <c r="AM7">
-        <v>-2.631036574200597E-05</v>
+        <v>2.524744312426423E-06</v>
       </c>
       <c r="AN7">
-        <v>-7.089481183362419E-08</v>
+        <v>-8.784818441170285E-07</v>
       </c>
       <c r="AO7">
-        <v>5.538067413936232E-08</v>
+        <v>1.046038898812307E-06</v>
       </c>
       <c r="AP7">
-        <v>-8.235506283073947E-10</v>
+        <v>-6.566948346483221E-07</v>
       </c>
       <c r="AQ7">
-        <v>1.884471008751381E-06</v>
+        <v>8.023669549177076E-08</v>
       </c>
       <c r="AR7">
-        <v>4.782216534576211E-09</v>
+        <v>-8.525881010842579E-07</v>
       </c>
       <c r="AS7">
-        <v>-1.585905589693792E-09</v>
+        <v>1.423075682173773E-08</v>
       </c>
       <c r="AT7">
-        <v>4.399537097979736E-16</v>
+        <v>-3.152045154900172E-16</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1498,139 +1498,139 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.357331885640862</v>
+        <v>-3.800023866228885</v>
       </c>
       <c r="C8">
-        <v>0.3526498207193278</v>
+        <v>-0.7474825352756778</v>
       </c>
       <c r="D8">
-        <v>0.3301327983758444</v>
+        <v>-0.3096935101681463</v>
       </c>
       <c r="E8">
-        <v>0.006461883786823587</v>
+        <v>-0.09994785642185167</v>
       </c>
       <c r="F8">
-        <v>-0.07377851357193732</v>
+        <v>-0.0505750078050425</v>
       </c>
       <c r="G8">
-        <v>-0.009374369381156673</v>
+        <v>0.05540340678992627</v>
       </c>
       <c r="H8">
-        <v>-0.01606273646697849</v>
+        <v>0.109278605581777</v>
       </c>
       <c r="I8">
-        <v>-0.008829702363088695</v>
+        <v>0.005475810670899571</v>
       </c>
       <c r="J8">
-        <v>0.007681544983508485</v>
+        <v>0.05683959886838711</v>
       </c>
       <c r="K8">
-        <v>-0.02163476659297715</v>
+        <v>0.003993089149302164</v>
       </c>
       <c r="L8">
-        <v>-0.001762167704046416</v>
+        <v>-0.0008402153348962926</v>
       </c>
       <c r="M8">
-        <v>0.0009452923453380998</v>
+        <v>0.05965836648628967</v>
       </c>
       <c r="N8">
-        <v>-0.006620741564177001</v>
+        <v>0.01232780821671847</v>
       </c>
       <c r="O8">
-        <v>0.0002662363490565368</v>
+        <v>0.0003166649908912196</v>
       </c>
       <c r="P8">
-        <v>0.0008730801703799321</v>
+        <v>0.02619642315699771</v>
       </c>
       <c r="Q8">
-        <v>0.0007149645340071103</v>
+        <v>-0.002412566048485802</v>
       </c>
       <c r="R8">
-        <v>-5.357440923666686E-05</v>
+        <v>-8.332944446106518E-05</v>
       </c>
       <c r="S8">
-        <v>0.001092828227585572</v>
+        <v>-6.821179879074835E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001611434936045248</v>
+        <v>-2.514192090687196E-05</v>
       </c>
       <c r="U8">
-        <v>0.0001197714974322178</v>
+        <v>7.186447834611483E-06</v>
       </c>
       <c r="V8">
-        <v>-1.116330510421215E-05</v>
+        <v>-2.636467328856567E-05</v>
       </c>
       <c r="W8">
-        <v>0.008126734774065338</v>
+        <v>4.198435532266237E-06</v>
       </c>
       <c r="X8">
-        <v>0.006867502095580147</v>
+        <v>3.282122529156202E-06</v>
       </c>
       <c r="Y8">
-        <v>-0.0004626989083605393</v>
+        <v>-5.084940610737748E-06</v>
       </c>
       <c r="Z8">
-        <v>-3.698719165893894E-06</v>
+        <v>1.569226696382454E-07</v>
       </c>
       <c r="AA8">
-        <v>6.099047704628989E-05</v>
+        <v>3.732225580007305E-06</v>
       </c>
       <c r="AB8">
-        <v>-0.006623697446311297</v>
+        <v>-2.179950582498157E-06</v>
       </c>
       <c r="AC8">
-        <v>1.570508951486585E-05</v>
+        <v>1.326018000148902E-06</v>
       </c>
       <c r="AD8">
-        <v>1.840298117656476E-06</v>
+        <v>-2.929257564008747E-07</v>
       </c>
       <c r="AE8">
-        <v>-6.88493475872226E-07</v>
+        <v>-6.031995358157858E-07</v>
       </c>
       <c r="AF8">
-        <v>-2.011740301671663E-07</v>
+        <v>2.237784919811637E-07</v>
       </c>
       <c r="AG8">
-        <v>-6.622574085645293E-06</v>
+        <v>-1.26345420495166E-06</v>
       </c>
       <c r="AH8">
-        <v>-3.081826617103108E-06</v>
+        <v>1.607967849373983E-07</v>
       </c>
       <c r="AI8">
-        <v>-0.0009659655082777009</v>
+        <v>-7.814025879547093E-07</v>
       </c>
       <c r="AJ8">
-        <v>5.606162099296643E-09</v>
+        <v>-4.047903478885165E-07</v>
       </c>
       <c r="AK8">
-        <v>-1.714788106705482E-08</v>
+        <v>-4.171713786661216E-07</v>
       </c>
       <c r="AL8">
-        <v>1.646946280722662E-08</v>
+        <v>-4.357079545311319E-08</v>
       </c>
       <c r="AM8">
-        <v>1.060731566098614E-09</v>
+        <v>7.607034767818778E-08</v>
       </c>
       <c r="AN8">
-        <v>6.685008606071766E-09</v>
+        <v>-1.055817139731183E-07</v>
       </c>
       <c r="AO8">
-        <v>3.495143548248414E-08</v>
+        <v>1.23389352267605E-07</v>
       </c>
       <c r="AP8">
-        <v>-6.512243079313025E-10</v>
+        <v>-7.805213162571176E-08</v>
       </c>
       <c r="AQ8">
-        <v>1.024478402045601E-10</v>
+        <v>1.00109668879421E-08</v>
       </c>
       <c r="AR8">
-        <v>6.566660611224473E-09</v>
+        <v>-1.091543984059339E-07</v>
       </c>
       <c r="AS8">
-        <v>-1.733918725003656E-09</v>
+        <v>1.855241596436834E-09</v>
       </c>
       <c r="AT8">
-        <v>4.399537097980165E-16</v>
+        <v>-3.152045154908662E-16</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1638,139 +1638,139 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1567277540215475</v>
+        <v>-2.70916190968326</v>
       </c>
       <c r="C9">
-        <v>0.6571824800830461</v>
+        <v>0.4605164634839794</v>
       </c>
       <c r="D9">
-        <v>-0.0713138999478537</v>
+        <v>0.3912729490447053</v>
       </c>
       <c r="E9">
-        <v>-0.175176160711971</v>
+        <v>0.1703775191093792</v>
       </c>
       <c r="F9">
-        <v>0.05198920257229126</v>
+        <v>-0.0602118757894</v>
       </c>
       <c r="G9">
-        <v>0.05654671793807387</v>
+        <v>-0.1478823118520677</v>
       </c>
       <c r="H9">
-        <v>0.02762610171850996</v>
+        <v>-0.05558943030715516</v>
       </c>
       <c r="I9">
-        <v>0.01642038747605061</v>
+        <v>0.06525669265386039</v>
       </c>
       <c r="J9">
-        <v>-0.01627035781865209</v>
+        <v>0.1054526256496459</v>
       </c>
       <c r="K9">
-        <v>-0.0208094542255061</v>
+        <v>-0.0171377289716197</v>
       </c>
       <c r="L9">
-        <v>-0.001347546232982793</v>
+        <v>0.001838609609117288</v>
       </c>
       <c r="M9">
-        <v>0.004614952514514169</v>
+        <v>-0.001591194150602768</v>
       </c>
       <c r="N9">
-        <v>0.0009992351969251643</v>
+        <v>-0.03977354639900373</v>
       </c>
       <c r="O9">
-        <v>0.00352208712141955</v>
+        <v>0.002121939345336596</v>
       </c>
       <c r="P9">
-        <v>-0.001146465261955252</v>
+        <v>0.01152991262194215</v>
       </c>
       <c r="Q9">
-        <v>0.0003853748635831673</v>
+        <v>0.0004655957862799103</v>
       </c>
       <c r="R9">
-        <v>-0.006446692964722003</v>
+        <v>1.309960549469984E-05</v>
       </c>
       <c r="S9">
-        <v>0.000577762765519737</v>
+        <v>2.345138232536655E-05</v>
       </c>
       <c r="T9">
-        <v>-0.003216918543528745</v>
+        <v>9.16115967280668E-05</v>
       </c>
       <c r="U9">
-        <v>3.77402232664013E-05</v>
+        <v>-4.864006752088654E-05</v>
       </c>
       <c r="V9">
-        <v>0.0005212544589222435</v>
+        <v>0.0002428786901357487</v>
       </c>
       <c r="W9">
-        <v>-1.885539387214753E-05</v>
+        <v>-1.25319480536023E-06</v>
       </c>
       <c r="X9">
-        <v>1.989902694330017E-06</v>
+        <v>-8.365821008762954E-07</v>
       </c>
       <c r="Y9">
-        <v>-0.0002183451383210424</v>
+        <v>1.293892727288947E-06</v>
       </c>
       <c r="Z9">
-        <v>0.000108271570817783</v>
+        <v>-6.746355070322634E-08</v>
       </c>
       <c r="AA9">
-        <v>5.756347300846517E-06</v>
+        <v>-1.07408803304658E-06</v>
       </c>
       <c r="AB9">
-        <v>4.898262960435846E-06</v>
+        <v>5.798987978822963E-07</v>
       </c>
       <c r="AC9">
-        <v>-0.0002643991511838487</v>
+        <v>-4.16303553788977E-07</v>
       </c>
       <c r="AD9">
-        <v>0.0069762443660125</v>
+        <v>8.353669987195169E-08</v>
       </c>
       <c r="AE9">
-        <v>-7.765997834441321E-05</v>
+        <v>1.706953769194503E-07</v>
       </c>
       <c r="AF9">
-        <v>-1.634569207891603E-06</v>
+        <v>-7.336792521617987E-08</v>
       </c>
       <c r="AG9">
-        <v>0.0002159199062480305</v>
+        <v>3.623123819971758E-07</v>
       </c>
       <c r="AH9">
-        <v>5.025683272507045E-05</v>
+        <v>-5.142515641777522E-08</v>
       </c>
       <c r="AI9">
-        <v>8.246434827261155E-07</v>
+        <v>2.423793978034236E-07</v>
       </c>
       <c r="AJ9">
-        <v>3.870191823426941E-08</v>
+        <v>1.196654367810651E-07</v>
       </c>
       <c r="AK9">
-        <v>7.379887471107819E-08</v>
+        <v>1.255091353728254E-07</v>
       </c>
       <c r="AL9">
-        <v>-2.383877725299367E-08</v>
+        <v>1.274846705051279E-08</v>
       </c>
       <c r="AM9">
-        <v>-2.155201343487302E-09</v>
+        <v>-2.284053419865561E-08</v>
       </c>
       <c r="AN9">
-        <v>-1.07033995831714E-06</v>
+        <v>3.296835768095419E-08</v>
       </c>
       <c r="AO9">
-        <v>-3.356453194422359E-05</v>
+        <v>-3.657412684495582E-08</v>
       </c>
       <c r="AP9">
-        <v>-5.4263175761013E-08</v>
+        <v>1.394843838478852E-08</v>
       </c>
       <c r="AQ9">
-        <v>7.084603304014559E-09</v>
+        <v>-3.280390597542063E-09</v>
       </c>
       <c r="AR9">
-        <v>4.010892912705993E-07</v>
+        <v>3.461099939355339E-08</v>
       </c>
       <c r="AS9">
-        <v>-9.793695565348462E-08</v>
+        <v>-5.909913397527904E-10</v>
       </c>
       <c r="AT9">
-        <v>4.399537097979192E-16</v>
+        <v>-3.152045154908544E-16</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1778,139 +1778,139 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.272811314098291</v>
+        <v>-0.9703672897477015</v>
       </c>
       <c r="C10">
-        <v>-0.4688690386744136</v>
+        <v>0.8517106404210707</v>
       </c>
       <c r="D10">
-        <v>0.1061056207383908</v>
+        <v>0.06677092258524485</v>
       </c>
       <c r="E10">
-        <v>-0.02430102591898202</v>
+        <v>-0.2095840670137458</v>
       </c>
       <c r="F10">
-        <v>0.02948666820186248</v>
+        <v>0.06392388246368721</v>
       </c>
       <c r="G10">
-        <v>0.01151902138999194</v>
+        <v>0.1760375263655577</v>
       </c>
       <c r="H10">
-        <v>-0.02808302074072828</v>
+        <v>-0.06450883548242656</v>
       </c>
       <c r="I10">
-        <v>-0.01103793036524578</v>
+        <v>-0.03433656538582058</v>
       </c>
       <c r="J10">
-        <v>-0.02233390802027045</v>
+        <v>0.03604061749641775</v>
       </c>
       <c r="K10">
-        <v>0.001344317751730241</v>
+        <v>-0.03053770987386968</v>
       </c>
       <c r="L10">
-        <v>-0.001237270909922535</v>
+        <v>0.006939655683164689</v>
       </c>
       <c r="M10">
-        <v>-0.004001704131071308</v>
+        <v>-0.0006574215944058216</v>
       </c>
       <c r="N10">
-        <v>-0.0008150458922325921</v>
+        <v>0.001891136205679733</v>
       </c>
       <c r="O10">
-        <v>0.001079357087198274</v>
+        <v>0.003938790725516862</v>
       </c>
       <c r="P10">
-        <v>-0.002606218637114678</v>
+        <v>-0.0005685907318928208</v>
       </c>
       <c r="Q10">
-        <v>0.001127857373639363</v>
+        <v>-0.001694807420162426</v>
       </c>
       <c r="R10">
-        <v>0.0002672626792652731</v>
+        <v>0.0008338761709411066</v>
       </c>
       <c r="S10">
-        <v>0.0001761902641890928</v>
+        <v>-0.0002191593733856881</v>
       </c>
       <c r="T10">
-        <v>-0.00029749163290826</v>
+        <v>-0.01877354619780191</v>
       </c>
       <c r="U10">
-        <v>-0.00667195061387626</v>
+        <v>-0.0006029608764272735</v>
       </c>
       <c r="V10">
-        <v>0.00048382353715937</v>
+        <v>0.003263203615123441</v>
       </c>
       <c r="W10">
-        <v>0.0001290884936328519</v>
+        <v>-4.565608349583576E-05</v>
       </c>
       <c r="X10">
-        <v>2.061285261125018E-05</v>
+        <v>-1.746879911998541E-05</v>
       </c>
       <c r="Y10">
-        <v>0.001223309755474102</v>
+        <v>1.504181295642625E-05</v>
       </c>
       <c r="Z10">
-        <v>-1.074235198752724E-05</v>
+        <v>-2.174251937605713E-07</v>
       </c>
       <c r="AA10">
-        <v>8.99294579151616E-07</v>
+        <v>-5.16117065680294E-07</v>
       </c>
       <c r="AB10">
-        <v>-1.142823479994166E-06</v>
+        <v>3.512349976477096E-07</v>
       </c>
       <c r="AC10">
-        <v>-4.614016428015687E-07</v>
+        <v>-4.892100517998661E-07</v>
       </c>
       <c r="AD10">
-        <v>8.956438852516858E-07</v>
+        <v>1.649603998984682E-08</v>
       </c>
       <c r="AE10">
-        <v>2.108220791002743E-07</v>
+        <v>7.774377583284928E-08</v>
       </c>
       <c r="AF10">
-        <v>2.196542888068648E-09</v>
+        <v>-3.520773827138994E-08</v>
       </c>
       <c r="AG10">
-        <v>1.361184201212148E-06</v>
+        <v>1.586344175340906E-07</v>
       </c>
       <c r="AH10">
-        <v>1.088694395649298E-05</v>
+        <v>-2.514513300424299E-08</v>
       </c>
       <c r="AI10">
-        <v>1.817143584876573E-07</v>
+        <v>1.062972651094708E-07</v>
       </c>
       <c r="AJ10">
-        <v>-0.0001931655923617777</v>
+        <v>5.002469450120374E-08</v>
       </c>
       <c r="AK10">
-        <v>-1.063450315208032E-06</v>
+        <v>5.273884730581921E-08</v>
       </c>
       <c r="AL10">
-        <v>0.001237360830834452</v>
+        <v>5.23158361091236E-09</v>
       </c>
       <c r="AM10">
-        <v>-9.51148212173042E-07</v>
+        <v>-9.564774903426784E-09</v>
       </c>
       <c r="AN10">
-        <v>-6.459088938719753E-07</v>
+        <v>1.415584989290516E-08</v>
       </c>
       <c r="AO10">
-        <v>-3.140412897022142E-06</v>
+        <v>-1.327091889052824E-08</v>
       </c>
       <c r="AP10">
-        <v>9.125245177985384E-05</v>
+        <v>-9.391384626935022E-09</v>
       </c>
       <c r="AQ10">
-        <v>-1.161340156581787E-08</v>
+        <v>-2.064333167777797E-09</v>
       </c>
       <c r="AR10">
-        <v>-2.561987067951968E-06</v>
+        <v>3.260681662655497E-08</v>
       </c>
       <c r="AS10">
-        <v>2.868337909882E-06</v>
+        <v>-1.793544150485777E-10</v>
       </c>
       <c r="AT10">
-        <v>4.399537097969136E-16</v>
+        <v>-3.152045154909143E-16</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1918,139 +1918,139 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1936665470471728</v>
+        <v>0.9604392965200214</v>
       </c>
       <c r="C11">
-        <v>0.6597301567234951</v>
+        <v>0.07801427442010633</v>
       </c>
       <c r="D11">
-        <v>-0.08094170871415639</v>
+        <v>-0.1628292235324998</v>
       </c>
       <c r="E11">
-        <v>-0.1727189182275059</v>
+        <v>0.09564445880022</v>
       </c>
       <c r="F11">
-        <v>0.05556411597406077</v>
+        <v>-0.07869937198797552</v>
       </c>
       <c r="G11">
-        <v>0.05359022240630267</v>
+        <v>0.003449064000884281</v>
       </c>
       <c r="H11">
-        <v>0.02387745079560623</v>
+        <v>-0.01193332810735069</v>
       </c>
       <c r="I11">
-        <v>0.01812216553145971</v>
+        <v>-0.03755755868725844</v>
       </c>
       <c r="J11">
-        <v>-0.01504165935962773</v>
+        <v>0.01054992160858068</v>
       </c>
       <c r="K11">
-        <v>-0.02350629481847975</v>
+        <v>0.006662092826098196</v>
       </c>
       <c r="L11">
-        <v>-0.001594033704310873</v>
+        <v>-0.0262690526889411</v>
       </c>
       <c r="M11">
-        <v>0.003751415073294399</v>
+        <v>-0.0008760540798640533</v>
       </c>
       <c r="N11">
-        <v>0.001624554393277743</v>
+        <v>-0.0005932779567842125</v>
       </c>
       <c r="O11">
-        <v>0.002838500141441487</v>
+        <v>-0.004229076978461196</v>
       </c>
       <c r="P11">
-        <v>-0.0006083135596248756</v>
+        <v>-0.0002375281104492813</v>
       </c>
       <c r="Q11">
-        <v>0.0001610760252639961</v>
+        <v>-0.007138815211942705</v>
       </c>
       <c r="R11">
-        <v>-0.00406158643185613</v>
+        <v>0.006758156179780749</v>
       </c>
       <c r="S11">
-        <v>0.0002754526621881067</v>
+        <v>0.003879924242927428</v>
       </c>
       <c r="T11">
-        <v>-0.001652693619738261</v>
+        <v>4.972092081837429E-05</v>
       </c>
       <c r="U11">
-        <v>9.912767823738501E-05</v>
+        <v>0.008627804619788031</v>
       </c>
       <c r="V11">
-        <v>0.0002046508808681806</v>
+        <v>0.001687895326265669</v>
       </c>
       <c r="W11">
-        <v>-1.994054858736165E-05</v>
+        <v>-0.004488505919384577</v>
       </c>
       <c r="X11">
-        <v>-2.603585181239109E-05</v>
+        <v>0.008317075057864436</v>
       </c>
       <c r="Y11">
-        <v>0.0001488925943183254</v>
+        <v>0.0004341743320044318</v>
       </c>
       <c r="Z11">
-        <v>1.084955861431222E-05</v>
+        <v>-0.002326804465303684</v>
       </c>
       <c r="AA11">
-        <v>-3.456518834785449E-06</v>
+        <v>0.004123327893907652</v>
       </c>
       <c r="AB11">
-        <v>-5.737824857887095E-06</v>
+        <v>-0.0003626671647131131</v>
       </c>
       <c r="AC11">
-        <v>5.493116784458262E-05</v>
+        <v>9.166819533789019E-05</v>
       </c>
       <c r="AD11">
-        <v>-0.003424353382141789</v>
+        <v>-0.000357033103616749</v>
       </c>
       <c r="AE11">
-        <v>3.475157429142808E-05</v>
+        <v>-0.002260306242649438</v>
       </c>
       <c r="AF11">
-        <v>6.425430666479779E-07</v>
+        <v>-0.000529702073631294</v>
       </c>
       <c r="AG11">
-        <v>-5.338182964521811E-05</v>
+        <v>0.0009704459922364009</v>
       </c>
       <c r="AH11">
-        <v>-7.819632957117044E-06</v>
+        <v>0.0001914366987411234</v>
       </c>
       <c r="AI11">
-        <v>3.533397448814242E-07</v>
+        <v>-1.827495525251703E-06</v>
       </c>
       <c r="AJ11">
-        <v>2.711293314150195E-07</v>
+        <v>0.0003539218209994233</v>
       </c>
       <c r="AK11">
-        <v>-2.756343906986756E-06</v>
+        <v>7.959551933894623E-06</v>
       </c>
       <c r="AL11">
-        <v>3.508372388157533E-06</v>
+        <v>6.630029363459622E-07</v>
       </c>
       <c r="AM11">
-        <v>2.404567326474275E-07</v>
+        <v>-7.74496916588669E-06</v>
       </c>
       <c r="AN11">
-        <v>1.919046939783797E-05</v>
+        <v>-1.178067528313837E-06</v>
       </c>
       <c r="AO11">
-        <v>0.000564978905722799</v>
+        <v>7.101189068892097E-08</v>
       </c>
       <c r="AP11">
-        <v>7.601839914716548E-07</v>
+        <v>-4.038273266234741E-08</v>
       </c>
       <c r="AQ11">
-        <v>-9.428777800630291E-08</v>
+        <v>5.251865653319682E-09</v>
       </c>
       <c r="AR11">
-        <v>-5.23625855117842E-06</v>
+        <v>-4.752732909217855E-08</v>
       </c>
       <c r="AS11">
-        <v>1.247239807170647E-06</v>
+        <v>9.087251464377723E-10</v>
       </c>
       <c r="AT11">
-        <v>4.399537097984447E-16</v>
+        <v>-3.152045154908877E-16</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2058,139 +2058,139 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.209820021762973</v>
+        <v>0.9965220011026756</v>
       </c>
       <c r="C12">
-        <v>-0.1596840624636415</v>
+        <v>0.02858707586104534</v>
       </c>
       <c r="D12">
-        <v>0.003612839525203813</v>
+        <v>-0.130934463223778</v>
       </c>
       <c r="E12">
-        <v>0.1044184071461342</v>
+        <v>0.1017427392082437</v>
       </c>
       <c r="F12">
-        <v>-0.02001754735454887</v>
+        <v>-0.08839214126123347</v>
       </c>
       <c r="G12">
-        <v>0.07099278191341506</v>
+        <v>0.02086163998120095</v>
       </c>
       <c r="H12">
-        <v>-0.0145016774787523</v>
+        <v>-0.01730245542444249</v>
       </c>
       <c r="I12">
-        <v>0.02114003940362778</v>
+        <v>-0.02597099473599936</v>
       </c>
       <c r="J12">
-        <v>0.03252255845645729</v>
+        <v>0.01061700029192194</v>
       </c>
       <c r="K12">
-        <v>0.00797330852375641</v>
+        <v>0.02015068566832973</v>
       </c>
       <c r="L12">
-        <v>-0.001360355739277927</v>
+        <v>-0.02641979720983464</v>
       </c>
       <c r="M12">
-        <v>0.02439490471307621</v>
+        <v>-0.0005444936424845315</v>
       </c>
       <c r="N12">
-        <v>0.002558333373446106</v>
+        <v>-0.0004535079122957827</v>
       </c>
       <c r="O12">
-        <v>-0.01084185548826619</v>
+        <v>0.006127286630364395</v>
       </c>
       <c r="P12">
-        <v>0.007032908714284948</v>
+        <v>-0.001048488538324854</v>
       </c>
       <c r="Q12">
-        <v>-0.003324511108529955</v>
+        <v>-0.0101435817620137</v>
       </c>
       <c r="R12">
-        <v>-0.001291518697163006</v>
+        <v>-0.002712694824335994</v>
       </c>
       <c r="S12">
-        <v>-6.642889652118014E-05</v>
+        <v>0.005771720229760279</v>
       </c>
       <c r="T12">
-        <v>0.0007095164183946617</v>
+        <v>-7.913957220323747E-06</v>
       </c>
       <c r="U12">
-        <v>-0.001986882923432728</v>
+        <v>0.001499777061582531</v>
       </c>
       <c r="V12">
-        <v>0.001102349798286814</v>
+        <v>0.0003014382451742734</v>
       </c>
       <c r="W12">
-        <v>2.357338157968828E-05</v>
+        <v>0.001355092930025734</v>
       </c>
       <c r="X12">
-        <v>3.088541129204086E-06</v>
+        <v>-0.0004140189135865816</v>
       </c>
       <c r="Y12">
-        <v>0.0001570989239377982</v>
+        <v>0.0002243520548538102</v>
       </c>
       <c r="Z12">
-        <v>-5.140983451159058E-05</v>
+        <v>0.001093800663381824</v>
       </c>
       <c r="AA12">
-        <v>-9.754752275809324E-08</v>
+        <v>-0.003184969543729015</v>
       </c>
       <c r="AB12">
-        <v>1.516388877314091E-07</v>
+        <v>0.0001293751235134306</v>
       </c>
       <c r="AC12">
-        <v>-1.912795410700407E-06</v>
+        <v>-7.965629010281899E-05</v>
       </c>
       <c r="AD12">
-        <v>-1.057874524718038E-06</v>
+        <v>0.0002919003127082419</v>
       </c>
       <c r="AE12">
-        <v>2.025627827834248E-06</v>
+        <v>0.001473693996661296</v>
       </c>
       <c r="AF12">
-        <v>-1.558539977541994E-08</v>
+        <v>0.0002014291468004685</v>
       </c>
       <c r="AG12">
-        <v>8.36895373929322E-06</v>
+        <v>-0.0004047451858596044</v>
       </c>
       <c r="AH12">
-        <v>3.384204811372435E-06</v>
+        <v>-4.301168799138797E-05</v>
       </c>
       <c r="AI12">
-        <v>1.173873030003217E-07</v>
+        <v>2.029685005026236E-06</v>
       </c>
       <c r="AJ12">
-        <v>2.865984886195942E-05</v>
+        <v>0.002189548364143994</v>
       </c>
       <c r="AK12">
-        <v>-2.840243140149528E-07</v>
+        <v>6.941045822561927E-05</v>
       </c>
       <c r="AL12">
-        <v>1.22385343202717E-06</v>
+        <v>8.524390604717382E-06</v>
       </c>
       <c r="AM12">
-        <v>-4.543179643047845E-06</v>
+        <v>-0.0003752827238752327</v>
       </c>
       <c r="AN12">
-        <v>0.0006021519844482398</v>
+        <v>-5.399821912815304E-05</v>
       </c>
       <c r="AO12">
-        <v>-1.741578370689182E-05</v>
+        <v>1.320783055554012E-06</v>
       </c>
       <c r="AP12">
-        <v>7.955845273954762E-08</v>
+        <v>-8.262264752566977E-07</v>
       </c>
       <c r="AQ12">
-        <v>-9.982319162065342E-09</v>
+        <v>9.635809315901715E-08</v>
       </c>
       <c r="AR12">
-        <v>-5.733409014761569E-07</v>
+        <v>-9.983041434304055E-07</v>
       </c>
       <c r="AS12">
-        <v>1.394928301464968E-07</v>
+        <v>1.638961489884002E-08</v>
       </c>
       <c r="AT12">
-        <v>4.399537097992177E-16</v>
+        <v>-3.152045154912295E-16</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2198,139 +2198,139 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.148579185229509</v>
+        <v>0.914565275860129</v>
       </c>
       <c r="C13">
-        <v>0.0008736691130913096</v>
+        <v>-0.3771145147602672</v>
       </c>
       <c r="D13">
-        <v>-0.05302913367080274</v>
+        <v>0.2137033635715651</v>
       </c>
       <c r="E13">
-        <v>0.1441848634493505</v>
+        <v>-0.07511629528323606</v>
       </c>
       <c r="F13">
-        <v>-0.04250228286253586</v>
+        <v>0.06465869482667939</v>
       </c>
       <c r="G13">
-        <v>0.05900710546151622</v>
+        <v>-0.02076187239931805</v>
       </c>
       <c r="H13">
-        <v>0.009531505374303546</v>
+        <v>0.01226177774481831</v>
       </c>
       <c r="I13">
-        <v>0.02161137109739804</v>
+        <v>-0.01081402904080291</v>
       </c>
       <c r="J13">
-        <v>0.03106969597074425</v>
+        <v>0.002133416739931921</v>
       </c>
       <c r="K13">
-        <v>0.001350172183203557</v>
+        <v>-0.01076469867799557</v>
       </c>
       <c r="L13">
-        <v>0.002252958964083027</v>
+        <v>-0.02018058877517538</v>
       </c>
       <c r="M13">
-        <v>-0.01434377733772089</v>
+        <v>-1.597175678561906E-05</v>
       </c>
       <c r="N13">
-        <v>-0.001352301258880209</v>
+        <v>0.0006787807164680929</v>
       </c>
       <c r="O13">
-        <v>0.01636675291420469</v>
+        <v>0.01443663101089808</v>
       </c>
       <c r="P13">
-        <v>-0.005281853333664631</v>
+        <v>-4.809975018822039E-05</v>
       </c>
       <c r="Q13">
-        <v>0.001695916622943562</v>
+        <v>0.01798465861437843</v>
       </c>
       <c r="R13">
-        <v>0.003554347083167264</v>
+        <v>0.002761522949473799</v>
       </c>
       <c r="S13">
-        <v>0.0005189133998987426</v>
+        <v>0.003289389774758881</v>
       </c>
       <c r="T13">
-        <v>-0.00301618380116625</v>
+        <v>-2.226311977218346E-05</v>
       </c>
       <c r="U13">
-        <v>4.091481541017652E-05</v>
+        <v>-0.0003102882372702583</v>
       </c>
       <c r="V13">
-        <v>-0.004675160488905625</v>
+        <v>-8.380149241864097E-05</v>
       </c>
       <c r="W13">
-        <v>-8.7983776735134E-06</v>
+        <v>-5.980282511240466E-05</v>
       </c>
       <c r="X13">
-        <v>-7.099798158247682E-07</v>
+        <v>2.302762796246856E-05</v>
       </c>
       <c r="Y13">
-        <v>-3.606948016393683E-05</v>
+        <v>-1.308920748646896E-05</v>
       </c>
       <c r="Z13">
-        <v>0.0004272100245109356</v>
+        <v>-0.0001955222962676666</v>
       </c>
       <c r="AA13">
-        <v>1.095535034850083E-07</v>
+        <v>-0.0001139608814608857</v>
       </c>
       <c r="AB13">
-        <v>-1.45232629801043E-07</v>
+        <v>1.853667128322427E-05</v>
       </c>
       <c r="AC13">
-        <v>2.301593661308643E-05</v>
+        <v>0.004352269251581668</v>
       </c>
       <c r="AD13">
-        <v>3.677166065865278E-07</v>
+        <v>0.0006466630690370173</v>
       </c>
       <c r="AE13">
-        <v>-3.732277236656698E-05</v>
+        <v>-6.0421363001463E-05</v>
       </c>
       <c r="AF13">
-        <v>1.993975355032858E-08</v>
+        <v>9.382003583159728E-05</v>
       </c>
       <c r="AG13">
-        <v>-3.061482254202392E-06</v>
+        <v>-1.96820331118564E-05</v>
       </c>
       <c r="AH13">
-        <v>-8.305515806166402E-07</v>
+        <v>0.0001301548700827403</v>
       </c>
       <c r="AI13">
-        <v>-3.514320390520147E-08</v>
+        <v>0.0001970867642816722</v>
       </c>
       <c r="AJ13">
-        <v>2.353640696457356E-07</v>
+        <v>1.046314667510184E-07</v>
       </c>
       <c r="AK13">
-        <v>6.872586856169861E-08</v>
+        <v>1.575044556210918E-07</v>
       </c>
       <c r="AL13">
-        <v>-8.027478706975858E-07</v>
+        <v>3.309214923508567E-08</v>
       </c>
       <c r="AM13">
-        <v>-0.001020695818782119</v>
+        <v>-1.657038047447651E-06</v>
       </c>
       <c r="AN13">
-        <v>-1.30463455881892E-05</v>
+        <v>1.070047585646319E-05</v>
       </c>
       <c r="AO13">
-        <v>5.035325985123977E-07</v>
+        <v>3.906954645052368E-06</v>
       </c>
       <c r="AP13">
-        <v>-3.392800255717569E-09</v>
+        <v>1.597549376706279E-06</v>
       </c>
       <c r="AQ13">
-        <v>2.349963715932577E-09</v>
+        <v>-2.356231021385743E-05</v>
       </c>
       <c r="AR13">
-        <v>2.772543433378252E-08</v>
+        <v>3.657427636836651E-06</v>
       </c>
       <c r="AS13">
-        <v>-6.98830541845972E-09</v>
+        <v>-0.0001005885169710601</v>
       </c>
       <c r="AT13">
-        <v>4.399537097992057E-16</v>
+        <v>-3.152045154819923E-16</v>
       </c>
     </row>
     <row r="14" spans="1:46">
@@ -2338,139 +2338,139 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-2.156567002357631</v>
+        <v>-3.735064205064049</v>
       </c>
       <c r="C14">
-        <v>-0.5172502708964046</v>
+        <v>-0.6306031219994472</v>
       </c>
       <c r="D14">
-        <v>-0.2568287711603515</v>
+        <v>-0.2389696492769395</v>
       </c>
       <c r="E14">
-        <v>-0.03331708809948747</v>
+        <v>0.08794810262411883</v>
       </c>
       <c r="F14">
-        <v>-0.03445144581197013</v>
+        <v>0.07494069771498441</v>
       </c>
       <c r="G14">
-        <v>0.01570249566706764</v>
+        <v>0.08114631304560738</v>
       </c>
       <c r="H14">
-        <v>-0.01329676765382543</v>
+        <v>0.1090815102593226</v>
       </c>
       <c r="I14">
-        <v>-0.01796377288777202</v>
+        <v>-0.01441993240093719</v>
       </c>
       <c r="J14">
-        <v>-0.0007335144411093802</v>
+        <v>0.04302152395004216</v>
       </c>
       <c r="K14">
-        <v>-0.01016742599614954</v>
+        <v>0.01427243794307608</v>
       </c>
       <c r="L14">
-        <v>0.02931641491313785</v>
+        <v>0.006677360825854011</v>
       </c>
       <c r="M14">
-        <v>-0.0002588031262541873</v>
+        <v>-0.03956126131961971</v>
       </c>
       <c r="N14">
-        <v>0.01027031689937926</v>
+        <v>-0.01704542624635634</v>
       </c>
       <c r="O14">
-        <v>0.003216508015871233</v>
+        <v>-0.002903001100535465</v>
       </c>
       <c r="P14">
-        <v>0.01889772359403383</v>
+        <v>-0.04271155601905007</v>
       </c>
       <c r="Q14">
-        <v>0.02424436787045763</v>
+        <v>0.002209992735944174</v>
       </c>
       <c r="R14">
-        <v>8.604384780857606E-05</v>
+        <v>2.340808386860538E-05</v>
       </c>
       <c r="S14">
-        <v>-0.003975360560561986</v>
+        <v>1.355713753144579E-05</v>
       </c>
       <c r="T14">
-        <v>-0.0007087493048112887</v>
+        <v>1.55890590481367E-06</v>
       </c>
       <c r="U14">
-        <v>-0.0005312953470248015</v>
+        <v>-5.441972075847627E-07</v>
       </c>
       <c r="V14">
-        <v>5.254445813255888E-05</v>
+        <v>1.973157371607279E-06</v>
       </c>
       <c r="W14">
-        <v>0.0002063389383574051</v>
+        <v>-3.150049646730847E-07</v>
       </c>
       <c r="X14">
-        <v>-0.0001914262296126046</v>
+        <v>-2.312363961801107E-07</v>
       </c>
       <c r="Y14">
-        <v>-0.0005995727037075091</v>
+        <v>3.044387688540964E-07</v>
       </c>
       <c r="Z14">
-        <v>-5.898086711896598E-06</v>
+        <v>-1.380669781046436E-08</v>
       </c>
       <c r="AA14">
-        <v>-0.0004346723687851056</v>
+        <v>-1.891090884146678E-07</v>
       </c>
       <c r="AB14">
-        <v>-1.123362849215814E-05</v>
+        <v>1.050031353196011E-07</v>
       </c>
       <c r="AC14">
-        <v>-3.106796807700332E-06</v>
+        <v>-5.391055512299278E-08</v>
       </c>
       <c r="AD14">
-        <v>3.559606857885028E-05</v>
+        <v>1.432814069355754E-08</v>
       </c>
       <c r="AE14">
-        <v>1.033286417263403E-05</v>
+        <v>2.723605752473021E-08</v>
       </c>
       <c r="AF14">
-        <v>0.0004096274600096853</v>
+        <v>-1.014338083666643E-08</v>
       </c>
       <c r="AG14">
-        <v>-0.0003485065906635491</v>
+        <v>5.617609730589432E-08</v>
       </c>
       <c r="AH14">
-        <v>-0.0001834247509418961</v>
+        <v>-7.200178587054612E-09</v>
       </c>
       <c r="AI14">
-        <v>1.200381008643426E-06</v>
+        <v>3.460131022487782E-08</v>
       </c>
       <c r="AJ14">
-        <v>1.130194246141658E-08</v>
+        <v>1.7366536234376E-08</v>
       </c>
       <c r="AK14">
-        <v>-2.732016894557798E-08</v>
+        <v>1.788832116875312E-08</v>
       </c>
       <c r="AL14">
-        <v>2.157317953935603E-08</v>
+        <v>1.850495224179222E-09</v>
       </c>
       <c r="AM14">
-        <v>1.363325901044401E-09</v>
+        <v>-3.224292352881097E-09</v>
       </c>
       <c r="AN14">
-        <v>5.856667893335721E-09</v>
+        <v>4.503949513072322E-09</v>
       </c>
       <c r="AO14">
-        <v>2.688863938461169E-08</v>
+        <v>-5.173634154767545E-09</v>
       </c>
       <c r="AP14">
-        <v>-4.919779967583414E-10</v>
+        <v>3.007542100981298E-09</v>
       </c>
       <c r="AQ14">
-        <v>6.493347726882793E-11</v>
+        <v>-4.132900753029073E-10</v>
       </c>
       <c r="AR14">
-        <v>4.68415093622463E-09</v>
+        <v>3.992889209939706E-09</v>
       </c>
       <c r="AS14">
-        <v>-1.193196196079862E-09</v>
+        <v>-8.246645301009515E-11</v>
       </c>
       <c r="AT14">
-        <v>4.39953709797921E-16</v>
+        <v>-3.152045154908617E-16</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -2478,139 +2478,139 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.001012538989153</v>
+        <v>1.044268087701962</v>
       </c>
       <c r="C15">
-        <v>0.2548290424032918</v>
+        <v>-0.1586794238829484</v>
       </c>
       <c r="D15">
-        <v>-0.134230280202201</v>
+        <v>0.02218378735424542</v>
       </c>
       <c r="E15">
-        <v>0.1459711407772843</v>
+        <v>0.06126151827151022</v>
       </c>
       <c r="F15">
-        <v>-0.05207285976821037</v>
+        <v>-0.05262010017930582</v>
       </c>
       <c r="G15">
-        <v>-0.01744001018044521</v>
+        <v>0.04853927448468399</v>
       </c>
       <c r="H15">
-        <v>0.03023779390901763</v>
+        <v>-0.007851156020788419</v>
       </c>
       <c r="I15">
-        <v>-0.00868750365497889</v>
+        <v>0.04017939022085479</v>
       </c>
       <c r="J15">
-        <v>-0.02398853460963072</v>
+        <v>-0.007553145253790665</v>
       </c>
       <c r="K15">
-        <v>-0.009309270151622265</v>
+        <v>0.009793714285846026</v>
       </c>
       <c r="L15">
-        <v>-3.916740741687455E-05</v>
+        <v>0.03045390982045035</v>
       </c>
       <c r="M15">
-        <v>-0.009485299711655631</v>
+        <v>0.0009983643636266065</v>
       </c>
       <c r="N15">
-        <v>-0.0007259933989528734</v>
+        <v>0.0006230677805258503</v>
       </c>
       <c r="O15">
-        <v>-0.01421202816690586</v>
+        <v>-0.001838750973063466</v>
       </c>
       <c r="P15">
-        <v>0.003398126854811222</v>
+        <v>0.000857575694275067</v>
       </c>
       <c r="Q15">
-        <v>-0.0008815208031450049</v>
+        <v>0.00969444349677966</v>
       </c>
       <c r="R15">
-        <v>-0.004323616646816479</v>
+        <v>0.004552906981593037</v>
       </c>
       <c r="S15">
-        <v>-0.00021267036799958</v>
+        <v>0.002223093802997961</v>
       </c>
       <c r="T15">
-        <v>0.001238035167302784</v>
+        <v>1.827196071881634E-05</v>
       </c>
       <c r="U15">
-        <v>-0.0006041678207102494</v>
+        <v>0.008040559464390203</v>
       </c>
       <c r="V15">
-        <v>-0.004519272127916392</v>
+        <v>0.001580290968180601</v>
       </c>
       <c r="W15">
-        <v>2.440678594780819E-06</v>
+        <v>0.003539339472775089</v>
       </c>
       <c r="X15">
-        <v>1.791137877525961E-06</v>
+        <v>-0.002851192420378288</v>
       </c>
       <c r="Y15">
-        <v>6.288134355141542E-05</v>
+        <v>4.061655083687194E-05</v>
       </c>
       <c r="Z15">
-        <v>0.004095538078676042</v>
+        <v>0.003594258461696277</v>
       </c>
       <c r="AA15">
-        <v>1.433901065894667E-07</v>
+        <v>0.001669061441956348</v>
       </c>
       <c r="AB15">
-        <v>8.551500573776265E-07</v>
+        <v>-7.599942672125721E-05</v>
       </c>
       <c r="AC15">
-        <v>0.0004916046017889005</v>
+        <v>0.0001417674952261236</v>
       </c>
       <c r="AD15">
-        <v>-1.051701612537712E-05</v>
+        <v>-0.0001825141998601669</v>
       </c>
       <c r="AE15">
-        <v>-0.001479032664988304</v>
+        <v>0.0007620045175256728</v>
       </c>
       <c r="AF15">
-        <v>1.478394252031292E-07</v>
+        <v>-0.001122715938682595</v>
       </c>
       <c r="AG15">
-        <v>-2.43089937621388E-05</v>
+        <v>6.264877089291447E-05</v>
       </c>
       <c r="AH15">
-        <v>-5.999532656958048E-06</v>
+        <v>0.0007094163086978865</v>
       </c>
       <c r="AI15">
-        <v>-1.260420766388664E-07</v>
+        <v>-2.780216699001602E-05</v>
       </c>
       <c r="AJ15">
-        <v>-1.139385077272958E-08</v>
+        <v>-3.268249161136723E-05</v>
       </c>
       <c r="AK15">
-        <v>3.719649906227787E-08</v>
+        <v>0.0009124211597529032</v>
       </c>
       <c r="AL15">
-        <v>-4.634216084639454E-08</v>
+        <v>-0.001418911650537602</v>
       </c>
       <c r="AM15">
-        <v>2.787660716786001E-07</v>
+        <v>2.089852808469282E-07</v>
       </c>
       <c r="AN15">
-        <v>-3.928605168050627E-08</v>
+        <v>-3.187065682248438E-07</v>
       </c>
       <c r="AO15">
-        <v>-2.391213676627919E-07</v>
+        <v>3.082733367837979E-07</v>
       </c>
       <c r="AP15">
-        <v>1.566712796556898E-08</v>
+        <v>-1.923253718291734E-07</v>
       </c>
       <c r="AQ15">
-        <v>-0.0002539236869821872</v>
+        <v>2.376147150340329E-08</v>
       </c>
       <c r="AR15">
-        <v>2.528541691531372E-07</v>
+        <v>-2.504032122030658E-07</v>
       </c>
       <c r="AS15">
-        <v>-3.12375051164378E-08</v>
+        <v>4.228641396855039E-09</v>
       </c>
       <c r="AT15">
-        <v>4.39953709799541E-16</v>
+        <v>-3.152045154905697E-16</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -2618,139 +2618,139 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.208100286669454</v>
+        <v>0.9833192389814396</v>
       </c>
       <c r="C16">
-        <v>-0.6071895218831361</v>
+        <v>-0.3264102046791619</v>
       </c>
       <c r="D16">
-        <v>0.1004741381178059</v>
+        <v>0.1743432791234474</v>
       </c>
       <c r="E16">
-        <v>-0.1111552778635028</v>
+        <v>-0.034444944497776</v>
       </c>
       <c r="F16">
-        <v>-0.0009449004116767237</v>
+        <v>0.03834955401225368</v>
       </c>
       <c r="G16">
-        <v>-0.05339045967887979</v>
+        <v>0.007788255693577325</v>
       </c>
       <c r="H16">
-        <v>0.04593614887745179</v>
+        <v>0.01666952292794409</v>
       </c>
       <c r="I16">
-        <v>0.007392431161029495</v>
+        <v>0.02575508991844062</v>
       </c>
       <c r="J16">
-        <v>0.02362371790648966</v>
+        <v>-0.008537025748163569</v>
       </c>
       <c r="K16">
-        <v>-0.004559084600658751</v>
+        <v>-0.03017885428140087</v>
       </c>
       <c r="L16">
-        <v>0.002305614010996273</v>
+        <v>-0.01424268537331631</v>
       </c>
       <c r="M16">
-        <v>0.0019811458183783</v>
+        <v>-0.001273222349648205</v>
       </c>
       <c r="N16">
-        <v>0.0008030909727024389</v>
+        <v>-0.0009298448343314386</v>
       </c>
       <c r="O16">
-        <v>-0.000796244055051215</v>
+        <v>-0.005172957661529361</v>
       </c>
       <c r="P16">
-        <v>0.0005639069780553121</v>
+        <v>-0.0006974898005915788</v>
       </c>
       <c r="Q16">
-        <v>0.00139641144294604</v>
+        <v>-0.01274783174071269</v>
       </c>
       <c r="R16">
-        <v>-6.75503704277651E-05</v>
+        <v>-0.005446321002167581</v>
       </c>
       <c r="S16">
-        <v>-0.0002604053394167519</v>
+        <v>-0.008890071724995181</v>
       </c>
       <c r="T16">
-        <v>1.620645881422616E-05</v>
+        <v>1.635186830681041E-05</v>
       </c>
       <c r="U16">
-        <v>0.002592524171959183</v>
+        <v>0.002592140937318533</v>
       </c>
       <c r="V16">
-        <v>-0.0002806216137100574</v>
+        <v>0.0005166516919673739</v>
       </c>
       <c r="W16">
-        <v>0.0004408388175153406</v>
+        <v>0.001040298230377055</v>
       </c>
       <c r="X16">
-        <v>0.0001032039108296332</v>
+        <v>-0.0009728741395128454</v>
       </c>
       <c r="Y16">
-        <v>0.008493089020707131</v>
+        <v>-8.307931906179057E-05</v>
       </c>
       <c r="Z16">
-        <v>-9.867364096755077E-05</v>
+        <v>-0.0009845234730339052</v>
       </c>
       <c r="AA16">
-        <v>1.762115028947944E-05</v>
+        <v>-5.250470364581295E-05</v>
       </c>
       <c r="AB16">
-        <v>-2.375965437363263E-05</v>
+        <v>4.763964569192732E-07</v>
       </c>
       <c r="AC16">
-        <v>-8.597159284478115E-06</v>
+        <v>-0.0006222769578934821</v>
       </c>
       <c r="AD16">
-        <v>7.903907896156686E-06</v>
+        <v>0.0001959608738513297</v>
       </c>
       <c r="AE16">
-        <v>-1.132087937577534E-06</v>
+        <v>-8.00193567109067E-05</v>
       </c>
       <c r="AF16">
-        <v>-1.262975823433776E-06</v>
+        <v>0.0002464095948289492</v>
       </c>
       <c r="AG16">
-        <v>0.002164539913555377</v>
+        <v>-6.403758107920466E-05</v>
       </c>
       <c r="AH16">
-        <v>-0.003675509016957683</v>
+        <v>0.0005094422515171901</v>
       </c>
       <c r="AI16">
-        <v>-7.055623971857282E-06</v>
+        <v>0.001495965653443689</v>
       </c>
       <c r="AJ16">
-        <v>-1.706147866745277E-07</v>
+        <v>1.683564121131341E-06</v>
       </c>
       <c r="AK16">
-        <v>1.175902072375952E-06</v>
+        <v>2.114384798231722E-06</v>
       </c>
       <c r="AL16">
-        <v>-1.414465341384302E-06</v>
+        <v>6.265168497741654E-07</v>
       </c>
       <c r="AM16">
-        <v>-7.856787867667562E-08</v>
+        <v>-0.0001477667928880826</v>
       </c>
       <c r="AN16">
-        <v>-5.397845292961243E-07</v>
+        <v>0.001034805401219492</v>
       </c>
       <c r="AO16">
-        <v>-2.864322944569696E-06</v>
+        <v>-0.0002834233829942166</v>
       </c>
       <c r="AP16">
-        <v>5.323078613446942E-08</v>
+        <v>-5.758056987371498E-05</v>
       </c>
       <c r="AQ16">
-        <v>-8.767179115393539E-09</v>
+        <v>8.831499396651283E-07</v>
       </c>
       <c r="AR16">
-        <v>-5.737514633859065E-07</v>
+        <v>-5.247333537079292E-06</v>
       </c>
       <c r="AS16">
-        <v>1.439727936074818E-07</v>
+        <v>7.542617036027252E-08</v>
       </c>
       <c r="AT16">
-        <v>4.399537097979492E-16</v>
+        <v>-3.152045154896623E-16</v>
       </c>
     </row>
     <row r="17" spans="1:46">
@@ -2758,139 +2758,139 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9998696454847528</v>
+        <v>0.4757800260219458</v>
       </c>
       <c r="C17">
-        <v>0.2563596846491021</v>
+        <v>0.4711218607857731</v>
       </c>
       <c r="D17">
-        <v>-0.134645976310699</v>
+        <v>-0.3008815623335121</v>
       </c>
       <c r="E17">
-        <v>0.1457068243225725</v>
+        <v>-0.04774590636093289</v>
       </c>
       <c r="F17">
-        <v>-0.05199560919278411</v>
+        <v>0.08153374425649158</v>
       </c>
       <c r="G17">
-        <v>-0.01792498376820884</v>
+        <v>-0.07753285488311998</v>
       </c>
       <c r="H17">
-        <v>0.0301894384729567</v>
+        <v>0.02474121981840357</v>
       </c>
       <c r="I17">
-        <v>-0.008862405483319565</v>
+        <v>0.01994814446014568</v>
       </c>
       <c r="J17">
-        <v>-0.02421867047606371</v>
+        <v>-0.01233582100647729</v>
       </c>
       <c r="K17">
-        <v>-0.009298316594744624</v>
+        <v>-0.005012519645757558</v>
       </c>
       <c r="L17">
-        <v>-6.41358324407425E-05</v>
+        <v>0.01907292780488808</v>
       </c>
       <c r="M17">
-        <v>-0.009198333542015519</v>
+        <v>0.00119222954616654</v>
       </c>
       <c r="N17">
-        <v>-0.0006979886513205307</v>
+        <v>0.000155205510310026</v>
       </c>
       <c r="O17">
-        <v>-0.01419369952117929</v>
+        <v>0.03242804927790805</v>
       </c>
       <c r="P17">
-        <v>0.003416471341520301</v>
+        <v>-0.002932140611780011</v>
       </c>
       <c r="Q17">
-        <v>-0.0008938232640361044</v>
+        <v>-0.01719652281274516</v>
       </c>
       <c r="R17">
-        <v>-0.004208580955938666</v>
+        <v>0.01131784735656175</v>
       </c>
       <c r="S17">
-        <v>-0.0001891285065355214</v>
+        <v>-0.002427309066223102</v>
       </c>
       <c r="T17">
-        <v>0.001105268406741195</v>
+        <v>0.0003128530536300623</v>
       </c>
       <c r="U17">
-        <v>-0.0006156661097362201</v>
+        <v>0.0004211887983999261</v>
       </c>
       <c r="V17">
-        <v>-0.004664843661521533</v>
+        <v>5.84591715608699E-05</v>
       </c>
       <c r="W17">
-        <v>2.069189822134291E-06</v>
+        <v>-0.003361256507679255</v>
       </c>
       <c r="X17">
-        <v>1.726527917573225E-06</v>
+        <v>-0.0029353650543944</v>
       </c>
       <c r="Y17">
-        <v>5.979752914638565E-05</v>
+        <v>0.009836636094187641</v>
       </c>
       <c r="Z17">
-        <v>0.003979921855073664</v>
+        <v>-0.0003185813674035672</v>
       </c>
       <c r="AA17">
-        <v>1.505590665300477E-07</v>
+        <v>0.0001223434824465487</v>
       </c>
       <c r="AB17">
-        <v>7.932317015094392E-07</v>
+        <v>0.0007391143010295163</v>
       </c>
       <c r="AC17">
-        <v>0.0004684477385587638</v>
+        <v>-7.6116980753027E-07</v>
       </c>
       <c r="AD17">
-        <v>-9.761041813180949E-06</v>
+        <v>9.346830305940031E-07</v>
       </c>
       <c r="AE17">
-        <v>-0.001380487570651955</v>
+        <v>3.801841778268794E-06</v>
       </c>
       <c r="AF17">
-        <v>1.379015331560207E-07</v>
+        <v>1.967606407912602E-06</v>
       </c>
       <c r="AG17">
-        <v>-2.24706641032111E-05</v>
+        <v>4.483883185234044E-06</v>
       </c>
       <c r="AH17">
-        <v>-5.510260725142403E-06</v>
+        <v>4.37627955114792E-07</v>
       </c>
       <c r="AI17">
-        <v>-1.114070112021702E-07</v>
+        <v>-7.217481809290791E-07</v>
       </c>
       <c r="AJ17">
-        <v>-8.259904040629558E-09</v>
+        <v>-3.49917663245448E-07</v>
       </c>
       <c r="AK17">
-        <v>1.617705871822658E-08</v>
+        <v>-3.583044751176738E-07</v>
       </c>
       <c r="AL17">
-        <v>-1.206249275163416E-08</v>
+        <v>-3.725910843897983E-08</v>
       </c>
       <c r="AM17">
-        <v>5.328121940461936E-07</v>
+        <v>6.335787335108949E-08</v>
       </c>
       <c r="AN17">
-        <v>1.429495044253928E-08</v>
+        <v>-8.773271430143603E-08</v>
       </c>
       <c r="AO17">
-        <v>1.059178022290189E-07</v>
+        <v>7.772086503357542E-08</v>
       </c>
       <c r="AP17">
-        <v>-1.306822128996502E-08</v>
+        <v>5.637440828522201E-08</v>
       </c>
       <c r="AQ17">
-        <v>0.0002559560500160215</v>
+        <v>8.342472293733731E-09</v>
       </c>
       <c r="AR17">
-        <v>-2.825296873452084E-07</v>
+        <v>-8.7011415316665E-08</v>
       </c>
       <c r="AS17">
-        <v>3.883205562465455E-08</v>
+        <v>1.586339055596215E-09</v>
       </c>
       <c r="AT17">
-        <v>4.399537097960593E-16</v>
+        <v>-3.152045154907923E-16</v>
       </c>
     </row>
     <row r="18" spans="1:46">
@@ -2898,139 +2898,139 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.228373513237138</v>
+        <v>0.8962841715267896</v>
       </c>
       <c r="C18">
-        <v>-0.5785957899395092</v>
+        <v>-0.3859643297830248</v>
       </c>
       <c r="D18">
-        <v>0.1058804467793685</v>
+        <v>0.2192783895256027</v>
       </c>
       <c r="E18">
-        <v>-0.09224258384211345</v>
+        <v>-0.08289627487364849</v>
       </c>
       <c r="F18">
-        <v>0.009516497819278881</v>
+        <v>0.06788934979793526</v>
       </c>
       <c r="G18">
-        <v>-0.04123733530142939</v>
+        <v>-0.02642088711784529</v>
       </c>
       <c r="H18">
-        <v>0.03065366411442799</v>
+        <v>0.009859683321713459</v>
       </c>
       <c r="I18">
-        <v>0.001814932638359003</v>
+        <v>-0.01824086606454403</v>
       </c>
       <c r="J18">
-        <v>0.01359415474298886</v>
+        <v>0.004262673684041404</v>
       </c>
       <c r="K18">
-        <v>-0.00476202570584853</v>
+        <v>-0.004986348664164864</v>
       </c>
       <c r="L18">
-        <v>0.003585556410430109</v>
+        <v>-0.01806809018270186</v>
       </c>
       <c r="M18">
-        <v>-0.001154032817485207</v>
+        <v>0.0002322354578483722</v>
       </c>
       <c r="N18">
-        <v>0.001196599339079588</v>
+        <v>0.0008572760842001028</v>
       </c>
       <c r="O18">
-        <v>0.003606220762298301</v>
+        <v>0.01539748909081781</v>
       </c>
       <c r="P18">
-        <v>0.009051547451624665</v>
+        <v>8.430224022915263E-05</v>
       </c>
       <c r="Q18">
-        <v>-0.006005292674270606</v>
+        <v>0.02016848499125931</v>
       </c>
       <c r="R18">
-        <v>-0.0002078932096035392</v>
+        <v>0.00371133407290906</v>
       </c>
       <c r="S18">
-        <v>-0.0001567600248359514</v>
+        <v>0.00492339835689963</v>
       </c>
       <c r="T18">
-        <v>0.000156442931734322</v>
+        <v>-2.312541868807413E-05</v>
       </c>
       <c r="U18">
-        <v>0.004007016461568614</v>
+        <v>-0.001016519807545949</v>
       </c>
       <c r="V18">
-        <v>-0.0003413300988576229</v>
+        <v>-0.0002198600771158496</v>
       </c>
       <c r="W18">
-        <v>0.0002751196863145465</v>
+        <v>-0.0004151713996914918</v>
       </c>
       <c r="X18">
-        <v>7.714982552436455E-05</v>
+        <v>0.000411180884178933</v>
       </c>
       <c r="Y18">
-        <v>0.007387540881141663</v>
+        <v>4.206208114412086E-05</v>
       </c>
       <c r="Z18">
-        <v>-0.0001139155074859922</v>
+        <v>0.0006208978685868198</v>
       </c>
       <c r="AA18">
-        <v>3.379430241468412E-05</v>
+        <v>0.0001489216277917266</v>
       </c>
       <c r="AB18">
-        <v>-5.219017969809283E-05</v>
+        <v>-2.063959348573383E-05</v>
       </c>
       <c r="AC18">
-        <v>-1.90216508673127E-05</v>
+        <v>-0.003719189050581223</v>
       </c>
       <c r="AD18">
-        <v>0.0001868369540335168</v>
+        <v>-0.0003897304352046006</v>
       </c>
       <c r="AE18">
-        <v>5.313836127517421E-05</v>
+        <v>2.819401608014449E-05</v>
       </c>
       <c r="AF18">
-        <v>4.301051858290584E-06</v>
+        <v>-3.79580759671896E-05</v>
       </c>
       <c r="AG18">
-        <v>-0.002906802696928262</v>
+        <v>5.707424888766076E-06</v>
       </c>
       <c r="AH18">
-        <v>0.003597983733468719</v>
+        <v>-4.690473879955488E-05</v>
       </c>
       <c r="AI18">
-        <v>2.644897216283351E-06</v>
+        <v>-5.733890367291571E-05</v>
       </c>
       <c r="AJ18">
-        <v>-9.981968602749288E-07</v>
+        <v>-6.637833696339904E-07</v>
       </c>
       <c r="AK18">
-        <v>-2.781057138487961E-08</v>
+        <v>-7.256376463902687E-07</v>
       </c>
       <c r="AL18">
-        <v>2.248559527544734E-06</v>
+        <v>-8.540957938110468E-08</v>
       </c>
       <c r="AM18">
-        <v>-9.158064747217445E-10</v>
+        <v>3.14959599412773E-07</v>
       </c>
       <c r="AN18">
-        <v>1.029264352865561E-08</v>
+        <v>-5.531367650078022E-07</v>
       </c>
       <c r="AO18">
-        <v>7.328597716481847E-08</v>
+        <v>2.702925460380709E-06</v>
       </c>
       <c r="AP18">
-        <v>1.990244190358155E-08</v>
+        <v>-1.193007904413913E-06</v>
       </c>
       <c r="AQ18">
-        <v>3.300358840396173E-09</v>
+        <v>0.000478595002406567</v>
       </c>
       <c r="AR18">
-        <v>1.911380429917921E-06</v>
+        <v>3.152166843581082E-06</v>
       </c>
       <c r="AS18">
-        <v>7.935037210111689E-08</v>
+        <v>-1.906819352661883E-06</v>
       </c>
       <c r="AT18">
-        <v>4.399537097977285E-16</v>
+        <v>-3.152045154911956E-16</v>
       </c>
     </row>
     <row r="19" spans="1:46">
@@ -3038,139 +3038,139 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.169027591678162</v>
+        <v>0.6864343734536401</v>
       </c>
       <c r="C19">
-        <v>-0.6507413787231301</v>
+        <v>-0.4507799502242582</v>
       </c>
       <c r="D19">
-        <v>0.08744715993771117</v>
+        <v>0.2466586833595455</v>
       </c>
       <c r="E19">
-        <v>-0.1407350652417809</v>
+        <v>-0.1485646659541781</v>
       </c>
       <c r="F19">
-        <v>-0.02141461625093097</v>
+        <v>0.07639996920254016</v>
       </c>
       <c r="G19">
-        <v>-0.06872796337499226</v>
+        <v>-0.07444549864467682</v>
       </c>
       <c r="H19">
-        <v>0.06587703542424209</v>
+        <v>-0.02543344671422755</v>
       </c>
       <c r="I19">
-        <v>0.01699843429968776</v>
+        <v>-0.07999795779270229</v>
       </c>
       <c r="J19">
-        <v>0.03615030509387058</v>
+        <v>0.02093206710609903</v>
       </c>
       <c r="K19">
-        <v>-0.002126722023146105</v>
+        <v>0.05885359750188107</v>
       </c>
       <c r="L19">
-        <v>-0.002122691456813664</v>
+        <v>0.03094696441386921</v>
       </c>
       <c r="M19">
-        <v>0.006922710260150153</v>
+        <v>0.001732229039848024</v>
       </c>
       <c r="N19">
-        <v>-0.0007400415565306471</v>
+        <v>0.0002890009248687057</v>
       </c>
       <c r="O19">
-        <v>-0.008710730816414275</v>
+        <v>-0.01094395220132512</v>
       </c>
       <c r="P19">
-        <v>-0.01662180784911379</v>
+        <v>0.0007460523580674849</v>
       </c>
       <c r="Q19">
-        <v>0.01369489855873842</v>
+        <v>-0.01174187576739413</v>
       </c>
       <c r="R19">
-        <v>0.0002726200167218814</v>
+        <v>-0.001266684638249767</v>
       </c>
       <c r="S19">
-        <v>1.512239269329779E-05</v>
+        <v>-0.001373313657459655</v>
       </c>
       <c r="T19">
-        <v>-0.0002226937340168162</v>
+        <v>3.836613424901957E-05</v>
       </c>
       <c r="U19">
-        <v>-0.003939351741342432</v>
+        <v>0.0001442744244014585</v>
       </c>
       <c r="V19">
-        <v>0.0003067892701182748</v>
+        <v>6.865807004763769E-05</v>
       </c>
       <c r="W19">
-        <v>-0.0001862788380650821</v>
+        <v>4.861595259659279E-05</v>
       </c>
       <c r="X19">
-        <v>-6.410899318388132E-05</v>
+        <v>-4.984572530404367E-05</v>
       </c>
       <c r="Y19">
-        <v>-0.006908470252322775</v>
+        <v>2.27470011315118E-06</v>
       </c>
       <c r="Z19">
-        <v>0.0001137928218934496</v>
+        <v>-5.244442043883227E-05</v>
       </c>
       <c r="AA19">
-        <v>-3.194419244646839E-05</v>
+        <v>-1.540166874008499E-05</v>
       </c>
       <c r="AB19">
-        <v>4.749267503208651E-05</v>
+        <v>5.437231126498385E-06</v>
       </c>
       <c r="AC19">
-        <v>1.701933154709153E-05</v>
+        <v>0.0002032250661432536</v>
       </c>
       <c r="AD19">
-        <v>-0.0001177206700561507</v>
+        <v>1.905948428452217E-05</v>
       </c>
       <c r="AE19">
-        <v>-2.99810374443268E-05</v>
+        <v>6.406805756998661E-07</v>
       </c>
       <c r="AF19">
-        <v>-1.171628226442063E-06</v>
+        <v>7.490957466351862E-07</v>
       </c>
       <c r="AG19">
-        <v>-0.0001525272831222315</v>
+        <v>4.581654805184878E-06</v>
       </c>
       <c r="AH19">
-        <v>0.001132595250203564</v>
+        <v>1.118381355209891E-06</v>
       </c>
       <c r="AI19">
-        <v>5.080005724431723E-06</v>
+        <v>5.771568619979863E-06</v>
       </c>
       <c r="AJ19">
-        <v>3.191993411749854E-07</v>
+        <v>4.495363977145661E-06</v>
       </c>
       <c r="AK19">
-        <v>-1.084672501343606E-06</v>
+        <v>5.424048972700596E-06</v>
       </c>
       <c r="AL19">
-        <v>1.106640545134793E-06</v>
+        <v>7.211070596955082E-07</v>
       </c>
       <c r="AM19">
-        <v>7.322902562739279E-08</v>
+        <v>-3.537964145222723E-06</v>
       </c>
       <c r="AN19">
-        <v>5.095765650100482E-07</v>
+        <v>4.934049340270726E-06</v>
       </c>
       <c r="AO19">
-        <v>2.777807711077815E-06</v>
+        <v>-1.831042761682033E-05</v>
       </c>
       <c r="AP19">
-        <v>-5.043477969108577E-08</v>
+        <v>1.23317279051699E-05</v>
       </c>
       <c r="AQ19">
-        <v>8.520606220537359E-09</v>
+        <v>-4.030908342978149E-06</v>
       </c>
       <c r="AR19">
-        <v>5.07164421352096E-07</v>
+        <v>0.0003034704849325178</v>
       </c>
       <c r="AS19">
-        <v>-1.352871070103808E-07</v>
+        <v>1.28465608702752E-06</v>
       </c>
       <c r="AT19">
-        <v>4.399537097979947E-16</v>
+        <v>-3.152045154797452E-16</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -3178,139 +3178,139 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.252542217219627</v>
+        <v>1.020568679104036</v>
       </c>
       <c r="C20">
-        <v>-0.5351283039217711</v>
+        <v>-0.02694625654193187</v>
       </c>
       <c r="D20">
-        <v>0.1099663770233037</v>
+        <v>-0.08929778278174326</v>
       </c>
       <c r="E20">
-        <v>-0.06418829872068284</v>
+        <v>0.09713497247820954</v>
       </c>
       <c r="F20">
-        <v>0.02143875757842554</v>
+        <v>-0.08650794912184397</v>
       </c>
       <c r="G20">
-        <v>-0.02067475071391665</v>
+        <v>0.03476377185173531</v>
       </c>
       <c r="H20">
-        <v>0.005879552055585898</v>
+        <v>-0.01822172365048697</v>
       </c>
       <c r="I20">
-        <v>-0.005305261094871372</v>
+        <v>-0.005312934519068896</v>
       </c>
       <c r="J20">
-        <v>-0.002606559793206248</v>
+        <v>0.006265435000507193</v>
       </c>
       <c r="K20">
-        <v>-0.003412646381804666</v>
+        <v>0.02500690494287174</v>
       </c>
       <c r="L20">
-        <v>0.003343244661905016</v>
+        <v>-0.00905441139287894</v>
       </c>
       <c r="M20">
-        <v>-0.0047621150941106</v>
+        <v>0.0001729784048637558</v>
       </c>
       <c r="N20">
-        <v>0.0009664855195619536</v>
+        <v>8.459304009157293E-05</v>
       </c>
       <c r="O20">
-        <v>0.007323883795186582</v>
+        <v>0.01030494905619171</v>
       </c>
       <c r="P20">
-        <v>0.01439537621762677</v>
+        <v>-0.0007844452535939655</v>
       </c>
       <c r="Q20">
-        <v>-0.01209894472698267</v>
+        <v>-0.001777024197230519</v>
       </c>
       <c r="R20">
-        <v>-0.0002180280597973429</v>
+        <v>-0.007269754572602637</v>
       </c>
       <c r="S20">
-        <v>0.0002044387523034927</v>
+        <v>-0.002931448029317804</v>
       </c>
       <c r="T20">
-        <v>0.0001983822450550833</v>
+        <v>-3.941091802374856E-05</v>
       </c>
       <c r="U20">
-        <v>0.001147408953685496</v>
+        <v>-0.007895020244428275</v>
       </c>
       <c r="V20">
-        <v>2.046124932973033E-05</v>
+        <v>-0.00155758727335431</v>
       </c>
       <c r="W20">
-        <v>-0.0004016213919782582</v>
+        <v>0.00112244663014209</v>
       </c>
       <c r="X20">
-        <v>-8.320115539438413E-05</v>
+        <v>-0.004401124669369604</v>
       </c>
       <c r="Y20">
-        <v>-0.006211943409588234</v>
+        <v>-0.0006352621366755554</v>
       </c>
       <c r="Z20">
-        <v>6.402199367836244E-05</v>
+        <v>-0.00139659875575782</v>
       </c>
       <c r="AA20">
-        <v>-1.251153386315631E-05</v>
+        <v>0.006958292962197898</v>
       </c>
       <c r="AB20">
-        <v>1.814320799378688E-05</v>
+        <v>-0.0003879361905127515</v>
       </c>
       <c r="AC20">
-        <v>6.587647150005919E-06</v>
+        <v>0.0001693438857498437</v>
       </c>
       <c r="AD20">
-        <v>-4.928788815334533E-05</v>
+        <v>-0.0003685642916469727</v>
       </c>
       <c r="AE20">
-        <v>-1.359590309638843E-05</v>
+        <v>0.001308604916802952</v>
       </c>
       <c r="AF20">
-        <v>-9.599588676188621E-07</v>
+        <v>0.001675207981895018</v>
       </c>
       <c r="AG20">
-        <v>0.0005466308475460726</v>
+        <v>-0.0003882225662762568</v>
       </c>
       <c r="AH20">
-        <v>-0.0005894101623972053</v>
+        <v>-0.0005674647535861109</v>
       </c>
       <c r="AI20">
-        <v>8.748430860186262E-08</v>
+        <v>1.805434756459573E-05</v>
       </c>
       <c r="AJ20">
-        <v>6.588220807675547E-06</v>
+        <v>0.0002601758634951339</v>
       </c>
       <c r="AK20">
-        <v>-8.601702844822349E-07</v>
+        <v>0.0001579500781019573</v>
       </c>
       <c r="AL20">
-        <v>-2.049235431057756E-05</v>
+        <v>4.045410184894137E-05</v>
       </c>
       <c r="AM20">
-        <v>1.161027242164022E-07</v>
+        <v>8.28564091569167E-05</v>
       </c>
       <c r="AN20">
-        <v>2.159143586379675E-06</v>
+        <v>1.167849904840614E-05</v>
       </c>
       <c r="AO20">
-        <v>1.376393050532492E-05</v>
+        <v>-1.041237846742418E-07</v>
       </c>
       <c r="AP20">
-        <v>-7.917582567005355E-07</v>
+        <v>6.72524046959308E-08</v>
       </c>
       <c r="AQ20">
-        <v>3.452159587526666E-07</v>
+        <v>-7.074061192871616E-09</v>
       </c>
       <c r="AR20">
-        <v>0.0001871572675181755</v>
+        <v>7.857908471210345E-08</v>
       </c>
       <c r="AS20">
-        <v>7.275205146526171E-06</v>
+        <v>-1.180876227460019E-09</v>
       </c>
       <c r="AT20">
-        <v>4.39953709799434E-16</v>
+        <v>-3.15204515490755E-16</v>
       </c>
     </row>
     <row r="21" spans="1:46">
@@ -3318,139 +3318,139 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.270484514564403</v>
+        <v>1.038120417275671</v>
       </c>
       <c r="C21">
-        <v>-0.4232418438028392</v>
+        <v>-0.2011252942130126</v>
       </c>
       <c r="D21">
-        <v>0.09418896873540826</v>
+        <v>0.06077459305355526</v>
       </c>
       <c r="E21">
-        <v>-0.002227184592347792</v>
+        <v>0.0408400465892288</v>
       </c>
       <c r="F21">
-        <v>0.0253780048172881</v>
+        <v>-0.03218599090824899</v>
       </c>
       <c r="G21">
-        <v>0.02552393431643732</v>
+        <v>0.04330370688135026</v>
       </c>
       <c r="H21">
-        <v>-0.03410053054675366</v>
+        <v>-0.001119686250444097</v>
       </c>
       <c r="I21">
-        <v>-0.008215777733418099</v>
+        <v>0.04493914577562893</v>
       </c>
       <c r="J21">
-        <v>-0.01983323342314964</v>
+        <v>-0.01031941144286454</v>
       </c>
       <c r="K21">
-        <v>0.003496534555531239</v>
+        <v>-0.002756388351461866</v>
       </c>
       <c r="L21">
-        <v>-0.002692823631374506</v>
+        <v>0.02665655613121994</v>
       </c>
       <c r="M21">
-        <v>0.001344122741233983</v>
+        <v>0.0004275684206440034</v>
       </c>
       <c r="N21">
-        <v>-0.0007876875982068605</v>
+        <v>7.992049241112023E-05</v>
       </c>
       <c r="O21">
-        <v>-0.004028081589843138</v>
+        <v>-0.00887331035039487</v>
       </c>
       <c r="P21">
-        <v>-0.00730975892660809</v>
+        <v>0.0007388583241115132</v>
       </c>
       <c r="Q21">
-        <v>0.005913976151536714</v>
+        <v>0.0004272352341318531</v>
       </c>
       <c r="R21">
-        <v>-0.0001045544532064993</v>
+        <v>0.007700149369144442</v>
       </c>
       <c r="S21">
-        <v>-0.0003335732710788817</v>
+        <v>0.0132690709690752</v>
       </c>
       <c r="T21">
-        <v>0.0003235784824781455</v>
+        <v>-7.620585020230184E-06</v>
       </c>
       <c r="U21">
-        <v>0.01078696077406193</v>
+        <v>0.0014742737285847</v>
       </c>
       <c r="V21">
-        <v>-0.0009231259880860614</v>
+        <v>0.0002901502635496148</v>
       </c>
       <c r="W21">
-        <v>-0.0001353113569487086</v>
+        <v>0.002131015089624687</v>
       </c>
       <c r="X21">
-        <v>-1.92233101144014E-05</v>
+        <v>-0.002910729824590099</v>
       </c>
       <c r="Y21">
-        <v>-0.001015877097264273</v>
+        <v>-0.0004203038479014627</v>
       </c>
       <c r="Z21">
-        <v>1.418995752278632E-05</v>
+        <v>-0.005554491108818138</v>
       </c>
       <c r="AA21">
-        <v>-6.964806728268774E-07</v>
+        <v>-0.0002089589550604676</v>
       </c>
       <c r="AB21">
-        <v>9.22753495738278E-07</v>
+        <v>-1.507485305728051E-05</v>
       </c>
       <c r="AC21">
-        <v>5.643685381158869E-07</v>
+        <v>-0.0006840175423051082</v>
       </c>
       <c r="AD21">
-        <v>-1.95654508738606E-06</v>
+        <v>0.003283607076021405</v>
       </c>
       <c r="AE21">
-        <v>-7.833756492429764E-07</v>
+        <v>-0.0002221883658920088</v>
       </c>
       <c r="AF21">
-        <v>-2.738623601847442E-08</v>
+        <v>-0.0006803207734218236</v>
       </c>
       <c r="AG21">
-        <v>1.016849198677302E-05</v>
+        <v>0.0003093235023430635</v>
       </c>
       <c r="AH21">
-        <v>-9.917338243210037E-07</v>
+        <v>-0.002587378932252945</v>
       </c>
       <c r="AI21">
-        <v>7.544248957874583E-08</v>
+        <v>0.0003908078329198419</v>
       </c>
       <c r="AJ21">
-        <v>0.001778003651282197</v>
+        <v>5.987663649211149E-06</v>
       </c>
       <c r="AK21">
-        <v>-2.816389334176137E-09</v>
+        <v>-0.0001593625040890195</v>
       </c>
       <c r="AL21">
-        <v>0.000101154449477012</v>
+        <v>0.0002052758872817419</v>
       </c>
       <c r="AM21">
-        <v>1.911518894501115E-07</v>
+        <v>6.488196193286875E-08</v>
       </c>
       <c r="AN21">
-        <v>-1.316521206258681E-06</v>
+        <v>-1.472104970267925E-07</v>
       </c>
       <c r="AO21">
-        <v>-2.120256515449604E-07</v>
+        <v>9.569891807515375E-08</v>
       </c>
       <c r="AP21">
-        <v>-1.11060472272527E-05</v>
+        <v>-5.742992037411919E-08</v>
       </c>
       <c r="AQ21">
-        <v>-1.127974645137292E-09</v>
+        <v>7.609605260187853E-09</v>
       </c>
       <c r="AR21">
-        <v>-6.469450224338199E-08</v>
+        <v>-8.300013973835007E-08</v>
       </c>
       <c r="AS21">
-        <v>4.588490413466013E-08</v>
+        <v>1.474963090554941E-09</v>
       </c>
       <c r="AT21">
-        <v>4.399537097977574E-16</v>
+        <v>-3.15204515491071E-16</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -3458,139 +3458,139 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.273585687355769</v>
+        <v>1.043480481675911</v>
       </c>
       <c r="C22">
-        <v>-0.465228296137467</v>
+        <v>-0.1165329479063798</v>
       </c>
       <c r="D22">
-        <v>0.1055704401593376</v>
+        <v>-0.01503037196341864</v>
       </c>
       <c r="E22">
-        <v>-0.02218583683718353</v>
+        <v>0.07732597117405537</v>
       </c>
       <c r="F22">
-        <v>0.02961234014779666</v>
+        <v>-0.068542528249447</v>
       </c>
       <c r="G22">
-        <v>0.01317774405897934</v>
+        <v>0.04882114539322482</v>
       </c>
       <c r="H22">
-        <v>-0.02958933108038454</v>
+        <v>-0.01317285467263804</v>
       </c>
       <c r="I22">
-        <v>-0.01115654336650094</v>
+        <v>0.02951077468279202</v>
       </c>
       <c r="J22">
-        <v>-0.02304715962397419</v>
+        <v>-0.003519434017964733</v>
       </c>
       <c r="K22">
-        <v>0.001616078363593071</v>
+        <v>0.0194019907404985</v>
       </c>
       <c r="L22">
-        <v>-0.001492418771971496</v>
+        <v>0.02451188320081322</v>
       </c>
       <c r="M22">
-        <v>-0.003807240038558032</v>
+        <v>0.001156113395639447</v>
       </c>
       <c r="N22">
-        <v>-0.0008966940392031899</v>
+        <v>0.0008330899641617701</v>
       </c>
       <c r="O22">
-        <v>0.0006545664049909462</v>
+        <v>0.005376602524069972</v>
       </c>
       <c r="P22">
-        <v>-0.003496539786941483</v>
+        <v>0.0005368993668160343</v>
       </c>
       <c r="Q22">
-        <v>0.001834310333969764</v>
+        <v>0.0127657549974966</v>
       </c>
       <c r="R22">
-        <v>0.0002775399662414845</v>
+        <v>-0.001708198814146169</v>
       </c>
       <c r="S22">
-        <v>0.000162648458525559</v>
+        <v>-0.009201322021969502</v>
       </c>
       <c r="T22">
-        <v>-0.000299813792478597</v>
+        <v>1.634872905879107E-05</v>
       </c>
       <c r="U22">
-        <v>-0.006495638475934404</v>
+        <v>0.001058433338891097</v>
       </c>
       <c r="V22">
-        <v>0.0004628867697299279</v>
+        <v>0.0002073881262162414</v>
       </c>
       <c r="W22">
-        <v>0.0001397756559203375</v>
+        <v>-0.001594702777422422</v>
       </c>
       <c r="X22">
-        <v>2.315112630370772E-05</v>
+        <v>0.002591897215035186</v>
       </c>
       <c r="Y22">
-        <v>0.001440907783056543</v>
+        <v>0.0002604538742604358</v>
       </c>
       <c r="Z22">
-        <v>-1.378333726992288E-05</v>
+        <v>0.0009349951242376892</v>
       </c>
       <c r="AA22">
-        <v>2.06824579169229E-06</v>
+        <v>-0.002188011301857184</v>
       </c>
       <c r="AB22">
-        <v>-3.010232584121844E-06</v>
+        <v>0.0001377987713330046</v>
       </c>
       <c r="AC22">
-        <v>-1.13620825470406E-06</v>
+        <v>7.041907749918531E-05</v>
       </c>
       <c r="AD22">
-        <v>8.777680639493449E-06</v>
+        <v>-0.0008314790005494528</v>
       </c>
       <c r="AE22">
-        <v>2.477510357579383E-06</v>
+        <v>-0.001814928144526722</v>
       </c>
       <c r="AF22">
-        <v>1.667190285766961E-07</v>
+        <v>0.003125369459709918</v>
       </c>
       <c r="AG22">
-        <v>-6.740419159302112E-05</v>
+        <v>-0.0002274123830820294</v>
       </c>
       <c r="AH22">
-        <v>2.825430260885211E-05</v>
+        <v>-0.001507468625653563</v>
       </c>
       <c r="AI22">
-        <v>-4.438665616145322E-07</v>
+        <v>6.478516171487635E-05</v>
       </c>
       <c r="AJ22">
-        <v>-4.011267294474113E-05</v>
+        <v>5.920862532133161E-05</v>
       </c>
       <c r="AK22">
-        <v>1.051240421979057E-06</v>
+        <v>-0.0008850467594062789</v>
       </c>
       <c r="AL22">
-        <v>-0.0003457480509988147</v>
+        <v>-0.0007472211746887109</v>
       </c>
       <c r="AM22">
-        <v>1.708671059996887E-07</v>
+        <v>-7.892354701541592E-07</v>
       </c>
       <c r="AN22">
-        <v>-1.483554978233746E-06</v>
+        <v>5.055000531779443E-07</v>
       </c>
       <c r="AO22">
-        <v>-9.771925736725406E-06</v>
+        <v>-5.206305634846074E-07</v>
       </c>
       <c r="AP22">
-        <v>-0.0001948394586702537</v>
+        <v>3.285093779074783E-07</v>
       </c>
       <c r="AQ22">
-        <v>-1.697483389927058E-07</v>
+        <v>-3.987061888906398E-08</v>
       </c>
       <c r="AR22">
-        <v>-1.974167314234175E-05</v>
+        <v>4.255062821562799E-07</v>
       </c>
       <c r="AS22">
-        <v>7.307752151973643E-05</v>
+        <v>-7.043793161820827E-09</v>
       </c>
       <c r="AT22">
-        <v>4.399537097559115E-16</v>
+        <v>-3.152045154914E-16</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -3598,139 +3598,139 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.961618658229261</v>
+        <v>-3.591385031550385</v>
       </c>
       <c r="C23">
-        <v>-0.1387317915616725</v>
+        <v>-0.4197917274491725</v>
       </c>
       <c r="D23">
-        <v>0.02211425231639977</v>
+        <v>-0.09256532193388678</v>
       </c>
       <c r="E23">
-        <v>0.09954490356287797</v>
+        <v>0.2687576730904987</v>
       </c>
       <c r="F23">
-        <v>0.1109827102946062</v>
+        <v>0.1808615269888253</v>
       </c>
       <c r="G23">
-        <v>-0.01126470218026029</v>
+        <v>0.03896906119649438</v>
       </c>
       <c r="H23">
-        <v>0.01646026366117739</v>
+        <v>-0.02785978834980938</v>
       </c>
       <c r="I23">
-        <v>0.01598882150407172</v>
+        <v>-0.02284159606495383</v>
       </c>
       <c r="J23">
-        <v>-0.002186946833267309</v>
+        <v>-0.04289479277759361</v>
       </c>
       <c r="K23">
-        <v>0.01464780155474496</v>
+        <v>0.00381532624830435</v>
       </c>
       <c r="L23">
-        <v>-0.03042692863529349</v>
+        <v>0.0005447101928798995</v>
       </c>
       <c r="M23">
-        <v>-0.002149008790968734</v>
+        <v>-0.04706808294884955</v>
       </c>
       <c r="N23">
-        <v>-0.004235182905853877</v>
+        <v>0.008533373025462625</v>
       </c>
       <c r="O23">
-        <v>0.002797295776239458</v>
+        <v>0.003760917457460983</v>
       </c>
       <c r="P23">
-        <v>0.01092322380147973</v>
+        <v>0.04494147160959971</v>
       </c>
       <c r="Q23">
-        <v>0.01045452227029901</v>
+        <v>-0.002087146264998674</v>
       </c>
       <c r="R23">
-        <v>2.682096805544061E-05</v>
+        <v>-2.968214052754664E-05</v>
       </c>
       <c r="S23">
-        <v>0.01457227578137353</v>
+        <v>-2.110083509702813E-05</v>
       </c>
       <c r="T23">
-        <v>0.002567828036610337</v>
+        <v>-6.993701887302717E-06</v>
       </c>
       <c r="U23">
-        <v>0.0001401101758000126</v>
+        <v>1.685172411475764E-06</v>
       </c>
       <c r="V23">
-        <v>-5.186635289519821E-06</v>
+        <v>-5.868621817073178E-06</v>
       </c>
       <c r="W23">
-        <v>-0.003511906233568377</v>
+        <v>1.042225635436243E-06</v>
       </c>
       <c r="X23">
-        <v>0.002474683918083705</v>
+        <v>8.029835198571868E-07</v>
       </c>
       <c r="Y23">
-        <v>0.0001754162115690442</v>
+        <v>-1.237763978455314E-06</v>
       </c>
       <c r="Z23">
-        <v>1.134720979066917E-06</v>
+        <v>3.271081445255166E-08</v>
       </c>
       <c r="AA23">
-        <v>-0.002755285015550536</v>
+        <v>8.928267401794602E-07</v>
       </c>
       <c r="AB23">
-        <v>-3.956769011684938E-05</v>
+        <v>-5.221841212040545E-07</v>
       </c>
       <c r="AC23">
-        <v>-5.418219335672099E-07</v>
+        <v>3.264968963730419E-07</v>
       </c>
       <c r="AD23">
-        <v>-4.709543155138117E-07</v>
+        <v>-6.88391851609842E-08</v>
       </c>
       <c r="AE23">
-        <v>-2.004275324829422E-07</v>
+        <v>-1.434597885338121E-07</v>
       </c>
       <c r="AF23">
-        <v>-0.000197178605257527</v>
+        <v>5.27699453572025E-08</v>
       </c>
       <c r="AG23">
-        <v>4.541140714485035E-06</v>
+        <v>-2.99833544621344E-07</v>
       </c>
       <c r="AH23">
-        <v>1.176968514020446E-06</v>
+        <v>3.796525221139081E-08</v>
       </c>
       <c r="AI23">
-        <v>7.824075926104964E-07</v>
+        <v>-1.843587246460359E-07</v>
       </c>
       <c r="AJ23">
-        <v>2.232465344039072E-09</v>
+        <v>-9.566670870625008E-08</v>
       </c>
       <c r="AK23">
-        <v>-1.031083697920998E-08</v>
+        <v>-9.848023896941957E-08</v>
       </c>
       <c r="AL23">
-        <v>1.162766026339887E-08</v>
+        <v>-1.030382497334802E-08</v>
       </c>
       <c r="AM23">
-        <v>7.299563748835247E-10</v>
+        <v>1.795287070034144E-08</v>
       </c>
       <c r="AN23">
-        <v>5.049557642019753E-09</v>
+        <v>-2.485571302306551E-08</v>
       </c>
       <c r="AO23">
-        <v>2.440515873857023E-08</v>
+        <v>2.921791356238738E-08</v>
       </c>
       <c r="AP23">
-        <v>-5.302996309721136E-10</v>
+        <v>-1.917973897080473E-08</v>
       </c>
       <c r="AQ23">
-        <v>7.519847321592345E-11</v>
+        <v>2.36717583541427E-09</v>
       </c>
       <c r="AR23">
-        <v>5.510673215909617E-09</v>
+        <v>-2.638340100246748E-08</v>
       </c>
       <c r="AS23">
-        <v>-1.451071809732724E-09</v>
+        <v>4.32373457921883E-10</v>
       </c>
       <c r="AT23">
-        <v>4.399537097978137E-16</v>
+        <v>-3.152045154908663E-16</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -3738,139 +3738,139 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.268638290639291</v>
+        <v>1.007412108350475</v>
       </c>
       <c r="C24">
-        <v>-0.4114475702305733</v>
+        <v>0.007698907778347317</v>
       </c>
       <c r="D24">
-        <v>0.09048460147730462</v>
+        <v>-0.1161286980376408</v>
       </c>
       <c r="E24">
-        <v>0.002955857081927082</v>
+        <v>0.1014317997061913</v>
       </c>
       <c r="F24">
-        <v>0.02368607266178006</v>
+        <v>-0.08937709697483721</v>
       </c>
       <c r="G24">
-        <v>0.02826911181632465</v>
+        <v>0.02682591014540731</v>
       </c>
       <c r="H24">
-        <v>-0.03420872574607904</v>
+        <v>-0.01837812291837094</v>
       </c>
       <c r="I24">
-        <v>-0.007085308217890139</v>
+        <v>-0.01902925992465795</v>
       </c>
       <c r="J24">
-        <v>-0.01809249389598135</v>
+        <v>0.009499852786443911</v>
       </c>
       <c r="K24">
-        <v>0.00386806047331004</v>
+        <v>0.02340939323916009</v>
       </c>
       <c r="L24">
-        <v>-0.002832068271911845</v>
+        <v>-0.02188443519610788</v>
       </c>
       <c r="M24">
-        <v>0.002655648963205497</v>
+        <v>-0.0003125106060192552</v>
       </c>
       <c r="N24">
-        <v>-0.0006884830316812426</v>
+        <v>-0.0002946151452967984</v>
       </c>
       <c r="O24">
-        <v>-0.004874351000416568</v>
+        <v>0.008893602287599105</v>
       </c>
       <c r="P24">
-        <v>-0.007485117988684543</v>
+        <v>-0.001115396693888374</v>
       </c>
       <c r="Q24">
-        <v>0.006255381207189816</v>
+        <v>-0.008362505250534549</v>
       </c>
       <c r="R24">
-        <v>-0.0001930063821700831</v>
+        <v>-0.005683584836179996</v>
       </c>
       <c r="S24">
-        <v>-0.0003999384157782876</v>
+        <v>0.003562406730645303</v>
       </c>
       <c r="T24">
-        <v>0.0004287443247343491</v>
+        <v>-3.311507036347256E-05</v>
       </c>
       <c r="U24">
-        <v>0.01305767008135089</v>
+        <v>-0.003393208190391147</v>
       </c>
       <c r="V24">
-        <v>-0.001077180293107127</v>
+        <v>-0.0006652608851658315</v>
       </c>
       <c r="W24">
-        <v>-0.0001752974789936901</v>
+        <v>0.002832376780328014</v>
       </c>
       <c r="X24">
-        <v>-2.555440946640075E-05</v>
+        <v>-0.004511686439749707</v>
       </c>
       <c r="Y24">
-        <v>-0.001391280117842383</v>
+        <v>-0.0002431935434174537</v>
       </c>
       <c r="Z24">
-        <v>1.657800166051235E-05</v>
+        <v>0.00127773832664305</v>
       </c>
       <c r="AA24">
-        <v>-9.929965142521017E-07</v>
+        <v>-0.0008333841339337002</v>
       </c>
       <c r="AB24">
-        <v>1.301210331593899E-06</v>
+        <v>0.0001757734893058113</v>
       </c>
       <c r="AC24">
-        <v>6.642910524343037E-07</v>
+        <v>1.633318733518892E-05</v>
       </c>
       <c r="AD24">
-        <v>-2.28558585103042E-06</v>
+        <v>-0.0002432380616726963</v>
       </c>
       <c r="AE24">
-        <v>-7.791751638678975E-07</v>
+        <v>-0.002425416197767287</v>
       </c>
       <c r="AF24">
-        <v>-2.667757020686882E-08</v>
+        <v>-0.0008000624400082853</v>
       </c>
       <c r="AG24">
-        <v>1.376404451302766E-05</v>
+        <v>0.0005039507832533634</v>
       </c>
       <c r="AH24">
-        <v>-1.295049705018103E-05</v>
+        <v>0.0002059853816170316</v>
       </c>
       <c r="AI24">
-        <v>-2.719653746774906E-08</v>
+        <v>-4.051541448246618E-06</v>
       </c>
       <c r="AJ24">
-        <v>-0.001588034407423804</v>
+        <v>-0.001131633924358617</v>
       </c>
       <c r="AK24">
-        <v>-5.925273490491737E-08</v>
+        <v>-3.957123770827773E-05</v>
       </c>
       <c r="AL24">
-        <v>-4.063610693635501E-05</v>
+        <v>-4.32557744735139E-06</v>
       </c>
       <c r="AM24">
-        <v>-5.935817199897689E-07</v>
+        <v>-0.0008629545773044408</v>
       </c>
       <c r="AN24">
-        <v>6.143724901533479E-06</v>
+        <v>-0.0001215348359779873</v>
       </c>
       <c r="AO24">
-        <v>7.711767413447497E-09</v>
+        <v>6.900023905892241E-07</v>
       </c>
       <c r="AP24">
-        <v>1.156850737296801E-06</v>
+        <v>-4.195278424766637E-07</v>
       </c>
       <c r="AQ24">
-        <v>4.208777787175202E-10</v>
+        <v>3.999356375658176E-08</v>
       </c>
       <c r="AR24">
-        <v>2.365709372804044E-08</v>
+        <v>-3.479572267795517E-07</v>
       </c>
       <c r="AS24">
-        <v>-6.698018901040767E-09</v>
+        <v>5.217044112133713E-09</v>
       </c>
       <c r="AT24">
-        <v>4.399537097981652E-16</v>
+        <v>-3.152045154918734E-16</v>
       </c>
     </row>
     <row r="25" spans="1:46">
@@ -3878,139 +3878,139 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.145372781421782</v>
+        <v>-0.8322848588615261</v>
       </c>
       <c r="C25">
-        <v>0.007837668282602114</v>
+        <v>0.8361762392548862</v>
       </c>
       <c r="D25">
-        <v>-0.05540956867523568</v>
+        <v>0.02197384573857772</v>
       </c>
       <c r="E25">
-        <v>0.1452369929831649</v>
+        <v>-0.2137599582231401</v>
       </c>
       <c r="F25">
-        <v>-0.04320275878990332</v>
+        <v>0.08053046044969928</v>
       </c>
       <c r="G25">
-        <v>0.0577625105635908</v>
+        <v>0.1702976750772925</v>
       </c>
       <c r="H25">
-        <v>0.01043437583702138</v>
+        <v>-0.06831826250544101</v>
       </c>
       <c r="I25">
-        <v>0.02123499629261466</v>
+        <v>-0.02528531759683004</v>
       </c>
       <c r="J25">
-        <v>0.03029318744780087</v>
+        <v>0.04074783123426467</v>
       </c>
       <c r="K25">
-        <v>0.001023996364523613</v>
+        <v>-0.02691221698841711</v>
       </c>
       <c r="L25">
-        <v>0.002317472229737937</v>
+        <v>0.004473727930204152</v>
       </c>
       <c r="M25">
-        <v>-0.01537129167279086</v>
+        <v>-0.001324241307842569</v>
       </c>
       <c r="N25">
-        <v>-0.001454699803783764</v>
+        <v>0.004005789508353534</v>
       </c>
       <c r="O25">
-        <v>0.01654299490785135</v>
+        <v>0.00162832371792378</v>
       </c>
       <c r="P25">
-        <v>-0.005465626793229958</v>
+        <v>-0.000693582187466526</v>
       </c>
       <c r="Q25">
-        <v>0.001791533561062641</v>
+        <v>-0.0004563952268058181</v>
       </c>
       <c r="R25">
-        <v>0.003436195113050727</v>
+        <v>-6.087200587959877E-05</v>
       </c>
       <c r="S25">
-        <v>0.0004832374918756808</v>
+        <v>8.319412926705934E-05</v>
       </c>
       <c r="T25">
-        <v>-0.002823413526960425</v>
+        <v>0.01918101841851029</v>
       </c>
       <c r="U25">
-        <v>0.000125280275851322</v>
+        <v>0.0004158468228928356</v>
       </c>
       <c r="V25">
-        <v>-0.004273524853289857</v>
+        <v>-0.002408827365614046</v>
       </c>
       <c r="W25">
-        <v>-8.731990210294191E-06</v>
+        <v>8.444527547170683E-05</v>
       </c>
       <c r="X25">
-        <v>-7.449748599955708E-07</v>
+        <v>3.845841551835957E-05</v>
       </c>
       <c r="Y25">
-        <v>-3.698778094576125E-05</v>
+        <v>-4.314363839941606E-05</v>
       </c>
       <c r="Z25">
-        <v>0.0003575277298107714</v>
+        <v>1.121163945462595E-06</v>
       </c>
       <c r="AA25">
-        <v>7.010811296195847E-08</v>
+        <v>1.648968866107115E-06</v>
       </c>
       <c r="AB25">
-        <v>-9.185996643895656E-08</v>
+        <v>-1.310452928054309E-06</v>
       </c>
       <c r="AC25">
-        <v>1.781898396251798E-05</v>
+        <v>2.038816547980588E-07</v>
       </c>
       <c r="AD25">
-        <v>1.488037749628554E-07</v>
+        <v>-1.601258308349609E-07</v>
       </c>
       <c r="AE25">
-        <v>-2.619690493961754E-05</v>
+        <v>-2.594654286470572E-07</v>
       </c>
       <c r="AF25">
-        <v>1.266516529956925E-08</v>
+        <v>9.914337314647949E-08</v>
       </c>
       <c r="AG25">
-        <v>-8.185970985950232E-07</v>
+        <v>-5.438023661721724E-07</v>
       </c>
       <c r="AH25">
-        <v>-1.477166832094792E-07</v>
+        <v>6.917569527745229E-08</v>
       </c>
       <c r="AI25">
-        <v>-4.077627700410077E-09</v>
+        <v>-3.426853711186036E-07</v>
       </c>
       <c r="AJ25">
-        <v>-1.301414904839363E-06</v>
+        <v>-1.696675830179469E-07</v>
       </c>
       <c r="AK25">
-        <v>-6.057911601465243E-08</v>
+        <v>-1.745846427118049E-07</v>
       </c>
       <c r="AL25">
-        <v>7.686211719887629E-07</v>
+        <v>-1.791735480878545E-08</v>
       </c>
       <c r="AM25">
-        <v>0.00102435897061745</v>
+        <v>2.759061506262141E-08</v>
       </c>
       <c r="AN25">
-        <v>5.337648977263295E-06</v>
+        <v>-3.862843777674043E-08</v>
       </c>
       <c r="AO25">
-        <v>-2.986579960770554E-07</v>
+        <v>-2.267829117817589E-07</v>
       </c>
       <c r="AP25">
-        <v>3.030116709472875E-09</v>
+        <v>1.333034883713029E-06</v>
       </c>
       <c r="AQ25">
-        <v>-1.377984478545908E-08</v>
+        <v>6.535446358425217E-09</v>
       </c>
       <c r="AR25">
-        <v>-2.749144285595308E-08</v>
+        <v>-4.157590858669313E-08</v>
       </c>
       <c r="AS25">
-        <v>7.022148688838443E-09</v>
+        <v>1.133653268709696E-09</v>
       </c>
       <c r="AT25">
-        <v>4.399537097965281E-16</v>
+        <v>-3.152045154908123E-16</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -4018,139 +4018,139 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.273582097881743</v>
+        <v>0.6845488932186126</v>
       </c>
       <c r="C26">
-        <v>-0.4634361558295739</v>
+        <v>-0.4511958515015839</v>
       </c>
       <c r="D26">
-        <v>0.1052265177685523</v>
+        <v>0.2467509206569308</v>
       </c>
       <c r="E26">
-        <v>-0.0213074105391598</v>
+        <v>-0.1490398977918001</v>
       </c>
       <c r="F26">
-        <v>0.02956869562165653</v>
+        <v>0.07634807374476126</v>
       </c>
       <c r="G26">
-        <v>0.01374539587873421</v>
+        <v>-0.07475562886936807</v>
       </c>
       <c r="H26">
-        <v>-0.02992780972717054</v>
+        <v>-0.02573172171446513</v>
       </c>
       <c r="I26">
-        <v>-0.01111415604204048</v>
+        <v>-0.08030073095564144</v>
       </c>
       <c r="J26">
-        <v>-0.0230617568270752</v>
+        <v>0.02098603205455004</v>
       </c>
       <c r="K26">
-        <v>0.001690367865056043</v>
+        <v>0.05917371281714756</v>
       </c>
       <c r="L26">
-        <v>-0.001540808329456102</v>
+        <v>0.03120312343827365</v>
       </c>
       <c r="M26">
-        <v>-0.003648311617925355</v>
+        <v>0.001720015935284535</v>
       </c>
       <c r="N26">
-        <v>-0.0008981953993015172</v>
+        <v>0.0002697173580172951</v>
       </c>
       <c r="O26">
-        <v>0.0004840235818585028</v>
+        <v>-0.01108624322362434</v>
       </c>
       <c r="P26">
-        <v>-0.003683744755722732</v>
+        <v>0.0007319872187952283</v>
       </c>
       <c r="Q26">
-        <v>0.002026504761873488</v>
+        <v>-0.011909792383242</v>
       </c>
       <c r="R26">
-        <v>0.0002677849541896682</v>
+        <v>-0.001293630044218984</v>
       </c>
       <c r="S26">
-        <v>0.0001451843482826358</v>
+        <v>-0.001407488217399201</v>
       </c>
       <c r="T26">
-        <v>-0.0002829790301756501</v>
+        <v>3.303174031571531E-05</v>
       </c>
       <c r="U26">
-        <v>-0.00598203706927695</v>
+        <v>0.0001519371572016262</v>
       </c>
       <c r="V26">
-        <v>0.0004203442645354538</v>
+        <v>6.152348793511065E-05</v>
       </c>
       <c r="W26">
-        <v>0.0001363659226854302</v>
+        <v>5.263224558522272E-05</v>
       </c>
       <c r="X26">
-        <v>2.281671518928255E-05</v>
+        <v>-5.024510090082516E-05</v>
       </c>
       <c r="Y26">
-        <v>0.001427558417119359</v>
+        <v>-2.087335423580246E-06</v>
       </c>
       <c r="Z26">
-        <v>-1.306555811403481E-05</v>
+        <v>-5.561688225205321E-05</v>
       </c>
       <c r="AA26">
-        <v>1.738330883820563E-06</v>
+        <v>-9.752996419251833E-06</v>
       </c>
       <c r="AB26">
-        <v>-2.443983104640723E-06</v>
+        <v>5.542820313387794E-07</v>
       </c>
       <c r="AC26">
-        <v>-9.193519021784343E-07</v>
+        <v>0.000227323002726458</v>
       </c>
       <c r="AD26">
-        <v>5.774650135962176E-06</v>
+        <v>2.030746368658507E-05</v>
       </c>
       <c r="AE26">
-        <v>1.586289056080763E-06</v>
+        <v>-2.282626640225338E-06</v>
       </c>
       <c r="AF26">
-        <v>1.028751738055701E-07</v>
+        <v>2.225905262208559E-06</v>
       </c>
       <c r="AG26">
-        <v>-4.695572387006192E-05</v>
+        <v>-3.179864322850751E-06</v>
       </c>
       <c r="AH26">
-        <v>3.88155188977512E-05</v>
+        <v>2.456237065052535E-06</v>
       </c>
       <c r="AI26">
-        <v>-1.024118294205886E-07</v>
+        <v>-6.992601681479786E-07</v>
       </c>
       <c r="AJ26">
-        <v>4.888233454807315E-05</v>
+        <v>-3.880407821986019E-06</v>
       </c>
       <c r="AK26">
-        <v>5.707496613373863E-07</v>
+        <v>-4.814920708545917E-06</v>
       </c>
       <c r="AL26">
-        <v>-0.000659429729179001</v>
+        <v>-6.512650743371089E-07</v>
       </c>
       <c r="AM26">
-        <v>5.047928266399665E-07</v>
+        <v>3.410742834899074E-06</v>
       </c>
       <c r="AN26">
-        <v>2.59247660860826E-07</v>
+        <v>-4.749887777888826E-06</v>
       </c>
       <c r="AO26">
-        <v>1.19551583656544E-06</v>
+        <v>1.80811389704996E-05</v>
       </c>
       <c r="AP26">
-        <v>0.0003617842274981921</v>
+        <v>-1.209698522523333E-05</v>
       </c>
       <c r="AQ26">
-        <v>3.255413747474196E-08</v>
+        <v>7.263458474265989E-06</v>
       </c>
       <c r="AR26">
-        <v>2.67940683318267E-06</v>
+        <v>-0.0003018597355748122</v>
       </c>
       <c r="AS26">
-        <v>-7.895606079729171E-06</v>
+        <v>-1.281072694121759E-06</v>
       </c>
       <c r="AT26">
-        <v>4.399537098010427E-16</v>
+        <v>-3.152045155019316E-16</v>
       </c>
     </row>
     <row r="27" spans="1:46">
@@ -4158,139 +4158,139 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.252184281386703</v>
+        <v>0.7623396763478586</v>
       </c>
       <c r="C27">
-        <v>-0.5364748265484512</v>
+        <v>0.2834286925303248</v>
       </c>
       <c r="D27">
-        <v>0.1098844222057194</v>
+        <v>-0.2672432827742659</v>
       </c>
       <c r="E27">
-        <v>-0.06491410910530379</v>
+        <v>0.0400658221060053</v>
       </c>
       <c r="F27">
-        <v>0.02113982545476894</v>
+        <v>-0.006097134073739863</v>
       </c>
       <c r="G27">
-        <v>-0.02116610431179089</v>
+        <v>-0.06550212560703467</v>
       </c>
       <c r="H27">
-        <v>0.006432079962995209</v>
+        <v>0.01742466074415275</v>
       </c>
       <c r="I27">
-        <v>-0.005142668423346081</v>
+        <v>-0.04444326830758305</v>
       </c>
       <c r="J27">
-        <v>-0.002273634396263152</v>
+        <v>-0.0009820649024211725</v>
       </c>
       <c r="K27">
-        <v>-0.003436434914507513</v>
+        <v>-0.04357805018123827</v>
       </c>
       <c r="L27">
-        <v>0.003342852738366037</v>
+        <v>0.01466999142036554</v>
       </c>
       <c r="M27">
-        <v>-0.004716953981470911</v>
+        <v>-8.760653852495621E-05</v>
       </c>
       <c r="N27">
-        <v>0.0009691100887750352</v>
+        <v>0.0003064003933548184</v>
       </c>
       <c r="O27">
-        <v>0.00730636622636607</v>
+        <v>-0.01268891028238036</v>
       </c>
       <c r="P27">
-        <v>0.01439948045002841</v>
+        <v>0.001389907584274108</v>
       </c>
       <c r="Q27">
-        <v>-0.0121130055487844</v>
+        <v>0.01055361883897439</v>
       </c>
       <c r="R27">
-        <v>-0.0002203540738581829</v>
+        <v>-0.008267496760730339</v>
       </c>
       <c r="S27">
-        <v>0.000205254414789616</v>
+        <v>0.0006394070203191115</v>
       </c>
       <c r="T27">
-        <v>0.0002019254073999543</v>
+        <v>-0.0001458719650784948</v>
       </c>
       <c r="U27">
-        <v>0.001211003614780431</v>
+        <v>-0.003137362431027444</v>
       </c>
       <c r="V27">
-        <v>1.610237312542394E-05</v>
+        <v>-0.0006074857728566548</v>
       </c>
       <c r="W27">
-        <v>-0.0004049048636586234</v>
+        <v>0.01015472955865715</v>
       </c>
       <c r="X27">
-        <v>-8.346551066866087E-05</v>
+        <v>0.004903681514009055</v>
       </c>
       <c r="Y27">
-        <v>-0.006187223638420458</v>
+        <v>0.0043804420026166</v>
       </c>
       <c r="Z27">
-        <v>6.206111704015082E-05</v>
+        <v>-0.0003456158222902639</v>
       </c>
       <c r="AA27">
-        <v>-1.12618362678425E-05</v>
+        <v>-5.120193326816642E-05</v>
       </c>
       <c r="AB27">
-        <v>1.605375855108741E-05</v>
+        <v>-0.004296526860348218</v>
       </c>
       <c r="AC27">
-        <v>5.823507838261985E-06</v>
+        <v>2.080018049889638E-05</v>
       </c>
       <c r="AD27">
-        <v>-3.916126744964229E-05</v>
+        <v>-3.614976957312987E-05</v>
       </c>
       <c r="AE27">
-        <v>-1.064574725033294E-05</v>
+        <v>-0.0002568343422688904</v>
       </c>
       <c r="AF27">
-        <v>-7.411880799786296E-07</v>
+        <v>-0.0001660882823451727</v>
       </c>
       <c r="AG27">
-        <v>0.0004554987942392205</v>
+        <v>-0.0006694252234348222</v>
       </c>
       <c r="AH27">
-        <v>-0.0005696324686501591</v>
+        <v>-3.823435674122365E-05</v>
       </c>
       <c r="AI27">
-        <v>-7.744559386511512E-07</v>
+        <v>1.968536573100304E-06</v>
       </c>
       <c r="AJ27">
-        <v>7.825129675129682E-06</v>
+        <v>-2.112903186997794E-07</v>
       </c>
       <c r="AK27">
-        <v>9.097266617681569E-07</v>
+        <v>5.74536630728385E-07</v>
       </c>
       <c r="AL27">
-        <v>-3.401315569316265E-05</v>
+        <v>5.896989478730957E-08</v>
       </c>
       <c r="AM27">
-        <v>-7.393025929936625E-08</v>
+        <v>-9.234253861945861E-08</v>
       </c>
       <c r="AN27">
-        <v>-2.137344332523943E-06</v>
+        <v>1.272440332147502E-07</v>
       </c>
       <c r="AO27">
-        <v>-1.36695341860199E-05</v>
+        <v>-1.454057346035778E-07</v>
       </c>
       <c r="AP27">
-        <v>-4.970759016849939E-07</v>
+        <v>9.744800177677727E-08</v>
       </c>
       <c r="AQ27">
-        <v>-3.457891877725279E-07</v>
+        <v>-1.149119325133275E-08</v>
       </c>
       <c r="AR27">
-        <v>-0.0001875973320841784</v>
+        <v>1.337673799288914E-07</v>
       </c>
       <c r="AS27">
-        <v>-7.304207337152091E-06</v>
+        <v>-2.076038777274917E-09</v>
       </c>
       <c r="AT27">
-        <v>4.399537097964626E-16</v>
+        <v>-3.1520451549079E-16</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -4298,139 +4298,139 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.273514713826374</v>
+        <v>0.873376942203777</v>
       </c>
       <c r="C28">
-        <v>-0.4651989609884883</v>
+        <v>0.1800284937647862</v>
       </c>
       <c r="D28">
-        <v>0.1056912484194209</v>
+        <v>-0.2210879685760301</v>
       </c>
       <c r="E28">
-        <v>-0.02223581898653362</v>
+        <v>0.0738247586188041</v>
       </c>
       <c r="F28">
-        <v>0.02971749293153416</v>
+        <v>-0.04782821217345039</v>
       </c>
       <c r="G28">
-        <v>0.01308771586446461</v>
+        <v>-0.03413981467866244</v>
       </c>
       <c r="H28">
-        <v>-0.02953344110771092</v>
+        <v>0.003012924267662508</v>
       </c>
       <c r="I28">
-        <v>-0.01119845510809766</v>
+        <v>-0.05135555160158216</v>
       </c>
       <c r="J28">
-        <v>-0.02303400972114612</v>
+        <v>0.006552900383644869</v>
       </c>
       <c r="K28">
-        <v>0.001573986087151208</v>
+        <v>-0.02542613464967695</v>
       </c>
       <c r="L28">
-        <v>-0.001443017274511279</v>
+        <v>-0.01001180726602907</v>
       </c>
       <c r="M28">
-        <v>-0.003844486262380696</v>
+        <v>-0.0009372799579987283</v>
       </c>
       <c r="N28">
-        <v>-0.0008811886364078154</v>
+        <v>-0.0003352165227792578</v>
       </c>
       <c r="O28">
-        <v>0.0007144746963399425</v>
+        <v>-0.02367053698720743</v>
       </c>
       <c r="P28">
-        <v>-0.003375565135225972</v>
+        <v>0.001886201108364616</v>
       </c>
       <c r="Q28">
-        <v>0.001762089597876333</v>
+        <v>0.007537613275866074</v>
       </c>
       <c r="R28">
-        <v>0.0002769135143658886</v>
+        <v>0.01860215495024229</v>
       </c>
       <c r="S28">
-        <v>0.0001611599684600214</v>
+        <v>-0.008152770438212966</v>
       </c>
       <c r="T28">
-        <v>-0.0003015255469517637</v>
+        <v>7.150428185039812E-05</v>
       </c>
       <c r="U28">
-        <v>-0.006531262589507044</v>
+        <v>-0.001185229109355223</v>
       </c>
       <c r="V28">
-        <v>0.0004654226095763454</v>
+        <v>-0.0002419573631079939</v>
       </c>
       <c r="W28">
-        <v>0.0001450733493915289</v>
+        <v>-0.003197744343613839</v>
       </c>
       <c r="X28">
-        <v>2.405078277074266E-05</v>
+        <v>-0.003302921122621419</v>
       </c>
       <c r="Y28">
-        <v>0.001483170844228923</v>
+        <v>-0.001401177134491484</v>
       </c>
       <c r="Z28">
-        <v>-1.306951525973474E-05</v>
+        <v>0.0002916983249733363</v>
       </c>
       <c r="AA28">
-        <v>1.265608252656602E-06</v>
+        <v>-5.628479436212786E-06</v>
       </c>
       <c r="AB28">
-        <v>-1.630791316798112E-06</v>
+        <v>0.001141812059769842</v>
       </c>
       <c r="AC28">
-        <v>-6.305270296335859E-07</v>
+        <v>1.13182170822247E-06</v>
       </c>
       <c r="AD28">
-        <v>1.518675672110739E-06</v>
+        <v>-4.112213850774961E-05</v>
       </c>
       <c r="AE28">
-        <v>3.483040753245595E-07</v>
+        <v>-0.000686763574557847</v>
       </c>
       <c r="AF28">
-        <v>1.144475015813339E-08</v>
+        <v>-0.0007249507143594664</v>
       </c>
       <c r="AG28">
-        <v>-1.342142110754211E-05</v>
+        <v>-0.003587321287333939</v>
       </c>
       <c r="AH28">
-        <v>4.348172657914799E-05</v>
+        <v>-0.0002283167088147624</v>
       </c>
       <c r="AI28">
-        <v>3.393865324698694E-07</v>
+        <v>6.638056312639163E-06</v>
       </c>
       <c r="AJ28">
-        <v>-5.554116466422254E-05</v>
+        <v>-2.912322591887379E-05</v>
       </c>
       <c r="AK28">
-        <v>-5.394768019643871E-07</v>
+        <v>7.62545305720451E-07</v>
       </c>
       <c r="AL28">
-        <v>-0.0002406125747302916</v>
+        <v>9.218001813462855E-08</v>
       </c>
       <c r="AM28">
-        <v>2.588785676393851E-07</v>
+        <v>4.641385404626069E-08</v>
       </c>
       <c r="AN28">
-        <v>1.906313620282699E-06</v>
+        <v>3.077449723433956E-07</v>
       </c>
       <c r="AO28">
-        <v>1.157313690227212E-05</v>
+        <v>-3.035455055763638E-07</v>
       </c>
       <c r="AP28">
-        <v>-0.0002469800879566595</v>
+        <v>1.96821031235552E-07</v>
       </c>
       <c r="AQ28">
-        <v>1.467572579182182E-07</v>
+        <v>-2.40038522997294E-08</v>
       </c>
       <c r="AR28">
-        <v>1.83007545940942E-05</v>
+        <v>2.686251536161916E-07</v>
       </c>
       <c r="AS28">
-        <v>-6.815887880715265E-05</v>
+        <v>-4.368628467553744E-09</v>
       </c>
       <c r="AT28">
-        <v>4.399537098377019E-16</v>
+        <v>-3.152045154907407E-16</v>
       </c>
     </row>
     <row r="29" spans="1:46">
@@ -4438,139 +4438,139 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.3581370567527918</v>
+        <v>-1.888609398153744</v>
       </c>
       <c r="C29">
-        <v>0.6379270766888803</v>
+        <v>0.8372875473495616</v>
       </c>
       <c r="D29">
-        <v>-0.1195989583964204</v>
+        <v>0.3789012634466163</v>
       </c>
       <c r="E29">
-        <v>-0.1326105366019505</v>
+        <v>-0.04670952251623366</v>
       </c>
       <c r="F29">
-        <v>0.05201378409984626</v>
+        <v>-0.09960261559813605</v>
       </c>
       <c r="G29">
-        <v>0.01154381681155257</v>
+        <v>0.03060748236531248</v>
       </c>
       <c r="H29">
-        <v>-0.008479056305046013</v>
+        <v>0.06827602800987229</v>
       </c>
       <c r="I29">
-        <v>0.01342021548077992</v>
+        <v>-0.03815581749083247</v>
       </c>
       <c r="J29">
-        <v>0.005994599830308775</v>
+        <v>-0.07382746618604177</v>
       </c>
       <c r="K29">
-        <v>-0.01008862247615218</v>
+        <v>0.01559663210646187</v>
       </c>
       <c r="L29">
-        <v>-0.0007432540317942901</v>
+        <v>-0.0004808303941848617</v>
       </c>
       <c r="M29">
-        <v>-0.007155249724861971</v>
+        <v>0.007624207658740985</v>
       </c>
       <c r="N29">
-        <v>0.0007087341218235352</v>
+        <v>-0.02283996702378872</v>
       </c>
       <c r="O29">
-        <v>-0.00821150616809602</v>
+        <v>0.0001633470736804639</v>
       </c>
       <c r="P29">
-        <v>0.002025328997897814</v>
+        <v>0.003804474430106954</v>
       </c>
       <c r="Q29">
-        <v>-0.0007747612272937224</v>
+        <v>0.0002422616639077534</v>
       </c>
       <c r="R29">
-        <v>0.02210662087906812</v>
+        <v>-4.171167441212325E-05</v>
       </c>
       <c r="S29">
-        <v>-0.002312777675153008</v>
+        <v>-1.998423286085564E-05</v>
       </c>
       <c r="T29">
-        <v>0.0131766343262674</v>
+        <v>-0.002489172412598606</v>
       </c>
       <c r="U29">
-        <v>-0.0005009354469760007</v>
+        <v>0.003000853671129606</v>
       </c>
       <c r="V29">
-        <v>-0.002289608423398268</v>
+        <v>-0.01520646685415565</v>
       </c>
       <c r="W29">
-        <v>2.410486364321285E-05</v>
+        <v>-1.804293181905401E-06</v>
       </c>
       <c r="X29">
-        <v>1.865101128842302E-05</v>
+        <v>-2.578692361166946E-06</v>
       </c>
       <c r="Y29">
-        <v>-2.662489452597787E-05</v>
+        <v>3.936028321133191E-06</v>
       </c>
       <c r="Z29">
-        <v>-0.0004923914540460988</v>
+        <v>-5.098231530710844E-08</v>
       </c>
       <c r="AA29">
-        <v>2.702109167067252E-07</v>
+        <v>-2.671210428572153E-06</v>
       </c>
       <c r="AB29">
-        <v>4.376997704027395E-06</v>
+        <v>1.444303245827352E-06</v>
       </c>
       <c r="AC29">
-        <v>0.0007409705017099577</v>
+        <v>-1.150241694402265E-06</v>
       </c>
       <c r="AD29">
-        <v>0.0007965558540844521</v>
+        <v>1.709604270747686E-07</v>
       </c>
       <c r="AE29">
-        <v>8.462181978334518E-06</v>
+        <v>3.765809094470517E-07</v>
       </c>
       <c r="AF29">
-        <v>-1.869351132289498E-07</v>
+        <v>-1.482458117599658E-07</v>
       </c>
       <c r="AG29">
-        <v>2.579923523202736E-05</v>
+        <v>7.755692339261932E-07</v>
       </c>
       <c r="AH29">
-        <v>6.110765126751108E-06</v>
+        <v>-1.050506275134685E-07</v>
       </c>
       <c r="AI29">
-        <v>9.674621408748537E-08</v>
+        <v>4.895608786810328E-07</v>
       </c>
       <c r="AJ29">
-        <v>6.958007062827252E-09</v>
+        <v>2.425147402388303E-07</v>
       </c>
       <c r="AK29">
-        <v>3.431003744114616E-05</v>
+        <v>2.516424248479911E-07</v>
       </c>
       <c r="AL29">
-        <v>8.184585182171199E-08</v>
+        <v>2.581565843837479E-08</v>
       </c>
       <c r="AM29">
-        <v>5.470906712896944E-09</v>
+        <v>-4.562093219152969E-08</v>
       </c>
       <c r="AN29">
-        <v>2.464914124221307E-07</v>
+        <v>6.471668633257382E-08</v>
       </c>
       <c r="AO29">
-        <v>6.935519166022877E-06</v>
+        <v>-7.519743212088052E-08</v>
       </c>
       <c r="AP29">
-        <v>7.985100653180079E-09</v>
+        <v>4.323123829274489E-08</v>
       </c>
       <c r="AQ29">
-        <v>-9.261728166055819E-10</v>
+        <v>-6.65589013686703E-09</v>
       </c>
       <c r="AR29">
-        <v>-5.129637633282106E-08</v>
+        <v>7.808363283310799E-08</v>
       </c>
       <c r="AS29">
-        <v>1.187408791813099E-08</v>
+        <v>-1.100079927453064E-09</v>
       </c>
       <c r="AT29">
-        <v>4.399537097979016E-16</v>
+        <v>-3.152045154908427E-16</v>
       </c>
     </row>
     <row r="30" spans="1:46">
@@ -4578,139 +4578,139 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1976487722440688</v>
+        <v>1.037913493118878</v>
       </c>
       <c r="C30">
-        <v>0.6595107483192162</v>
+        <v>-0.08388375048686762</v>
       </c>
       <c r="D30">
-        <v>-0.08225238289644567</v>
+        <v>-0.04272317569917723</v>
       </c>
       <c r="E30">
-        <v>-0.17238923559474</v>
+        <v>0.0864266059243874</v>
       </c>
       <c r="F30">
-        <v>0.05550285700090419</v>
+        <v>-0.07717461258174332</v>
       </c>
       <c r="G30">
-        <v>0.052804562395532</v>
+        <v>0.04553134777163597</v>
       </c>
       <c r="H30">
-        <v>0.02337527604312119</v>
+        <v>-0.01586608072312188</v>
       </c>
       <c r="I30">
-        <v>0.01826823320891681</v>
+        <v>0.01803803300138647</v>
       </c>
       <c r="J30">
-        <v>-0.01463936390064899</v>
+        <v>3.316814036874164E-05</v>
       </c>
       <c r="K30">
-        <v>-0.02345397817441683</v>
+        <v>0.02353836458402043</v>
       </c>
       <c r="L30">
-        <v>-0.001666798556503284</v>
+        <v>0.01432300088353454</v>
       </c>
       <c r="M30">
-        <v>0.003594054210813831</v>
+        <v>0.0009580139373413597</v>
       </c>
       <c r="N30">
-        <v>0.001626119779151162</v>
+        <v>0.0007081664246443894</v>
       </c>
       <c r="O30">
-        <v>0.002601534393598808</v>
+        <v>0.008917006461824499</v>
       </c>
       <c r="P30">
-        <v>-0.0006773538455421778</v>
+        <v>9.372059198461334E-05</v>
       </c>
       <c r="Q30">
-        <v>0.0001860348923246398</v>
+        <v>0.009916452505778828</v>
       </c>
       <c r="R30">
-        <v>-0.003576279719380558</v>
+        <v>-0.005443613201096718</v>
       </c>
       <c r="S30">
-        <v>0.000230846323209434</v>
+        <v>-0.01157684821935248</v>
       </c>
       <c r="T30">
-        <v>-0.00136326397175627</v>
+        <v>-1.055348799785025E-06</v>
       </c>
       <c r="U30">
-        <v>5.315489869548752E-05</v>
+        <v>-0.005432000667503517</v>
       </c>
       <c r="V30">
-        <v>0.0001576846797086282</v>
+        <v>-0.001068472612169273</v>
       </c>
       <c r="W30">
-        <v>-3.069715550048695E-05</v>
+        <v>-0.003392657350907923</v>
       </c>
       <c r="X30">
-        <v>-2.915938004799863E-05</v>
+        <v>0.003024714542761103</v>
       </c>
       <c r="Y30">
-        <v>6.301447723443035E-05</v>
+        <v>-9.767090588048547E-06</v>
       </c>
       <c r="Z30">
-        <v>-3.337220859228997E-06</v>
+        <v>-0.002776277048383461</v>
       </c>
       <c r="AA30">
-        <v>-2.354321365423848E-06</v>
+        <v>-0.0002970399731171246</v>
       </c>
       <c r="AB30">
-        <v>-9.08030555975292E-06</v>
+        <v>-3.226838417901886E-05</v>
       </c>
       <c r="AC30">
-        <v>8.333693583515987E-05</v>
+        <v>-0.0001578272668982109</v>
       </c>
       <c r="AD30">
-        <v>-0.004014883613012989</v>
+        <v>0.0009343966517797</v>
       </c>
       <c r="AE30">
-        <v>4.605024403511484E-05</v>
+        <v>0.001403787563398112</v>
       </c>
       <c r="AF30">
-        <v>1.120764076401315E-06</v>
+        <v>-0.002842841153394152</v>
       </c>
       <c r="AG30">
-        <v>-0.0001809363860967067</v>
+        <v>0.0002261905199537542</v>
       </c>
       <c r="AH30">
-        <v>-4.683407727985871E-05</v>
+        <v>0.001294278799296224</v>
       </c>
       <c r="AI30">
-        <v>-1.340538757916528E-06</v>
+        <v>-5.89365741202323E-05</v>
       </c>
       <c r="AJ30">
-        <v>-3.211494981414608E-07</v>
+        <v>1.820249040046712E-05</v>
       </c>
       <c r="AK30">
-        <v>1.702828228951542E-06</v>
+        <v>-0.001196287466725606</v>
       </c>
       <c r="AL30">
-        <v>-3.565679520719835E-06</v>
+        <v>-0.0003718438288197964</v>
       </c>
       <c r="AM30">
-        <v>-2.436727508240401E-07</v>
+        <v>-6.237143387507399E-06</v>
       </c>
       <c r="AN30">
-        <v>-1.836318389257717E-05</v>
+        <v>-2.248566966017815E-07</v>
       </c>
       <c r="AO30">
-        <v>-0.0005381506990897127</v>
+        <v>-5.315500916421472E-07</v>
       </c>
       <c r="AP30">
-        <v>-7.130949256521528E-07</v>
+        <v>3.357099918389855E-07</v>
       </c>
       <c r="AQ30">
-        <v>8.806531233288823E-08</v>
+        <v>-4.053974436365228E-08</v>
       </c>
       <c r="AR30">
-        <v>4.878430605653392E-06</v>
+        <v>4.302868109832778E-07</v>
       </c>
       <c r="AS30">
-        <v>-1.159140069411202E-06</v>
+        <v>-7.09563576539294E-09</v>
       </c>
       <c r="AT30">
-        <v>4.399537097973853E-16</v>
+        <v>-3.152045154913406E-16</v>
       </c>
     </row>
     <row r="31" spans="1:46">
@@ -4718,139 +4718,139 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-2.09557391179337</v>
+        <v>0.9776265341913355</v>
       </c>
       <c r="C31">
-        <v>-0.3316737316497268</v>
+        <v>-0.3324326190538905</v>
       </c>
       <c r="D31">
-        <v>-0.1282323060916485</v>
+        <v>0.1791612065532864</v>
       </c>
       <c r="E31">
-        <v>0.06391627376291542</v>
+        <v>-0.03866464558409767</v>
       </c>
       <c r="F31">
-        <v>0.08659024554943727</v>
+        <v>0.04146095458686602</v>
       </c>
       <c r="G31">
-        <v>0.01161024008660411</v>
+        <v>0.005106275049405365</v>
       </c>
       <c r="H31">
-        <v>0.007545313851095414</v>
+        <v>0.01670971382297938</v>
       </c>
       <c r="I31">
-        <v>-0.04035097949441488</v>
+        <v>0.02285423796944895</v>
       </c>
       <c r="J31">
-        <v>0.01389063943148127</v>
+        <v>-0.007780202803850183</v>
       </c>
       <c r="K31">
-        <v>-0.01373845055800882</v>
+        <v>-0.02950956788479951</v>
       </c>
       <c r="L31">
-        <v>0.01588359310133431</v>
+        <v>-0.01579692569058333</v>
       </c>
       <c r="M31">
-        <v>0.001944793382141953</v>
+        <v>-0.001242166596979674</v>
       </c>
       <c r="N31">
-        <v>0.001503638950402245</v>
+        <v>-0.0008501882273264011</v>
       </c>
       <c r="O31">
-        <v>-0.002719164424330765</v>
+        <v>-0.003538283911721536</v>
       </c>
       <c r="P31">
-        <v>-0.0105594750597099</v>
+        <v>-0.0007086760823197426</v>
       </c>
       <c r="Q31">
-        <v>-0.009423736213889089</v>
+        <v>-0.01081727507491302</v>
       </c>
       <c r="R31">
-        <v>-2.078468060417387E-05</v>
+        <v>-0.005474087168674038</v>
       </c>
       <c r="S31">
-        <v>0.004366292836035116</v>
+        <v>-0.009390886099682536</v>
       </c>
       <c r="T31">
-        <v>0.0007694912861097122</v>
+        <v>1.310671632999454E-05</v>
       </c>
       <c r="U31">
-        <v>0.0001127412408708573</v>
+        <v>0.003409081775558541</v>
       </c>
       <c r="V31">
-        <v>-8.561590717042132E-06</v>
+        <v>0.0006701834738862357</v>
       </c>
       <c r="W31">
-        <v>-0.000230002637981896</v>
+        <v>0.001524550659606249</v>
       </c>
       <c r="X31">
-        <v>0.0001157271794264816</v>
+        <v>-0.001533351672140694</v>
       </c>
       <c r="Y31">
-        <v>6.598760659590658E-05</v>
+        <v>-0.0001666522714598056</v>
       </c>
       <c r="Z31">
-        <v>5.274944466968556E-07</v>
+        <v>-0.002187120417257675</v>
       </c>
       <c r="AA31">
-        <v>-0.001368114423641424</v>
+        <v>-0.0002902763655600158</v>
       </c>
       <c r="AB31">
-        <v>-1.184017072872396E-05</v>
+        <v>1.248662573669751E-05</v>
       </c>
       <c r="AC31">
-        <v>-3.752581705208782E-07</v>
+        <v>-2.515469125541899E-05</v>
       </c>
       <c r="AD31">
-        <v>2.25771610772323E-06</v>
+        <v>-0.00134798889789762</v>
       </c>
       <c r="AE31">
-        <v>6.404816113782103E-07</v>
+        <v>0.0002025038755883845</v>
       </c>
       <c r="AF31">
-        <v>0.005643248396438706</v>
+        <v>-0.0003971899832872457</v>
       </c>
       <c r="AG31">
-        <v>-1.238790251382311E-05</v>
+        <v>9.029241770973739E-05</v>
       </c>
       <c r="AH31">
-        <v>-1.121136715091105E-05</v>
+        <v>-0.0006297269619874211</v>
       </c>
       <c r="AI31">
-        <v>1.917992248784453E-07</v>
+        <v>-0.001164780611608234</v>
       </c>
       <c r="AJ31">
-        <v>7.536571771705393E-09</v>
+        <v>-1.157566185598374E-06</v>
       </c>
       <c r="AK31">
-        <v>-2.562383667909196E-08</v>
+        <v>-1.561824817468093E-06</v>
       </c>
       <c r="AL31">
-        <v>2.625096954890873E-08</v>
+        <v>-2.674022547468818E-07</v>
       </c>
       <c r="AM31">
-        <v>1.714901429632273E-09</v>
+        <v>-2.740330960928213E-05</v>
       </c>
       <c r="AN31">
-        <v>1.164976542356566E-08</v>
+        <v>0.0002057823520497964</v>
       </c>
       <c r="AO31">
-        <v>6.106937604422779E-08</v>
+        <v>0.0006501132892634984</v>
       </c>
       <c r="AP31">
-        <v>-1.167682731043295E-09</v>
+        <v>0.0001268231666921387</v>
       </c>
       <c r="AQ31">
-        <v>1.860537043468265E-10</v>
+        <v>-1.817618236939901E-06</v>
       </c>
       <c r="AR31">
-        <v>1.185007738909057E-08</v>
+        <v>7.895291339917929E-06</v>
       </c>
       <c r="AS31">
-        <v>-3.144996983237522E-09</v>
+        <v>-1.367290910336343E-07</v>
       </c>
       <c r="AT31">
-        <v>4.39953709797984E-16</v>
+        <v>-3.152045154930838E-16</v>
       </c>
     </row>
     <row r="32" spans="1:46">
@@ -4858,139 +4858,139 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5397117940033849</v>
+        <v>1.004095771267472</v>
       </c>
       <c r="C32">
-        <v>0.5950410549880872</v>
+        <v>0.01478425475292716</v>
       </c>
       <c r="D32">
-        <v>-0.1552647849563332</v>
+        <v>-0.1213622878321562</v>
       </c>
       <c r="E32">
-        <v>-0.07165151528459143</v>
+        <v>0.1018469386078878</v>
       </c>
       <c r="F32">
-        <v>0.03873871499750723</v>
+        <v>-0.08942397724444291</v>
       </c>
       <c r="G32">
-        <v>-0.03985402241893046</v>
+        <v>0.02494868737087044</v>
       </c>
       <c r="H32">
-        <v>-0.04204728118033545</v>
+        <v>-0.01817961895465818</v>
       </c>
       <c r="I32">
-        <v>0.001772094740050395</v>
+        <v>-0.02158491758534762</v>
       </c>
       <c r="J32">
-        <v>0.02667596122973845</v>
+        <v>0.009995131871493257</v>
       </c>
       <c r="K32">
-        <v>0.01175641061928043</v>
+        <v>0.02261018023996327</v>
       </c>
       <c r="L32">
-        <v>0.00111984504670445</v>
+        <v>-0.02388336230626901</v>
       </c>
       <c r="M32">
-        <v>-0.01145834907423434</v>
+        <v>-0.0004020433574876724</v>
       </c>
       <c r="N32">
-        <v>-0.001233947731408891</v>
+        <v>-0.0003602896528293075</v>
       </c>
       <c r="O32">
-        <v>-0.008350115267789044</v>
+        <v>0.008200549440444842</v>
       </c>
       <c r="P32">
-        <v>0.001895471669773655</v>
+        <v>-0.00113029993704748</v>
       </c>
       <c r="Q32">
-        <v>-0.0005168156689026744</v>
+        <v>-0.009286533577227788</v>
       </c>
       <c r="R32">
-        <v>0.002066457522551452</v>
+        <v>-0.004925576732254257</v>
       </c>
       <c r="S32">
-        <v>0.001344011883238291</v>
+        <v>0.004581378351760013</v>
       </c>
       <c r="T32">
-        <v>-0.007637791697756083</v>
+        <v>-2.75367379807901E-05</v>
       </c>
       <c r="U32">
-        <v>0.0004648203098284489</v>
+        <v>-0.00193614808372038</v>
       </c>
       <c r="V32">
-        <v>0.002638073585942131</v>
+        <v>-0.0003777081081068682</v>
       </c>
       <c r="W32">
-        <v>-2.450220414487345E-06</v>
+        <v>0.002658914928393182</v>
       </c>
       <c r="X32">
-        <v>-2.047888830675987E-06</v>
+        <v>-0.00361244795802081</v>
       </c>
       <c r="Y32">
-        <v>1.878388245356668E-05</v>
+        <v>-0.000102048572333967</v>
       </c>
       <c r="Z32">
-        <v>0.001470112685695954</v>
+        <v>0.00148167830632413</v>
       </c>
       <c r="AA32">
-        <v>1.195386674664098E-06</v>
+        <v>-0.002138305565948393</v>
       </c>
       <c r="AB32">
-        <v>-8.442472656568391E-06</v>
+        <v>0.000219376131399728</v>
       </c>
       <c r="AC32">
-        <v>-0.003406593177920002</v>
+        <v>-2.205433914238211E-05</v>
       </c>
       <c r="AD32">
-        <v>-9.39651451998471E-05</v>
+        <v>-9.365366588307845E-05</v>
       </c>
       <c r="AE32">
-        <v>-0.0001063045582053682</v>
+        <v>-0.001790980738713414</v>
       </c>
       <c r="AF32">
-        <v>1.060205873343076E-09</v>
+        <v>-0.0007984629724936389</v>
       </c>
       <c r="AG32">
-        <v>6.272010840717233E-06</v>
+        <v>0.0003505902318172211</v>
       </c>
       <c r="AH32">
-        <v>2.338328116814166E-06</v>
+        <v>0.0002235510170559018</v>
       </c>
       <c r="AI32">
-        <v>1.267737025234201E-07</v>
+        <v>-5.540261893041693E-06</v>
       </c>
       <c r="AJ32">
-        <v>1.095195096142123E-07</v>
+        <v>-3.955669065831731E-05</v>
       </c>
       <c r="AK32">
-        <v>-0.001259262466017972</v>
+        <v>-2.811233841052701E-05</v>
       </c>
       <c r="AL32">
-        <v>-7.37517130666124E-07</v>
+        <v>-7.11964089703887E-06</v>
       </c>
       <c r="AM32">
-        <v>-4.636103211025113E-08</v>
+        <v>0.001085429802532806</v>
       </c>
       <c r="AN32">
-        <v>-1.631233076911065E-07</v>
+        <v>0.0001534026913967729</v>
       </c>
       <c r="AO32">
-        <v>-9.070786925265177E-07</v>
+        <v>-1.328403896919987E-06</v>
       </c>
       <c r="AP32">
-        <v>1.357309593301382E-08</v>
+        <v>8.19925435067774E-07</v>
       </c>
       <c r="AQ32">
-        <v>-2.136729164405307E-09</v>
+        <v>-8.564195313071569E-08</v>
       </c>
       <c r="AR32">
-        <v>-1.313643132137127E-07</v>
+        <v>8.16079473566358E-07</v>
       </c>
       <c r="AS32">
-        <v>3.436233013662102E-08</v>
+        <v>-1.278440872847176E-08</v>
       </c>
       <c r="AT32">
-        <v>4.39953709797346E-16</v>
+        <v>-3.152045154894571E-16</v>
       </c>
     </row>
     <row r="33" spans="1:46">
@@ -4998,139 +4998,139 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.267445091617802</v>
+        <v>1.044749783395137</v>
       </c>
       <c r="C33">
-        <v>0.3882139887440482</v>
+        <v>-0.1479728853423588</v>
       </c>
       <c r="D33">
-        <v>0.3259728321163556</v>
+        <v>0.01252684300879968</v>
       </c>
       <c r="E33">
-        <v>-0.01332586262822495</v>
+        <v>0.0658189645097777</v>
       </c>
       <c r="F33">
-        <v>-0.08267302234759294</v>
+        <v>-0.05720614999356829</v>
       </c>
       <c r="G33">
-        <v>0.0005269028754062618</v>
+        <v>0.0491281147459537</v>
       </c>
       <c r="H33">
-        <v>-0.008764846338092248</v>
+        <v>-0.009395741013091279</v>
       </c>
       <c r="I33">
-        <v>-0.02690602769097538</v>
+        <v>0.03806788819585356</v>
       </c>
       <c r="J33">
-        <v>0.0104140987659463</v>
+        <v>-0.006653981608819544</v>
       </c>
       <c r="K33">
-        <v>-0.01019097878940118</v>
+        <v>0.0125967478640724</v>
       </c>
       <c r="L33">
-        <v>-0.01149387123151824</v>
+        <v>0.02996740938071219</v>
       </c>
       <c r="M33">
-        <v>-0.002809070937990461</v>
+        <v>0.001080772236112791</v>
       </c>
       <c r="N33">
-        <v>0.0198844220607195</v>
+        <v>0.0007114297769705054</v>
       </c>
       <c r="O33">
-        <v>7.911645813220438E-05</v>
+        <v>3.47851096109856E-05</v>
       </c>
       <c r="P33">
-        <v>-0.0006175457460403016</v>
+        <v>0.0008179475906734661</v>
       </c>
       <c r="Q33">
-        <v>-0.0003359700287061139</v>
+        <v>0.01118072948990587</v>
       </c>
       <c r="R33">
-        <v>-0.00016649282148416</v>
+        <v>0.003216096525641087</v>
       </c>
       <c r="S33">
-        <v>0.000189688385659356</v>
+        <v>-0.000836557770432874</v>
       </c>
       <c r="T33">
-        <v>-2.410320401421897E-05</v>
+        <v>1.990902104950956E-05</v>
       </c>
       <c r="U33">
-        <v>0.0001027675032353933</v>
+        <v>0.007649868622966557</v>
       </c>
       <c r="V33">
-        <v>-6.022547966405957E-06</v>
+        <v>0.001501819976584291</v>
       </c>
       <c r="W33">
-        <v>0.005069091183630108</v>
+        <v>0.002831814416615167</v>
       </c>
       <c r="X33">
-        <v>0.005546387064090613</v>
+        <v>-0.001898666615126303</v>
       </c>
       <c r="Y33">
-        <v>-0.0001952337571467381</v>
+        <v>0.0001380605355269006</v>
       </c>
       <c r="Z33">
-        <v>-5.512163517648568E-09</v>
+        <v>0.004292286430365518</v>
       </c>
       <c r="AA33">
-        <v>-7.888527282735255E-05</v>
+        <v>0.001168786772797289</v>
       </c>
       <c r="AB33">
-        <v>0.007282995723386053</v>
+        <v>-4.140202276537466E-05</v>
       </c>
       <c r="AC33">
-        <v>-1.79055654036572E-05</v>
+        <v>0.0002501435202045949</v>
       </c>
       <c r="AD33">
-        <v>2.409089114152326E-06</v>
+        <v>-0.0008926400404289908</v>
       </c>
       <c r="AE33">
-        <v>3.410088530330145E-06</v>
+        <v>0.0002959600973914318</v>
       </c>
       <c r="AF33">
-        <v>2.499363638940266E-07</v>
+        <v>-7.715705398889768E-05</v>
       </c>
       <c r="AG33">
-        <v>-3.451701464925836E-05</v>
+        <v>-6.688808018322735E-05</v>
       </c>
       <c r="AH33">
-        <v>-8.848206120324028E-06</v>
+        <v>0.0007411319631775511</v>
       </c>
       <c r="AI33">
-        <v>0.0001688536153322799</v>
+        <v>-9.6596024633706E-05</v>
       </c>
       <c r="AJ33">
-        <v>-1.787633148525525E-08</v>
+        <v>2.100620659139892E-05</v>
       </c>
       <c r="AK33">
-        <v>6.171708433802473E-08</v>
+        <v>-0.0007683836571346889</v>
       </c>
       <c r="AL33">
-        <v>-6.3532179063525E-08</v>
+        <v>0.001592846103116031</v>
       </c>
       <c r="AM33">
-        <v>-4.174305907869756E-09</v>
+        <v>-1.507864580435725E-07</v>
       </c>
       <c r="AN33">
-        <v>-2.894104321341512E-08</v>
+        <v>2.946993922035281E-07</v>
       </c>
       <c r="AO33">
-        <v>-1.543128405832307E-07</v>
+        <v>-2.904539581373826E-07</v>
       </c>
       <c r="AP33">
-        <v>2.89493204664344E-09</v>
+        <v>1.833320802355959E-07</v>
       </c>
       <c r="AQ33">
-        <v>-4.727388022227125E-10</v>
+        <v>-2.244565079945521E-08</v>
       </c>
       <c r="AR33">
-        <v>-2.931691724200294E-08</v>
+        <v>2.43349038993177E-07</v>
       </c>
       <c r="AS33">
-        <v>7.798018572091512E-09</v>
+        <v>-4.036499425614159E-09</v>
       </c>
       <c r="AT33">
-        <v>4.399537097978756E-16</v>
+        <v>-3.152045154909217E-16</v>
       </c>
     </row>
     <row r="34" spans="1:46">
@@ -5138,139 +5138,139 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-2.107922625399141</v>
+        <v>0.8521226051862992</v>
       </c>
       <c r="C34">
-        <v>-0.3603422413954208</v>
+        <v>0.2023809161113043</v>
       </c>
       <c r="D34">
-        <v>-0.1491531525673802</v>
+        <v>-0.2320811250304045</v>
       </c>
       <c r="E34">
-        <v>0.05166061084891794</v>
+        <v>0.06775039602360197</v>
       </c>
       <c r="F34">
-        <v>0.07192340607542859</v>
+        <v>-0.03970108744485079</v>
       </c>
       <c r="G34">
-        <v>0.01344546516916965</v>
+        <v>-0.04151915789333833</v>
       </c>
       <c r="H34">
-        <v>0.004346974286326702</v>
+        <v>0.006353957973251163</v>
       </c>
       <c r="I34">
-        <v>-0.04124524059607507</v>
+        <v>-0.05190455911696915</v>
       </c>
       <c r="J34">
-        <v>0.01307763044930251</v>
+        <v>0.005265123740052809</v>
       </c>
       <c r="K34">
-        <v>-0.01541369388650167</v>
+        <v>-0.03090642069370274</v>
       </c>
       <c r="L34">
-        <v>0.02326819857118088</v>
+        <v>-0.005347922401473908</v>
       </c>
       <c r="M34">
-        <v>0.002084157162647451</v>
+        <v>-0.0008223420985702563</v>
       </c>
       <c r="N34">
-        <v>0.003956091273256197</v>
+        <v>-0.00021303473090493</v>
       </c>
       <c r="O34">
-        <v>-0.002620586996634034</v>
+        <v>-0.02435507200907803</v>
       </c>
       <c r="P34">
-        <v>-0.009243223908620155</v>
+        <v>0.002067070022624378</v>
       </c>
       <c r="Q34">
-        <v>-0.007127059895411912</v>
+        <v>0.009523982107049177</v>
       </c>
       <c r="R34">
-        <v>-1.211691495826176E-05</v>
+        <v>0.01641623172866569</v>
       </c>
       <c r="S34">
-        <v>0.008271801670592435</v>
+        <v>-0.008355251135359025</v>
       </c>
       <c r="T34">
-        <v>0.001456518516287813</v>
+        <v>4.789902005308372E-05</v>
       </c>
       <c r="U34">
-        <v>0.0001173315463829834</v>
+        <v>-0.002766532912802108</v>
       </c>
       <c r="V34">
-        <v>-6.500410495305488E-06</v>
+        <v>-0.0005424444373172566</v>
       </c>
       <c r="W34">
-        <v>-0.001010654911755797</v>
+        <v>-0.0008658429639258125</v>
       </c>
       <c r="X34">
-        <v>0.0006866939636787498</v>
+        <v>-0.003607159039468347</v>
       </c>
       <c r="Y34">
-        <v>5.399285468904542E-05</v>
+        <v>-0.00061527549801986</v>
       </c>
       <c r="Z34">
-        <v>6.514567024384079E-08</v>
+        <v>0.0006107360640996138</v>
       </c>
       <c r="AA34">
-        <v>0.003132882287597131</v>
+        <v>-0.000934796558355612</v>
       </c>
       <c r="AB34">
-        <v>2.458800188232558E-05</v>
+        <v>-0.0001328146244547246</v>
       </c>
       <c r="AC34">
-        <v>1.173530548220562E-06</v>
+        <v>-2.272872190365417E-05</v>
       </c>
       <c r="AD34">
-        <v>-5.367476646430981E-06</v>
+        <v>0.0001026588347391853</v>
       </c>
       <c r="AE34">
-        <v>-1.533992081325727E-06</v>
+        <v>0.00103606060862932</v>
       </c>
       <c r="AF34">
-        <v>-0.004675082830227384</v>
+        <v>0.0008233301458417645</v>
       </c>
       <c r="AG34">
-        <v>3.545441088400158E-05</v>
+        <v>0.003630905574236148</v>
       </c>
       <c r="AH34">
-        <v>2.165832881798713E-05</v>
+        <v>0.0002166209634798969</v>
       </c>
       <c r="AI34">
-        <v>-2.492614778230807E-07</v>
+        <v>-7.091800739755459E-06</v>
       </c>
       <c r="AJ34">
-        <v>-7.630307576266405E-09</v>
+        <v>8.880856128260722E-06</v>
       </c>
       <c r="AK34">
-        <v>2.348407109809186E-08</v>
+        <v>-1.397653779109062E-06</v>
       </c>
       <c r="AL34">
-        <v>-2.304807159628886E-08</v>
+        <v>-1.448959455915694E-07</v>
       </c>
       <c r="AM34">
-        <v>-1.529134429719494E-09</v>
+        <v>2.014537585663571E-07</v>
       </c>
       <c r="AN34">
-        <v>-1.034808218397987E-08</v>
+        <v>-3.289681581223529E-07</v>
       </c>
       <c r="AO34">
-        <v>-5.67380458941015E-08</v>
+        <v>3.618214442175578E-07</v>
       </c>
       <c r="AP34">
-        <v>1.01063559712029E-09</v>
+        <v>-2.273600648021619E-07</v>
       </c>
       <c r="AQ34">
-        <v>-1.711138091599211E-10</v>
+        <v>2.871474183964872E-08</v>
       </c>
       <c r="AR34">
-        <v>-1.013079259621809E-08</v>
+        <v>-3.132857098277881E-07</v>
       </c>
       <c r="AS34">
-        <v>2.69916897355384E-09</v>
+        <v>5.326940506478615E-09</v>
       </c>
       <c r="AT34">
-        <v>4.399537097977794E-16</v>
+        <v>-3.152045154909869E-16</v>
       </c>
     </row>
     <row r="35" spans="1:46">
@@ -5278,139 +5278,139 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.440077010128606</v>
+        <v>0.3852467108727692</v>
       </c>
       <c r="C35">
-        <v>0.3087274742272363</v>
+        <v>0.5155653557249291</v>
       </c>
       <c r="D35">
-        <v>0.3190581364486967</v>
+        <v>-0.2977428776103407</v>
       </c>
       <c r="E35">
-        <v>0.02433569005568257</v>
+        <v>-0.07195647817760341</v>
       </c>
       <c r="F35">
-        <v>-0.05700707190383388</v>
+        <v>0.100148318557435</v>
       </c>
       <c r="G35">
-        <v>-0.01731128646584514</v>
+        <v>-0.06978897578111369</v>
       </c>
       <c r="H35">
-        <v>-0.0183000280012472</v>
+        <v>0.02099753967142344</v>
       </c>
       <c r="I35">
-        <v>0.01108537059071575</v>
+        <v>0.03783903578868605</v>
       </c>
       <c r="J35">
-        <v>0.002458440244375791</v>
+        <v>-0.01256437582952195</v>
       </c>
       <c r="K35">
-        <v>-0.02333730419227157</v>
+        <v>0.01260821627540605</v>
       </c>
       <c r="L35">
-        <v>0.007861504532081235</v>
+        <v>0.009748706919658959</v>
       </c>
       <c r="M35">
-        <v>0.003574470380857004</v>
+        <v>0.0009397988896802189</v>
       </c>
       <c r="N35">
-        <v>-0.02426940207103849</v>
+        <v>-0.0001546330802966683</v>
       </c>
       <c r="O35">
-        <v>0.0001180686309775439</v>
+        <v>0.02813155431681917</v>
       </c>
       <c r="P35">
-        <v>0.001093938194975241</v>
+        <v>-0.002668069301688427</v>
       </c>
       <c r="Q35">
-        <v>0.0008547758576821551</v>
+        <v>-0.01685345219279919</v>
       </c>
       <c r="R35">
-        <v>9.997853244253926E-05</v>
+        <v>0.01666093293606137</v>
       </c>
       <c r="S35">
-        <v>7.993025851344606E-05</v>
+        <v>-0.004721026156912778</v>
       </c>
       <c r="T35">
-        <v>4.692862788676603E-05</v>
+        <v>8.622268891471968E-06</v>
       </c>
       <c r="U35">
-        <v>-8.626878291172857E-05</v>
+        <v>-0.001883993087147269</v>
       </c>
       <c r="V35">
-        <v>7.233861903969144E-06</v>
+        <v>-0.0003764664431467536</v>
       </c>
       <c r="W35">
-        <v>-0.004633494668739595</v>
+        <v>0.006262997197710145</v>
       </c>
       <c r="X35">
-        <v>-0.005050301023330913</v>
+        <v>0.003991516444481977</v>
       </c>
       <c r="Y35">
-        <v>0.0002302077541032346</v>
+        <v>-0.008185805768370209</v>
       </c>
       <c r="Z35">
-        <v>1.423397403903001E-06</v>
+        <v>0.0002210365548472909</v>
       </c>
       <c r="AA35">
-        <v>-1.932071025623224E-05</v>
+        <v>-5.310279856865302E-05</v>
       </c>
       <c r="AB35">
-        <v>0.002794958381711022</v>
+        <v>-0.0002530423774956874</v>
       </c>
       <c r="AC35">
-        <v>-6.857671040933709E-06</v>
+        <v>-4.684440104951507E-07</v>
       </c>
       <c r="AD35">
-        <v>2.795755506324587E-06</v>
+        <v>-1.428282815723195E-07</v>
       </c>
       <c r="AE35">
-        <v>1.334303558510606E-06</v>
+        <v>-5.751932469979965E-07</v>
       </c>
       <c r="AF35">
-        <v>1.565950032784093E-07</v>
+        <v>-4.443528026826064E-07</v>
       </c>
       <c r="AG35">
-        <v>-3.206529625958909E-05</v>
+        <v>-3.005385556895098E-07</v>
       </c>
       <c r="AH35">
-        <v>-1.155155112461047E-05</v>
+        <v>-1.297652214972089E-07</v>
       </c>
       <c r="AI35">
-        <v>-0.00295347809385418</v>
+        <v>3.787290612876574E-07</v>
       </c>
       <c r="AJ35">
-        <v>2.245206729374227E-08</v>
+        <v>1.853343450692937E-07</v>
       </c>
       <c r="AK35">
-        <v>-7.477294707139806E-08</v>
+        <v>1.820833529506574E-07</v>
       </c>
       <c r="AL35">
-        <v>7.481997358346664E-08</v>
+        <v>1.898168051365419E-08</v>
       </c>
       <c r="AM35">
-        <v>4.823388725341974E-09</v>
+        <v>-1.841309642626259E-08</v>
       </c>
       <c r="AN35">
-        <v>3.181777868534054E-08</v>
+        <v>2.288517875504003E-08</v>
       </c>
       <c r="AO35">
-        <v>1.660954969275878E-07</v>
+        <v>9.557654827046822E-07</v>
       </c>
       <c r="AP35">
-        <v>-3.15789672522382E-09</v>
+        <v>-4.919987033401709E-06</v>
       </c>
       <c r="AQ35">
-        <v>4.975618861988501E-10</v>
+        <v>-1.547898164701334E-08</v>
       </c>
       <c r="AR35">
-        <v>3.203536904655203E-08</v>
+        <v>1.269629892283118E-07</v>
       </c>
       <c r="AS35">
-        <v>-8.475414939000092E-09</v>
+        <v>-1.590085577770775E-09</v>
       </c>
       <c r="AT35">
-        <v>4.399537097980932E-16</v>
+        <v>-3.152045154909696E-16</v>
       </c>
     </row>
     <row r="36" spans="1:46">
@@ -5418,139 +5418,139 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.6035251176684896</v>
+        <v>0.1218932857451433</v>
       </c>
       <c r="C36">
-        <v>0.5669079412480503</v>
+        <v>0.6218494576610335</v>
       </c>
       <c r="D36">
-        <v>-0.1620861969219527</v>
+        <v>-0.2629033053338599</v>
       </c>
       <c r="E36">
-        <v>-0.04377875705875803</v>
+        <v>-0.1309401969214855</v>
       </c>
       <c r="F36">
-        <v>0.02869362757068887</v>
+        <v>0.1343952502109658</v>
       </c>
       <c r="G36">
-        <v>-0.05105637769024204</v>
+        <v>-0.028946747388127</v>
       </c>
       <c r="H36">
-        <v>-0.04238663256169083</v>
+        <v>0.00259623645251571</v>
       </c>
       <c r="I36">
-        <v>-0.002985490643239171</v>
+        <v>0.07172159502170769</v>
       </c>
       <c r="J36">
-        <v>0.02412385069252595</v>
+        <v>-0.006231984867806796</v>
       </c>
       <c r="K36">
-        <v>0.01477576003197326</v>
+        <v>0.05452508078779291</v>
       </c>
       <c r="L36">
-        <v>0.0009673970677594371</v>
+        <v>-0.02493194260966204</v>
       </c>
       <c r="M36">
-        <v>-0.004037300575545478</v>
+        <v>-0.0006555227673347639</v>
       </c>
       <c r="N36">
-        <v>-0.0008926030283106862</v>
+        <v>-0.0007610819107952633</v>
       </c>
       <c r="O36">
-        <v>7.936079798415042E-05</v>
+        <v>-0.02119327798849834</v>
       </c>
       <c r="P36">
-        <v>-0.0002995844190999629</v>
+        <v>0.001899400191382481</v>
       </c>
       <c r="Q36">
-        <v>0.0002177853241385442</v>
+        <v>0.009805724115037029</v>
       </c>
       <c r="R36">
-        <v>-0.007779530363035283</v>
+        <v>-0.005369514184384814</v>
       </c>
       <c r="S36">
-        <v>4.268328660201528E-05</v>
+        <v>0.001215331305705862</v>
       </c>
       <c r="T36">
-        <v>-0.0002357527528205786</v>
+        <v>-0.0008225752452084057</v>
       </c>
       <c r="U36">
-        <v>-0.0001873600061382137</v>
+        <v>0.0002357250824102196</v>
       </c>
       <c r="V36">
-        <v>-0.001532570646488556</v>
+        <v>0.0001304545998983495</v>
       </c>
       <c r="W36">
-        <v>-6.729068332326842E-06</v>
+        <v>-0.0006871550903109412</v>
       </c>
       <c r="X36">
-        <v>-3.478989228532584E-06</v>
+        <v>-0.0003940308620345644</v>
       </c>
       <c r="Y36">
-        <v>-2.92559113178449E-05</v>
+        <v>0.0006569450894150548</v>
       </c>
       <c r="Z36">
-        <v>-0.002574685542511807</v>
+        <v>-1.605580993763096E-05</v>
       </c>
       <c r="AA36">
-        <v>-3.136377035995053E-06</v>
+        <v>4.791470981698147E-06</v>
       </c>
       <c r="AB36">
-        <v>2.091414123363924E-05</v>
+        <v>1.102496786294768E-05</v>
       </c>
       <c r="AC36">
-        <v>0.008686289577177011</v>
+        <v>6.370851487943667E-07</v>
       </c>
       <c r="AD36">
-        <v>0.0001214765035771703</v>
+        <v>-2.696052889179064E-07</v>
       </c>
       <c r="AE36">
-        <v>0.0003585074884233709</v>
+        <v>-6.425865035193275E-07</v>
       </c>
       <c r="AF36">
-        <v>-1.259038592006596E-08</v>
+        <v>3.156741749644396E-07</v>
       </c>
       <c r="AG36">
-        <v>8.670500431092797E-07</v>
+        <v>-1.816183147952473E-06</v>
       </c>
       <c r="AH36">
-        <v>1.868649406652343E-07</v>
+        <v>2.509360258268973E-07</v>
       </c>
       <c r="AI36">
-        <v>-3.17937168363394E-09</v>
+        <v>-1.619422189055669E-06</v>
       </c>
       <c r="AJ36">
-        <v>1.034323613054277E-08</v>
+        <v>-1.959606679368907E-06</v>
       </c>
       <c r="AK36">
-        <v>-0.0001228170670988011</v>
+        <v>-2.41654284122443E-06</v>
       </c>
       <c r="AL36">
-        <v>-7.770131598175876E-08</v>
+        <v>-3.297201551981451E-07</v>
       </c>
       <c r="AM36">
-        <v>-4.847134769276527E-09</v>
+        <v>2.08922296770656E-06</v>
       </c>
       <c r="AN36">
-        <v>-1.776471042557637E-08</v>
+        <v>-2.920539537084289E-06</v>
       </c>
       <c r="AO36">
-        <v>-8.543627764268823E-08</v>
+        <v>0.0001203155594806393</v>
       </c>
       <c r="AP36">
-        <v>1.595824580613332E-09</v>
+        <v>-0.0005896312831292381</v>
       </c>
       <c r="AQ36">
-        <v>-2.37885931105583E-10</v>
+        <v>-1.297705323159096E-06</v>
       </c>
       <c r="AR36">
-        <v>-1.571328503497344E-08</v>
+        <v>7.740895317828378E-06</v>
       </c>
       <c r="AS36">
-        <v>4.099764402018708E-09</v>
+        <v>-1.00887683934078E-07</v>
       </c>
       <c r="AT36">
-        <v>4.399537097977007E-16</v>
+        <v>-3.152045154910244E-16</v>
       </c>
     </row>
     <row r="37" spans="1:46">
@@ -5558,139 +5558,139 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.958713821092093</v>
+        <v>0.6450503801881736</v>
       </c>
       <c r="C37">
-        <v>0.3034914951263499</v>
+        <v>0.3703220914433796</v>
       </c>
       <c r="D37">
-        <v>-0.1458848583830959</v>
+        <v>-0.2916737531919313</v>
       </c>
       <c r="E37">
-        <v>0.1312416730785231</v>
+        <v>0.003185195391114895</v>
       </c>
       <c r="F37">
-        <v>-0.04674967440522904</v>
+        <v>0.0338588887739581</v>
       </c>
       <c r="G37">
-        <v>-0.03225799842856296</v>
+        <v>-0.07959884475976017</v>
       </c>
       <c r="H37">
-        <v>0.02461559359050686</v>
+        <v>0.02474988115389801</v>
       </c>
       <c r="I37">
-        <v>-0.01319778021736235</v>
+        <v>-0.0215859998998787</v>
       </c>
       <c r="J37">
-        <v>-0.02722837621572999</v>
+        <v>-0.007404227400737972</v>
       </c>
       <c r="K37">
-        <v>-0.006960059227837519</v>
+        <v>-0.03757623149529947</v>
       </c>
       <c r="L37">
-        <v>-0.0009223572589214128</v>
+        <v>0.02624105060450081</v>
       </c>
       <c r="M37">
-        <v>0.003801660587564114</v>
+        <v>0.0007526474887640995</v>
       </c>
       <c r="N37">
-        <v>0.0004948127175877856</v>
+        <v>0.000553355208635404</v>
       </c>
       <c r="O37">
-        <v>-0.006451501931530261</v>
+        <v>0.01070141118057735</v>
       </c>
       <c r="P37">
-        <v>0.002036965193751706</v>
+        <v>-0.0006321684628579451</v>
       </c>
       <c r="Q37">
-        <v>-0.000721662715985752</v>
+        <v>0.0003229905134237539</v>
       </c>
       <c r="R37">
-        <v>0.002758440559750208</v>
+        <v>-0.01694172733928211</v>
       </c>
       <c r="S37">
-        <v>0.0007717950888904244</v>
+        <v>0.006554775214543781</v>
       </c>
       <c r="T37">
-        <v>-0.004321891520307901</v>
+        <v>4.375345133336228E-05</v>
       </c>
       <c r="U37">
-        <v>-0.0003658189057289639</v>
+        <v>0.003639101776912942</v>
       </c>
       <c r="V37">
-        <v>-0.004147095794309102</v>
+        <v>0.0007051739657015758</v>
       </c>
       <c r="W37">
-        <v>-2.008237837035271E-05</v>
+        <v>-0.00957712668391009</v>
       </c>
       <c r="X37">
-        <v>-4.061525422634307E-06</v>
+        <v>-0.004306306748043067</v>
       </c>
       <c r="Y37">
-        <v>-0.0001941211713320738</v>
+        <v>-0.004784061254590703</v>
       </c>
       <c r="Z37">
-        <v>-0.00667738496378803</v>
+        <v>0.0003928229002539519</v>
       </c>
       <c r="AA37">
-        <v>9.268659988225117E-07</v>
+        <v>-0.0004218764045586091</v>
       </c>
       <c r="AB37">
-        <v>-4.493016350844743E-06</v>
+        <v>-0.003568611662104754</v>
       </c>
       <c r="AC37">
-        <v>-0.001334081451503511</v>
+        <v>1.07250326214116E-05</v>
       </c>
       <c r="AD37">
-        <v>4.907418969038268E-05</v>
+        <v>-8.548862289493427E-06</v>
       </c>
       <c r="AE37">
-        <v>0.005735746821723155</v>
+        <v>-3.703917539415789E-05</v>
       </c>
       <c r="AF37">
-        <v>-4.567839935334938E-07</v>
+        <v>-1.73313883551342E-05</v>
       </c>
       <c r="AG37">
-        <v>7.004947236552455E-05</v>
+        <v>-5.843130929837679E-05</v>
       </c>
       <c r="AH37">
-        <v>1.677752237065796E-05</v>
+        <v>-3.227730439435674E-06</v>
       </c>
       <c r="AI37">
-        <v>2.931730591742867E-07</v>
+        <v>6.752592256755605E-07</v>
       </c>
       <c r="AJ37">
-        <v>2.271384001723318E-08</v>
+        <v>2.5947800784997E-07</v>
       </c>
       <c r="AK37">
-        <v>-6.767037920612964E-08</v>
+        <v>2.714685733524168E-07</v>
       </c>
       <c r="AL37">
-        <v>6.176723602452266E-08</v>
+        <v>2.811286556965117E-08</v>
       </c>
       <c r="AM37">
-        <v>-3.191380393177606E-08</v>
+        <v>-4.535865688113997E-08</v>
       </c>
       <c r="AN37">
-        <v>2.88552455660187E-08</v>
+        <v>6.12961070017895E-08</v>
       </c>
       <c r="AO37">
-        <v>1.575926427321385E-07</v>
+        <v>-7.155490385464678E-08</v>
       </c>
       <c r="AP37">
-        <v>-2.650564788238755E-09</v>
+        <v>5.044825174484523E-08</v>
       </c>
       <c r="AQ37">
-        <v>-3.953003911712751E-06</v>
+        <v>-5.738942111741944E-09</v>
       </c>
       <c r="AR37">
-        <v>3.255151200069488E-08</v>
+        <v>7.005002853817852E-08</v>
       </c>
       <c r="AS37">
-        <v>-8.161732963946084E-09</v>
+        <v>-9.914283982346169E-10</v>
       </c>
       <c r="AT37">
-        <v>4.399537097982865E-16</v>
+        <v>-3.152045154907128E-16</v>
       </c>
     </row>
     <row r="38" spans="1:46">
@@ -5698,139 +5698,139 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-2.18063940782262</v>
+        <v>1.017720630596558</v>
       </c>
       <c r="C38">
-        <v>-0.6813144518618338</v>
+        <v>-0.2661885424745938</v>
       </c>
       <c r="D38">
-        <v>-0.3550855037623317</v>
+        <v>0.1201073346141791</v>
       </c>
       <c r="E38">
-        <v>-0.1368671369805749</v>
+        <v>0.004501622701998293</v>
       </c>
       <c r="F38">
-        <v>-0.1546136865637964</v>
+        <v>0.003131844272926359</v>
       </c>
       <c r="G38">
-        <v>0.00420395323785972</v>
+        <v>0.02860029750456994</v>
       </c>
       <c r="H38">
-        <v>-0.01470724176641891</v>
+        <v>0.009248114554307324</v>
       </c>
       <c r="I38">
-        <v>0.02558586361031982</v>
+        <v>0.04184082203882632</v>
       </c>
       <c r="J38">
-        <v>-0.01038246527361649</v>
+        <v>-0.01162193789265174</v>
       </c>
       <c r="K38">
-        <v>0.008235290628742641</v>
+        <v>-0.02095199882701617</v>
       </c>
       <c r="L38">
-        <v>-0.0141164519163231</v>
+        <v>0.008747688577818736</v>
       </c>
       <c r="M38">
-        <v>-0.0005243172125288601</v>
+        <v>-0.0006574454218728408</v>
       </c>
       <c r="N38">
-        <v>-0.003927076844909777</v>
+        <v>-0.0007623171106798722</v>
       </c>
       <c r="O38">
-        <v>-0.0006771177201867057</v>
+        <v>-0.01278032480015495</v>
       </c>
       <c r="P38">
-        <v>-0.005064348477195373</v>
+        <v>2.025703430056202E-05</v>
       </c>
       <c r="Q38">
-        <v>-0.006746104420448805</v>
+        <v>-0.01287252195169135</v>
       </c>
       <c r="R38">
-        <v>-1.454859841110514E-05</v>
+        <v>0.003315487883538641</v>
       </c>
       <c r="S38">
-        <v>0.0007322271743574797</v>
+        <v>0.01022629576373272</v>
       </c>
       <c r="T38">
-        <v>0.0001277833687419699</v>
+        <v>-2.275243748628882E-05</v>
       </c>
       <c r="U38">
-        <v>-0.0001468954233746019</v>
+        <v>-0.007740063352217862</v>
       </c>
       <c r="V38">
-        <v>2.289960486440008E-05</v>
+        <v>-0.001521444473282142</v>
       </c>
       <c r="W38">
-        <v>-0.0001102734486114674</v>
+        <v>-0.003644734450924212</v>
       </c>
       <c r="X38">
-        <v>1.039469744655262E-05</v>
+        <v>0.00363380238002345</v>
       </c>
       <c r="Y38">
-        <v>-0.0007529624075077737</v>
+        <v>0.0003429481487647072</v>
       </c>
       <c r="Z38">
-        <v>-1.19107644020638E-05</v>
+        <v>0.003916511479247941</v>
       </c>
       <c r="AA38">
-        <v>6.858341840552526E-05</v>
+        <v>5.756971196482197E-05</v>
       </c>
       <c r="AB38">
-        <v>-3.025538039768064E-05</v>
+        <v>1.7027962704493E-05</v>
       </c>
       <c r="AC38">
-        <v>-1.146241566450194E-05</v>
+        <v>0.0009391786664693838</v>
       </c>
       <c r="AD38">
-        <v>0.0002187568205971467</v>
+        <v>-0.003346605262106353</v>
       </c>
       <c r="AE38">
-        <v>6.782171315120066E-05</v>
+        <v>0.0006738130948016183</v>
       </c>
       <c r="AF38">
-        <v>-5.95159675196703E-05</v>
+        <v>-0.001338614391176536</v>
       </c>
       <c r="AG38">
-        <v>-0.00382162945454119</v>
+        <v>0.0002980289351429836</v>
       </c>
       <c r="AH38">
-        <v>-0.002308448498898724</v>
+        <v>-0.001784240208381869</v>
       </c>
       <c r="AI38">
-        <v>2.627171520068015E-05</v>
+        <v>0.001193217722760703</v>
       </c>
       <c r="AJ38">
-        <v>8.73824747939198E-07</v>
+        <v>-5.731972283021704E-07</v>
       </c>
       <c r="AK38">
-        <v>-2.939979817271278E-06</v>
+        <v>-8.137491894388701E-06</v>
       </c>
       <c r="AL38">
-        <v>2.968925377284225E-06</v>
+        <v>6.474537240169497E-06</v>
       </c>
       <c r="AM38">
-        <v>1.934183839495085E-07</v>
+        <v>1.261140910494868E-06</v>
       </c>
       <c r="AN38">
-        <v>1.302388928845745E-06</v>
+        <v>-8.218316705577667E-06</v>
       </c>
       <c r="AO38">
-        <v>6.877994232191576E-06</v>
+        <v>4.526494275424307E-07</v>
       </c>
       <c r="AP38">
-        <v>-1.29390033470463E-07</v>
+        <v>-4.124183813825717E-08</v>
       </c>
       <c r="AQ38">
-        <v>2.079910099149006E-08</v>
+        <v>1.227357923289019E-08</v>
       </c>
       <c r="AR38">
-        <v>1.30955147353226E-06</v>
+        <v>-1.359854738450537E-07</v>
       </c>
       <c r="AS38">
-        <v>-3.47245125070213E-07</v>
+        <v>2.399624349093134E-09</v>
       </c>
       <c r="AT38">
-        <v>4.399537097980298E-16</v>
+        <v>-3.152045154909673E-16</v>
       </c>
     </row>
     <row r="39" spans="1:46">
@@ -5838,139 +5838,139 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.5492299518536287</v>
+        <v>0.9872729707292918</v>
       </c>
       <c r="C39">
-        <v>0.5917501587728234</v>
+        <v>-0.321417947628663</v>
       </c>
       <c r="D39">
-        <v>-0.1567490247893245</v>
+        <v>0.1698576553447506</v>
       </c>
       <c r="E39">
-        <v>-0.06797181477836492</v>
+        <v>-0.03088345242722311</v>
       </c>
       <c r="F39">
-        <v>0.03757716637893885</v>
+        <v>0.03532255541183193</v>
       </c>
       <c r="G39">
-        <v>-0.04205731848206714</v>
+        <v>0.009911005854199725</v>
       </c>
       <c r="H39">
-        <v>-0.04291321278691675</v>
+        <v>0.01626704013353747</v>
       </c>
       <c r="I39">
-        <v>0.00111593464470653</v>
+        <v>0.02788151273856434</v>
       </c>
       <c r="J39">
-        <v>0.02701456658463424</v>
+        <v>-0.009070522659645698</v>
       </c>
       <c r="K39">
-        <v>0.01256363388693219</v>
+        <v>-0.03014279889108219</v>
       </c>
       <c r="L39">
-        <v>0.001144688731736437</v>
+        <v>-0.01246747503463445</v>
       </c>
       <c r="M39">
-        <v>-0.01096899767555563</v>
+        <v>-0.001277084505796245</v>
       </c>
       <c r="N39">
-        <v>-0.001260967209271674</v>
+        <v>-0.0009760970654834326</v>
       </c>
       <c r="O39">
-        <v>-0.007678919691023456</v>
+        <v>-0.00637122956131433</v>
       </c>
       <c r="P39">
-        <v>0.001691754758519483</v>
+        <v>-0.0006724442144434304</v>
       </c>
       <c r="Q39">
-        <v>-0.0004420479597770003</v>
+        <v>-0.01378211300323964</v>
       </c>
       <c r="R39">
-        <v>0.0007165112172319636</v>
+        <v>-0.005019285617067664</v>
       </c>
       <c r="S39">
-        <v>0.001335184328472801</v>
+        <v>-0.007680002056240291</v>
       </c>
       <c r="T39">
-        <v>-0.007580799638330703</v>
+        <v>1.178791385246037E-05</v>
       </c>
       <c r="U39">
-        <v>0.0004292374031374253</v>
+        <v>0.001491123693766757</v>
       </c>
       <c r="V39">
-        <v>0.002418885490286983</v>
+        <v>0.0002976803196424153</v>
       </c>
       <c r="W39">
-        <v>-5.399710571708522E-06</v>
+        <v>0.0004342538874310714</v>
       </c>
       <c r="X39">
-        <v>-3.082652695678296E-06</v>
+        <v>-0.000292614726504744</v>
       </c>
       <c r="Y39">
-        <v>-1.37155959740917E-06</v>
+        <v>5.911227286151643E-06</v>
       </c>
       <c r="Z39">
-        <v>0.001164071613630806</v>
+        <v>0.000314401945323703</v>
       </c>
       <c r="AA39">
-        <v>1.089671118577408E-06</v>
+        <v>0.0001756229383615123</v>
       </c>
       <c r="AB39">
-        <v>-6.544689219408157E-06</v>
+        <v>-1.386772908292584E-05</v>
       </c>
       <c r="AC39">
-        <v>-0.002399227154308072</v>
+        <v>-0.000869906980772673</v>
       </c>
       <c r="AD39">
-        <v>-9.853575925325244E-05</v>
+        <v>0.001422112429256265</v>
       </c>
       <c r="AE39">
-        <v>-6.323461717492581E-05</v>
+        <v>-0.0002786087179588738</v>
       </c>
       <c r="AF39">
-        <v>6.054264204035035E-08</v>
+        <v>0.0006432869636524166</v>
       </c>
       <c r="AG39">
-        <v>-1.402788984940739E-05</v>
+        <v>-0.000159495695773224</v>
       </c>
       <c r="AH39">
-        <v>-4.19727196460873E-06</v>
+        <v>0.001139441968743788</v>
       </c>
       <c r="AI39">
-        <v>-1.910240266646751E-07</v>
+        <v>0.002583203057636601</v>
       </c>
       <c r="AJ39">
-        <v>-1.192380637231366E-07</v>
+        <v>-3.089769571674215E-06</v>
       </c>
       <c r="AK39">
-        <v>0.001342787008382284</v>
+        <v>-3.675008434605664E-06</v>
       </c>
       <c r="AL39">
-        <v>7.691278184360979E-07</v>
+        <v>-3.246452444829943E-07</v>
       </c>
       <c r="AM39">
-        <v>4.839088016993524E-08</v>
+        <v>0.0001178249701452084</v>
       </c>
       <c r="AN39">
-        <v>1.645155629207851E-07</v>
+        <v>-0.0008263251762617218</v>
       </c>
       <c r="AO39">
-        <v>8.632685083601577E-07</v>
+        <v>9.595231796302001E-05</v>
       </c>
       <c r="AP39">
-        <v>-1.382023374453813E-08</v>
+        <v>2.015959361404679E-05</v>
       </c>
       <c r="AQ39">
-        <v>2.194434681046001E-09</v>
+        <v>-3.351595945264387E-07</v>
       </c>
       <c r="AR39">
-        <v>1.327877088428875E-07</v>
+        <v>2.219734596575403E-06</v>
       </c>
       <c r="AS39">
-        <v>-3.471995230172215E-08</v>
+        <v>-3.17955287748051E-08</v>
       </c>
       <c r="AT39">
-        <v>4.399537097985901E-16</v>
+        <v>-3.15204515491458E-16</v>
       </c>
     </row>
     <row r="40" spans="1:46">
@@ -5978,139 +5978,139 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.784086778575727</v>
+        <v>0.9745742657386869</v>
       </c>
       <c r="C40">
-        <v>0.04408421562407908</v>
+        <v>-0.3349621278512421</v>
       </c>
       <c r="D40">
-        <v>0.1609622371611408</v>
+        <v>0.1812915116890528</v>
       </c>
       <c r="E40">
-        <v>0.08927633585858762</v>
+        <v>-0.04068770800662024</v>
       </c>
       <c r="F40">
-        <v>0.06337684883746877</v>
+        <v>0.04292483558365708</v>
       </c>
       <c r="G40">
-        <v>-0.0292925520875808</v>
+        <v>0.003740845000683887</v>
       </c>
       <c r="H40">
-        <v>0.004869257577320566</v>
+        <v>0.01663865447186409</v>
       </c>
       <c r="I40">
-        <v>0.07091484117682818</v>
+        <v>0.02117188919632337</v>
       </c>
       <c r="J40">
-        <v>-0.0228608173318208</v>
+        <v>-0.007296368395951372</v>
       </c>
       <c r="K40">
-        <v>0.02632669643930473</v>
+        <v>-0.02880508310678606</v>
       </c>
       <c r="L40">
-        <v>0.01082750467983165</v>
+        <v>-0.01631358842529532</v>
       </c>
       <c r="M40">
-        <v>-0.00110226634419008</v>
+        <v>-0.001191193984289863</v>
       </c>
       <c r="N40">
-        <v>0.01247083143141253</v>
+        <v>-0.0007793864871627601</v>
       </c>
       <c r="O40">
-        <v>-0.0004445519880012109</v>
+        <v>-0.00260468913478241</v>
       </c>
       <c r="P40">
-        <v>-0.001604835384897651</v>
+        <v>-0.0006853297580268629</v>
       </c>
       <c r="Q40">
-        <v>-0.001252942748130023</v>
+        <v>-0.009492929758695496</v>
       </c>
       <c r="R40">
-        <v>-3.286887112976909E-05</v>
+        <v>-0.005238474425795005</v>
       </c>
       <c r="S40">
-        <v>0.002669988176469544</v>
+        <v>-0.009142490238566611</v>
       </c>
       <c r="T40">
-        <v>0.0004616100635627941</v>
+        <v>1.354864089125986E-05</v>
       </c>
       <c r="U40">
-        <v>0.0001870250373367783</v>
+        <v>0.003506860330589972</v>
       </c>
       <c r="V40">
-        <v>-2.348766342901802E-05</v>
+        <v>0.0006902798076104768</v>
       </c>
       <c r="W40">
-        <v>0.009700914322686136</v>
+        <v>0.001601607904699784</v>
       </c>
       <c r="X40">
-        <v>-0.008308246381914736</v>
+        <v>-0.001632987789420704</v>
       </c>
       <c r="Y40">
-        <v>-0.0002647213362545526</v>
+        <v>-0.0001824467761915639</v>
       </c>
       <c r="Z40">
-        <v>-1.346275590393239E-06</v>
+        <v>-0.002445893817451459</v>
       </c>
       <c r="AA40">
-        <v>0.0004852033970537248</v>
+        <v>-0.0003523740416437054</v>
       </c>
       <c r="AB40">
-        <v>0.0001454852532111564</v>
+        <v>1.801873138419039E-05</v>
       </c>
       <c r="AC40">
-        <v>-6.276230888382182E-07</v>
+        <v>0.0002820435512148824</v>
       </c>
       <c r="AD40">
-        <v>3.241466988410683E-06</v>
+        <v>-0.001725362132075054</v>
       </c>
       <c r="AE40">
-        <v>8.603960366304596E-07</v>
+        <v>0.0002779156352853677</v>
       </c>
       <c r="AF40">
-        <v>1.800004221006585E-05</v>
+        <v>-0.0005742738337610293</v>
       </c>
       <c r="AG40">
-        <v>-1.194624598680858E-05</v>
+        <v>0.0001365961664914884</v>
       </c>
       <c r="AH40">
-        <v>-3.421291461805668E-06</v>
+        <v>-0.0009520138334316732</v>
       </c>
       <c r="AI40">
-        <v>-1.57437805494567E-05</v>
+        <v>-0.001960160189366044</v>
       </c>
       <c r="AJ40">
-        <v>-6.996933172474714E-09</v>
+        <v>1.793847490893313E-06</v>
       </c>
       <c r="AK40">
-        <v>2.200502910304908E-08</v>
+        <v>2.0556459074906E-06</v>
       </c>
       <c r="AL40">
-        <v>-2.198561654514283E-08</v>
+        <v>6.312916239766107E-08</v>
       </c>
       <c r="AM40">
-        <v>-1.482639186506148E-09</v>
+        <v>7.135383662447897E-05</v>
       </c>
       <c r="AN40">
-        <v>-1.041839298305902E-08</v>
+        <v>-0.0005125301123501937</v>
       </c>
       <c r="AO40">
-        <v>-5.804593605404558E-08</v>
+        <v>-0.0004690088435140887</v>
       </c>
       <c r="AP40">
-        <v>1.022595551037338E-09</v>
+        <v>-9.056386477288639E-05</v>
       </c>
       <c r="AQ40">
-        <v>-1.783023543951973E-10</v>
+        <v>1.713077432271245E-06</v>
       </c>
       <c r="AR40">
-        <v>-1.022325211083553E-08</v>
+        <v>-4.920462082609372E-06</v>
       </c>
       <c r="AS40">
-        <v>2.735216041372447E-09</v>
+        <v>4.898063088343721E-07</v>
       </c>
       <c r="AT40">
-        <v>4.399537097980168E-16</v>
+        <v>-3.152045154892997E-16</v>
       </c>
     </row>
     <row r="41" spans="1:46">
@@ -6118,139 +6118,139 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6941305660705125</v>
+        <v>0.9140120941527115</v>
       </c>
       <c r="C41">
-        <v>0.5143793989941124</v>
+        <v>-0.3774590439674809</v>
       </c>
       <c r="D41">
-        <v>-0.1657937333996435</v>
+        <v>0.2139273476060691</v>
       </c>
       <c r="E41">
-        <v>0.0007660724131658123</v>
+        <v>-0.07538550198228194</v>
       </c>
       <c r="F41">
-        <v>0.01014724357568719</v>
+        <v>0.06479050891375085</v>
       </c>
       <c r="G41">
-        <v>-0.05846495003310627</v>
+        <v>-0.02095456215049069</v>
       </c>
       <c r="H41">
-        <v>-0.03159426045694307</v>
+        <v>0.012198773685698</v>
       </c>
       <c r="I41">
-        <v>-0.009333582459860186</v>
+        <v>-0.01105854461368577</v>
       </c>
       <c r="J41">
-        <v>0.0115851934529849</v>
+        <v>0.002202629532265524</v>
       </c>
       <c r="K41">
-        <v>0.01349645158229518</v>
+        <v>-0.01060145001280634</v>
       </c>
       <c r="L41">
-        <v>7.473251507732178E-05</v>
+        <v>-0.02016133373526662</v>
       </c>
       <c r="M41">
-        <v>0.01067425583143024</v>
+        <v>-8.629804474107576E-06</v>
       </c>
       <c r="N41">
-        <v>0.0003684282277579273</v>
+        <v>0.0006863069382350857</v>
       </c>
       <c r="O41">
-        <v>0.01352176725690205</v>
+        <v>0.01451820362429934</v>
       </c>
       <c r="P41">
-        <v>-0.003544846599187659</v>
+        <v>-4.45869587566066E-05</v>
       </c>
       <c r="Q41">
-        <v>0.001170093732816701</v>
+        <v>0.01812675701022273</v>
       </c>
       <c r="R41">
-        <v>-0.01270869174061202</v>
+        <v>0.002807944655580065</v>
       </c>
       <c r="S41">
-        <v>-0.002278223991530262</v>
+        <v>0.003364123496767545</v>
       </c>
       <c r="T41">
-        <v>0.01295480683859139</v>
+        <v>-2.27871648938025E-05</v>
       </c>
       <c r="U41">
-        <v>-0.000939080629031273</v>
+        <v>-0.0003365074157094037</v>
       </c>
       <c r="V41">
-        <v>-0.005492742746715737</v>
+        <v>-8.953942081840212E-05</v>
       </c>
       <c r="W41">
-        <v>2.112460258101383E-06</v>
+        <v>-7.194402615523931E-05</v>
       </c>
       <c r="X41">
-        <v>3.187259872977953E-06</v>
+        <v>3.589825881644694E-05</v>
       </c>
       <c r="Y41">
-        <v>-3.315130799769591E-05</v>
+        <v>-1.178024243369583E-05</v>
       </c>
       <c r="Z41">
-        <v>-0.001643037989011612</v>
+        <v>-0.0001734563561709143</v>
       </c>
       <c r="AA41">
-        <v>1.065056141898762E-06</v>
+        <v>-0.0001083638139188556</v>
       </c>
       <c r="AB41">
-        <v>-9.712537969981874E-06</v>
+        <v>1.759760343457568E-05</v>
       </c>
       <c r="AC41">
-        <v>-0.004401567422474612</v>
+        <v>0.004237587738543678</v>
       </c>
       <c r="AD41">
-        <v>-4.849925250052747E-05</v>
+        <v>0.0006391598963645801</v>
       </c>
       <c r="AE41">
-        <v>-0.000595142541233114</v>
+        <v>-6.049474256138238E-05</v>
       </c>
       <c r="AF41">
-        <v>1.818278227168409E-08</v>
+        <v>9.441394421174946E-05</v>
       </c>
       <c r="AG41">
-        <v>1.81288996422503E-06</v>
+        <v>-2.037140939635732E-05</v>
       </c>
       <c r="AH41">
-        <v>7.559209530099222E-07</v>
+        <v>0.0001316535577129446</v>
       </c>
       <c r="AI41">
-        <v>1.200813415088555E-08</v>
+        <v>0.0002011478924386015</v>
       </c>
       <c r="AJ41">
-        <v>1.905719597847507E-09</v>
+        <v>-4.346834882073352E-07</v>
       </c>
       <c r="AK41">
-        <v>6.051656044872255E-06</v>
+        <v>-4.99710016377253E-07</v>
       </c>
       <c r="AL41">
-        <v>6.378175095950957E-09</v>
+        <v>-5.339803574954697E-08</v>
       </c>
       <c r="AM41">
-        <v>4.767691596265752E-10</v>
+        <v>-1.525707808388823E-06</v>
       </c>
       <c r="AN41">
-        <v>2.932535690793002E-09</v>
+        <v>1.218640592812225E-05</v>
       </c>
       <c r="AO41">
-        <v>2.617845567758796E-08</v>
+        <v>7.981637829868109E-06</v>
       </c>
       <c r="AP41">
-        <v>-2.061638779163672E-10</v>
+        <v>7.213155511903563E-07</v>
       </c>
       <c r="AQ41">
-        <v>5.844033022754984E-11</v>
+        <v>-1.315362477041597E-05</v>
       </c>
       <c r="AR41">
-        <v>1.844254344440786E-09</v>
+        <v>-3.88793778183143E-06</v>
       </c>
       <c r="AS41">
-        <v>-5.192128740926598E-10</v>
+        <v>0.0001018566030219104</v>
       </c>
       <c r="AT41">
-        <v>4.399537097980448E-16</v>
+        <v>-3.152045154998912E-16</v>
       </c>
     </row>
     <row r="42" spans="1:46">
@@ -6258,139 +6258,139 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-2.024029927896524</v>
+        <v>1.003431875544017</v>
       </c>
       <c r="C42">
-        <v>-0.2145902444068025</v>
+        <v>-0.2955831519757138</v>
       </c>
       <c r="D42">
-        <v>-0.0376395667474909</v>
+        <v>0.1465996416562274</v>
       </c>
       <c r="E42">
-        <v>0.09471120222830806</v>
+        <v>-0.01370417402437895</v>
       </c>
       <c r="F42">
-        <v>0.1163425228754711</v>
+        <v>0.01999671179708851</v>
       </c>
       <c r="G42">
-        <v>-0.00161971454493054</v>
+        <v>0.01944221334043366</v>
       </c>
       <c r="H42">
-        <v>0.0166633331179648</v>
+        <v>0.01330944657666576</v>
       </c>
       <c r="I42">
-        <v>-0.011624505526764</v>
+        <v>0.03594880761307532</v>
       </c>
       <c r="J42">
-        <v>0.007161626815681089</v>
+        <v>-0.01079112040495598</v>
       </c>
       <c r="K42">
-        <v>0.003588626118426061</v>
+        <v>-0.02703135409866256</v>
       </c>
       <c r="L42">
-        <v>-0.02614265906048026</v>
+        <v>-0.002337963474834898</v>
       </c>
       <c r="M42">
-        <v>-0.0009302778655190858</v>
+        <v>-0.00107143428643596</v>
       </c>
       <c r="N42">
-        <v>-0.007523447655379643</v>
+        <v>-0.0009803778803902769</v>
       </c>
       <c r="O42">
-        <v>0.001303333207662158</v>
+        <v>-0.01065769197206142</v>
       </c>
       <c r="P42">
-        <v>0.004001042559334204</v>
+        <v>-0.0003862344022281996</v>
       </c>
       <c r="Q42">
-        <v>0.002452178915604878</v>
+        <v>-0.01527105162083383</v>
       </c>
       <c r="R42">
-        <v>8.264375097484698E-06</v>
+        <v>-0.001195350678236001</v>
       </c>
       <c r="S42">
-        <v>-0.00896565697616533</v>
+        <v>0.001290696342937711</v>
       </c>
       <c r="T42">
-        <v>-0.001577918789845065</v>
+        <v>-1.022096399399163E-05</v>
       </c>
       <c r="U42">
-        <v>-0.0001525553118139843</v>
+        <v>-0.004813253463181478</v>
       </c>
       <c r="V42">
-        <v>1.107639062922347E-05</v>
+        <v>-0.0009469545611865706</v>
       </c>
       <c r="W42">
-        <v>0.000252272443804572</v>
+        <v>-0.002812312325435492</v>
       </c>
       <c r="X42">
-        <v>1.213524098483666E-05</v>
+        <v>0.003202145072962655</v>
       </c>
       <c r="Y42">
-        <v>-0.0001049937199809696</v>
+        <v>0.000424468381852561</v>
       </c>
       <c r="Z42">
-        <v>-1.341987760065373E-06</v>
+        <v>0.006049555686672559</v>
       </c>
       <c r="AA42">
-        <v>0.007846154208719303</v>
+        <v>0.000947470957100475</v>
       </c>
       <c r="AB42">
-        <v>6.299694490487081E-05</v>
+        <v>-4.856723821434752E-05</v>
       </c>
       <c r="AC42">
-        <v>2.286687632180156E-06</v>
+        <v>-0.0003030468579464952</v>
       </c>
       <c r="AD42">
-        <v>-3.503273892929455E-06</v>
+        <v>0.003804902626428473</v>
       </c>
       <c r="AE42">
-        <v>-8.676581373524655E-07</v>
+        <v>-0.0004534133039708604</v>
       </c>
       <c r="AF42">
-        <v>0.0009641581746362737</v>
+        <v>0.0005782830458227841</v>
       </c>
       <c r="AG42">
-        <v>8.442792369878029E-06</v>
+        <v>-9.836537044146308E-05</v>
       </c>
       <c r="AH42">
-        <v>1.497327359953241E-06</v>
+        <v>0.0004173763346565041</v>
       </c>
       <c r="AI42">
-        <v>-4.749696238750598E-08</v>
+        <v>-0.002023523069637953</v>
       </c>
       <c r="AJ42">
-        <v>3.141409212559571E-09</v>
+        <v>1.466353301080185E-06</v>
       </c>
       <c r="AK42">
-        <v>-1.121666352491065E-08</v>
+        <v>3.156240066805494E-06</v>
       </c>
       <c r="AL42">
-        <v>1.177530426217812E-08</v>
+        <v>-1.081375919306046E-06</v>
       </c>
       <c r="AM42">
-        <v>7.661664024852376E-10</v>
+        <v>-1.227361069328061E-05</v>
       </c>
       <c r="AN42">
-        <v>5.223052166105648E-09</v>
+        <v>8.528417376606126E-05</v>
       </c>
       <c r="AO42">
-        <v>2.680048360821889E-08</v>
+        <v>-5.599635924446068E-06</v>
       </c>
       <c r="AP42">
-        <v>-5.304186585631715E-10</v>
+        <v>-1.043191614827868E-06</v>
       </c>
       <c r="AQ42">
-        <v>8.217914327807328E-11</v>
+        <v>4.989437039889452E-09</v>
       </c>
       <c r="AR42">
-        <v>5.407846528798363E-09</v>
+        <v>3.268617471434038E-08</v>
       </c>
       <c r="AS42">
-        <v>-1.433254655416876E-09</v>
+        <v>-9.039265057684847E-10</v>
       </c>
       <c r="AT42">
-        <v>4.399537097979848E-16</v>
+        <v>-3.152045154907547E-16</v>
       </c>
     </row>
     <row r="43" spans="1:46">
@@ -6398,139 +6398,139 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.8411595924806298</v>
+        <v>0.8933522634446101</v>
       </c>
       <c r="C43">
-        <v>0.4104422129861592</v>
+        <v>-0.3870844184206735</v>
       </c>
       <c r="D43">
-        <v>-0.1618377322535947</v>
+        <v>0.2198895807111051</v>
       </c>
       <c r="E43">
-        <v>0.07676646787610958</v>
+        <v>-0.08396366457050625</v>
       </c>
       <c r="F43">
-        <v>-0.02318140595007939</v>
+        <v>0.06819382365266165</v>
       </c>
       <c r="G43">
-        <v>-0.0546480482259564</v>
+        <v>-0.02720086637262836</v>
       </c>
       <c r="H43">
-        <v>-0.0007285951618312435</v>
+        <v>0.009416337554497382</v>
       </c>
       <c r="I43">
-        <v>-0.01626600481685307</v>
+        <v>-0.01926117134190024</v>
       </c>
       <c r="J43">
-        <v>-0.01610168967388088</v>
+        <v>0.0045487705917495</v>
       </c>
       <c r="K43">
-        <v>0.003200236172682936</v>
+        <v>-0.004068869124636798</v>
       </c>
       <c r="L43">
-        <v>-0.001462553491718071</v>
+        <v>-0.01753299219634857</v>
       </c>
       <c r="M43">
-        <v>0.02401078481072007</v>
+        <v>0.0002630452678323658</v>
       </c>
       <c r="N43">
-        <v>0.00210292180801142</v>
+        <v>0.0008667841662349681</v>
       </c>
       <c r="O43">
-        <v>0.01684928959986825</v>
+        <v>0.01526355998008227</v>
       </c>
       <c r="P43">
-        <v>-0.003394119118916827</v>
+        <v>0.0001000564762555249</v>
       </c>
       <c r="Q43">
-        <v>0.000747792762647228</v>
+        <v>0.02008122513601042</v>
       </c>
       <c r="R43">
-        <v>0.006490363918016366</v>
+        <v>0.003743027054304347</v>
       </c>
       <c r="S43">
-        <v>2.547126835582707E-05</v>
+        <v>0.004995960337935357</v>
       </c>
       <c r="T43">
-        <v>-0.0002037775014231132</v>
+        <v>-2.24134311974892E-05</v>
       </c>
       <c r="U43">
-        <v>0.0006785729919732789</v>
+        <v>-0.001061031584468658</v>
       </c>
       <c r="V43">
-        <v>0.005692954395179732</v>
+        <v>-0.0002274934433299864</v>
       </c>
       <c r="W43">
-        <v>1.44023611508027E-05</v>
+        <v>-0.0004387586173721753</v>
       </c>
       <c r="X43">
-        <v>2.667435630093301E-06</v>
+        <v>0.0004372784083170472</v>
       </c>
       <c r="Y43">
-        <v>0.0001516032544937349</v>
+        <v>4.623127787814829E-05</v>
       </c>
       <c r="Z43">
-        <v>0.008083446051395611</v>
+        <v>0.0006794495686366057</v>
       </c>
       <c r="AA43">
-        <v>1.068441315936301E-06</v>
+        <v>0.0001683939747310007</v>
       </c>
       <c r="AB43">
-        <v>6.16713994168195E-07</v>
+        <v>-2.337923160002761E-05</v>
       </c>
       <c r="AC43">
-        <v>0.001314654799741503</v>
+        <v>-0.00434759611612785</v>
       </c>
       <c r="AD43">
-        <v>3.649194865011965E-05</v>
+        <v>-0.0004731842735508654</v>
       </c>
       <c r="AE43">
-        <v>0.002571435780687559</v>
+        <v>3.568171589800245E-05</v>
       </c>
       <c r="AF43">
-        <v>-1.496787138741689E-07</v>
+        <v>-4.917403768920557E-05</v>
       </c>
       <c r="AG43">
-        <v>1.677363490228384E-05</v>
+        <v>8.311851461754502E-06</v>
       </c>
       <c r="AH43">
-        <v>3.549243025460938E-06</v>
+        <v>-6.220236639376567E-05</v>
       </c>
       <c r="AI43">
-        <v>3.521992074072628E-08</v>
+        <v>-7.972324137539216E-05</v>
       </c>
       <c r="AJ43">
-        <v>2.127805227390058E-09</v>
+        <v>-2.623585767938601E-07</v>
       </c>
       <c r="AK43">
-        <v>-1.872532879398864E-07</v>
+        <v>-2.271155534684437E-07</v>
       </c>
       <c r="AL43">
-        <v>1.942679760391517E-09</v>
+        <v>-1.826166842928344E-08</v>
       </c>
       <c r="AM43">
-        <v>7.827039781557543E-11</v>
+        <v>1.749246802556367E-07</v>
       </c>
       <c r="AN43">
-        <v>1.510053147626493E-09</v>
+        <v>-1.815197278548013E-06</v>
       </c>
       <c r="AO43">
-        <v>1.770826050384705E-08</v>
+        <v>-2.872399654240113E-06</v>
       </c>
       <c r="AP43">
-        <v>-7.861974097800318E-11</v>
+        <v>7.675079857928605E-07</v>
       </c>
       <c r="AQ43">
-        <v>-5.459710878337407E-10</v>
+        <v>-0.0004455749032165258</v>
       </c>
       <c r="AR43">
-        <v>6.26697818469148E-10</v>
+        <v>-4.468324805751628E-06</v>
       </c>
       <c r="AS43">
-        <v>-1.907159686545793E-10</v>
+        <v>2.349143674799585E-07</v>
       </c>
       <c r="AT43">
-        <v>4.399537097979476E-16</v>
+        <v>-3.152045154904291E-16</v>
       </c>
     </row>
     <row r="44" spans="1:46">
@@ -6538,139 +6538,139 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.182263608505132</v>
+        <v>0.7079580852207251</v>
       </c>
       <c r="C44">
-        <v>0.4138112728657859</v>
+        <v>0.327043855811584</v>
       </c>
       <c r="D44">
-        <v>0.3115379766416288</v>
+        <v>-0.2816955094195041</v>
       </c>
       <c r="E44">
-        <v>-0.03143946457734591</v>
+        <v>0.02287134586028044</v>
       </c>
       <c r="F44">
-        <v>-0.08436330126236448</v>
+        <v>0.01355379293824518</v>
       </c>
       <c r="G44">
-        <v>0.009135862609056432</v>
+        <v>-0.07472103208549466</v>
       </c>
       <c r="H44">
-        <v>-5.757320042188117E-05</v>
+        <v>0.02218104781324197</v>
       </c>
       <c r="I44">
-        <v>-0.03716508473632764</v>
+        <v>-0.03536374080626423</v>
       </c>
       <c r="J44">
-        <v>0.01025183240843187</v>
+        <v>-0.004368225236576986</v>
       </c>
       <c r="K44">
-        <v>0.00336698952221877</v>
+        <v>-0.0441741889139009</v>
       </c>
       <c r="L44">
-        <v>-0.01472133814306069</v>
+        <v>0.02280929097797</v>
       </c>
       <c r="M44">
-        <v>-0.004560301438920704</v>
+        <v>0.0003809580043045456</v>
       </c>
       <c r="N44">
-        <v>0.03173291818233067</v>
+        <v>0.0005246546537312488</v>
       </c>
       <c r="O44">
-        <v>-0.0002642591520927748</v>
+        <v>-0.001699928730835</v>
       </c>
       <c r="P44">
-        <v>-0.001752883455060748</v>
+        <v>0.0005242551351292395</v>
       </c>
       <c r="Q44">
-        <v>-0.0008882791439954877</v>
+        <v>0.007061185467238699</v>
       </c>
       <c r="R44">
-        <v>-8.156923046190014E-05</v>
+        <v>-0.01763457552180717</v>
       </c>
       <c r="S44">
-        <v>-0.0008780280015852307</v>
+        <v>0.005347848152796646</v>
       </c>
       <c r="T44">
-        <v>-0.0001566745846638233</v>
+        <v>-0.0001056146032732883</v>
       </c>
       <c r="U44">
-        <v>-0.0001400868441779601</v>
+        <v>0.0003197779632838261</v>
       </c>
       <c r="V44">
-        <v>1.678831206516892E-05</v>
+        <v>7.434081119712481E-05</v>
       </c>
       <c r="W44">
-        <v>-0.00720609339796173</v>
+        <v>0.002313787376733478</v>
       </c>
       <c r="X44">
-        <v>-0.006717498944360163</v>
+        <v>0.002247557475979199</v>
       </c>
       <c r="Y44">
-        <v>0.0003148596436194032</v>
+        <v>-0.0009248088831909639</v>
       </c>
       <c r="Z44">
-        <v>1.372782638230511E-06</v>
+        <v>-0.000187954205217199</v>
       </c>
       <c r="AA44">
-        <v>4.024357263712586E-05</v>
+        <v>0.000586165207170236</v>
       </c>
       <c r="AB44">
-        <v>-0.003551554453784092</v>
+        <v>0.006590733491643793</v>
       </c>
       <c r="AC44">
-        <v>8.187513575447589E-06</v>
+        <v>-2.29162374948659E-05</v>
       </c>
       <c r="AD44">
-        <v>8.949184460235735E-06</v>
+        <v>2.307777419980955E-05</v>
       </c>
       <c r="AE44">
-        <v>-2.30539976650482E-06</v>
+        <v>0.0001204980873680174</v>
       </c>
       <c r="AF44">
-        <v>-1.931942807952979E-07</v>
+        <v>6.404127632897792E-05</v>
       </c>
       <c r="AG44">
-        <v>2.636006698760351E-05</v>
+        <v>0.0002338494910098749</v>
       </c>
       <c r="AH44">
-        <v>6.783042067861827E-06</v>
+        <v>1.296958548490232E-05</v>
       </c>
       <c r="AI44">
-        <v>-2.76836107742111E-05</v>
+        <v>-1.491037588722713E-06</v>
       </c>
       <c r="AJ44">
-        <v>1.011386738673819E-08</v>
+        <v>-4.388889459178951E-07</v>
       </c>
       <c r="AK44">
-        <v>-3.845117388505737E-08</v>
+        <v>-5.519120440824708E-07</v>
       </c>
       <c r="AL44">
-        <v>4.091342062133455E-08</v>
+        <v>-5.622121196615987E-08</v>
       </c>
       <c r="AM44">
-        <v>2.615916030639094E-09</v>
+        <v>9.15970342693046E-08</v>
       </c>
       <c r="AN44">
-        <v>1.839242620465329E-08</v>
+        <v>-1.268496279096301E-07</v>
       </c>
       <c r="AO44">
-        <v>9.728684027979779E-08</v>
+        <v>1.445574468297773E-07</v>
       </c>
       <c r="AP44">
-        <v>-1.857616971504914E-09</v>
+        <v>-8.925032147178229E-08</v>
       </c>
       <c r="AQ44">
-        <v>2.940505705359927E-10</v>
+        <v>1.156710688424383E-08</v>
       </c>
       <c r="AR44">
-        <v>1.903337472696991E-08</v>
+        <v>-1.244481081521151E-07</v>
       </c>
       <c r="AS44">
-        <v>-5.042827518542038E-09</v>
+        <v>2.177403088919916E-09</v>
       </c>
       <c r="AT44">
-        <v>4.399537097979458E-16</v>
+        <v>-3.152045154910485E-16</v>
       </c>
     </row>
     <row r="45" spans="1:46">
@@ -6678,139 +6678,139 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.6029866012336954</v>
+        <v>0.985096359113388</v>
       </c>
       <c r="C45">
-        <v>0.5421272574835488</v>
+        <v>0.04550525698890843</v>
       </c>
       <c r="D45">
-        <v>0.1560285358726442</v>
+        <v>-0.1424572626154472</v>
       </c>
       <c r="E45">
-        <v>-0.1307126495149461</v>
+        <v>0.100411671481767</v>
       </c>
       <c r="F45">
-        <v>-0.04423674574471822</v>
+        <v>-0.08600770644131266</v>
       </c>
       <c r="G45">
-        <v>0.05728695863716866</v>
+        <v>0.01512697742110022</v>
       </c>
       <c r="H45">
-        <v>0.05312658841472313</v>
+        <v>-0.01584378417217567</v>
       </c>
       <c r="I45">
-        <v>-0.05211798432573516</v>
+        <v>-0.0306421517133464</v>
       </c>
       <c r="J45">
-        <v>-0.009589756762476153</v>
+        <v>0.01090744851016611</v>
       </c>
       <c r="K45">
-        <v>0.08231257391423646</v>
+        <v>0.01608916331688101</v>
       </c>
       <c r="L45">
-        <v>0.01239406538375535</v>
+        <v>-0.02769057088278958</v>
       </c>
       <c r="M45">
-        <v>0.0001276507218481061</v>
+        <v>-0.0007033171054962596</v>
       </c>
       <c r="N45">
-        <v>-0.01542990855962069</v>
+        <v>-0.0005448402461231836</v>
       </c>
       <c r="O45">
-        <v>-0.0005811169133550451</v>
+        <v>0.002796813426840082</v>
       </c>
       <c r="P45">
-        <v>0.001425067890248249</v>
+        <v>-0.0008434093547080684</v>
       </c>
       <c r="Q45">
-        <v>-3.083696724442054E-05</v>
+        <v>-0.009969708613291745</v>
       </c>
       <c r="R45">
-        <v>0.001005077518555973</v>
+        <v>0.000587519469528269</v>
       </c>
       <c r="S45">
-        <v>4.999254381033124E-05</v>
+        <v>0.006000714431933462</v>
       </c>
       <c r="T45">
-        <v>0.0003871386230868066</v>
+        <v>1.282849994191483E-05</v>
       </c>
       <c r="U45">
-        <v>5.721358573061915E-05</v>
+        <v>0.005271881577670234</v>
       </c>
       <c r="V45">
-        <v>-5.377459024187097E-05</v>
+        <v>0.001035470080797074</v>
       </c>
       <c r="W45">
-        <v>0.0007205905337901447</v>
+        <v>-0.0009126439164238127</v>
       </c>
       <c r="X45">
-        <v>0.0006176080222951423</v>
+        <v>0.003842951310912363</v>
       </c>
       <c r="Y45">
-        <v>4.149543794441067E-05</v>
+        <v>0.0004954548118884992</v>
       </c>
       <c r="Z45">
-        <v>-6.387791650334249E-06</v>
+        <v>-0.0001296980199755556</v>
       </c>
       <c r="AA45">
-        <v>-2.893620289775347E-06</v>
+        <v>-0.001672846946552615</v>
       </c>
       <c r="AB45">
-        <v>0.0001910856908705417</v>
+        <v>-0.0001206420669038912</v>
       </c>
       <c r="AC45">
-        <v>1.099529963931502E-05</v>
+        <v>-6.614483663856863E-05</v>
       </c>
       <c r="AD45">
-        <v>-0.0002410608428491501</v>
+        <v>0.0004119701552951738</v>
       </c>
       <c r="AE45">
-        <v>2.412127349285476E-06</v>
+        <v>0.003495644097051057</v>
       </c>
       <c r="AF45">
-        <v>-1.524357498529162E-08</v>
+        <v>0.001149462343009482</v>
       </c>
       <c r="AG45">
-        <v>1.929053897303433E-06</v>
+        <v>-0.0006980972891524924</v>
       </c>
       <c r="AH45">
-        <v>7.963192358011025E-07</v>
+        <v>-0.0003063303668189836</v>
       </c>
       <c r="AI45">
-        <v>6.081867745307617E-07</v>
+        <v>2.558964618304873E-06</v>
       </c>
       <c r="AJ45">
-        <v>-5.823482229877958E-10</v>
+        <v>-0.001586279583430126</v>
       </c>
       <c r="AK45">
-        <v>-2.449454612556343E-10</v>
+        <v>-4.027902446094274E-05</v>
       </c>
       <c r="AL45">
-        <v>-1.811717310699987E-10</v>
+        <v>-3.91127986072521E-06</v>
       </c>
       <c r="AM45">
-        <v>-7.310058644069594E-11</v>
+        <v>8.183315669077975E-05</v>
       </c>
       <c r="AN45">
-        <v>3.186746814401621E-09</v>
+        <v>1.215635472589755E-05</v>
       </c>
       <c r="AO45">
-        <v>1.005752125285227E-07</v>
+        <v>-6.145432619568647E-07</v>
       </c>
       <c r="AP45">
-        <v>1.604504624685124E-10</v>
+        <v>3.87284277051408E-07</v>
       </c>
       <c r="AQ45">
-        <v>-9.576294557528138E-12</v>
+        <v>-4.605228463471893E-08</v>
       </c>
       <c r="AR45">
-        <v>-1.094508821519364E-09</v>
+        <v>4.850851175947357E-07</v>
       </c>
       <c r="AS45">
-        <v>2.680364558392282E-10</v>
+        <v>-7.972327193297751E-09</v>
       </c>
       <c r="AT45">
-        <v>4.399537097979025E-16</v>
+        <v>-3.152045154909337E-16</v>
       </c>
     </row>
     <row r="46" spans="1:46">
@@ -6818,139 +6818,139 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.710930422393142</v>
+        <v>1.031079230339168</v>
       </c>
       <c r="C46">
-        <v>0.1081983250526876</v>
+        <v>-0.2291417823729494</v>
       </c>
       <c r="D46">
-        <v>0.2046176683572608</v>
+        <v>0.08619060123733945</v>
       </c>
       <c r="E46">
-        <v>0.07831098595327857</v>
+        <v>0.02601246582878661</v>
       </c>
       <c r="F46">
-        <v>0.03833693443259418</v>
+        <v>-0.01765332006536566</v>
       </c>
       <c r="G46">
-        <v>-0.03085004222522464</v>
+        <v>0.03801539445104436</v>
       </c>
       <c r="H46">
-        <v>-0.0004444898648072763</v>
+        <v>0.003353810974499368</v>
       </c>
       <c r="I46">
-        <v>0.0720257767532253</v>
+        <v>0.0453211289473746</v>
       </c>
       <c r="J46">
-        <v>-0.02269917652934608</v>
+        <v>-0.01139562372246778</v>
       </c>
       <c r="K46">
-        <v>0.02076702721905435</v>
+        <v>-0.01096264807223276</v>
       </c>
       <c r="L46">
-        <v>0.01919499676582127</v>
+        <v>0.02069726917756978</v>
       </c>
       <c r="M46">
-        <v>7.470587194757244E-05</v>
+        <v>-3.430608288934312E-05</v>
       </c>
       <c r="N46">
-        <v>0.009158926822870858</v>
+        <v>-0.0003114488254499755</v>
       </c>
       <c r="O46">
-        <v>-0.001270243121765857</v>
+        <v>-0.0118846328161625</v>
       </c>
       <c r="P46">
-        <v>-0.004720271352020211</v>
+        <v>0.000494130702756954</v>
       </c>
       <c r="Q46">
-        <v>-0.004159426872164807</v>
+        <v>-0.005941205143395219</v>
       </c>
       <c r="R46">
-        <v>-8.156102638706397E-06</v>
+        <v>0.007264902930476755</v>
       </c>
       <c r="S46">
-        <v>-0.006320495414219064</v>
+        <v>0.01552993735957679</v>
       </c>
       <c r="T46">
-        <v>-0.001110941721547883</v>
+        <v>-2.31678920141541E-05</v>
       </c>
       <c r="U46">
-        <v>-0.0001848589038526895</v>
+        <v>-0.003967482199981965</v>
       </c>
       <c r="V46">
-        <v>2.176846588790567E-05</v>
+        <v>-0.0007830021261532984</v>
       </c>
       <c r="W46">
-        <v>-0.008064468943774376</v>
+        <v>-0.0005524537170152194</v>
       </c>
       <c r="X46">
-        <v>0.008359042919795426</v>
+        <v>-0.0003440792869666316</v>
       </c>
       <c r="Y46">
-        <v>0.0002123511287976666</v>
+        <v>-0.0002751008516742749</v>
       </c>
       <c r="Z46">
-        <v>8.965739530632134E-07</v>
+        <v>-0.00512327119538566</v>
       </c>
       <c r="AA46">
-        <v>-0.0001891169257289705</v>
+        <v>-0.001145727223359931</v>
       </c>
       <c r="AB46">
-        <v>-0.0003701812580199359</v>
+        <v>5.191976356645329E-05</v>
       </c>
       <c r="AC46">
-        <v>1.208572067737452E-06</v>
+        <v>3.141447238279908E-05</v>
       </c>
       <c r="AD46">
-        <v>-3.066348510187413E-06</v>
+        <v>-0.001700076123708735</v>
       </c>
       <c r="AE46">
-        <v>-9.032556892826246E-07</v>
+        <v>-0.0003238973769206059</v>
       </c>
       <c r="AF46">
-        <v>-4.267347595576578E-06</v>
+        <v>0.001524934530295689</v>
       </c>
       <c r="AG46">
-        <v>1.376659771715914E-05</v>
+        <v>-0.0004322807957758116</v>
       </c>
       <c r="AH46">
-        <v>3.673316343480661E-06</v>
+        <v>0.002992616415096512</v>
       </c>
       <c r="AI46">
-        <v>0.0001192955752122789</v>
+        <v>-0.0006997159920295716</v>
       </c>
       <c r="AJ46">
-        <v>4.406583353597016E-09</v>
+        <v>-1.092154654813358E-06</v>
       </c>
       <c r="AK46">
-        <v>-1.838477680845176E-08</v>
+        <v>4.090635421458504E-05</v>
       </c>
       <c r="AL46">
-        <v>2.027361072498118E-08</v>
+        <v>-4.340121606516037E-05</v>
       </c>
       <c r="AM46">
-        <v>1.289798983086933E-09</v>
+        <v>-1.90412442999952E-07</v>
       </c>
       <c r="AN46">
-        <v>9.066763300160367E-09</v>
+        <v>7.749088093997654E-07</v>
       </c>
       <c r="AO46">
-        <v>4.611120277280922E-08</v>
+        <v>-1.617722256622853E-07</v>
       </c>
       <c r="AP46">
-        <v>-9.351917186857386E-10</v>
+        <v>9.269851590982063E-08</v>
       </c>
       <c r="AQ46">
-        <v>1.408247711267439E-10</v>
+        <v>-1.172714350620456E-08</v>
       </c>
       <c r="AR46">
-        <v>9.648229721836475E-09</v>
+        <v>1.310066995930654E-07</v>
       </c>
       <c r="AS46">
-        <v>-2.550753385322911E-09</v>
+        <v>-2.161779078795248E-09</v>
       </c>
       <c r="AT46">
-        <v>4.399537097978455E-16</v>
+        <v>-3.152045154906939E-16</v>
       </c>
     </row>
   </sheetData>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8786236942106481</v>
+        <v>0.9034807350409979</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0982552696037861</v>
+        <v>0.06812752297033299</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01465950151699688</v>
+        <v>0.0167612069304786</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004757912797447999</v>
+        <v>0.005503144761212112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001838162662726264</v>
+        <v>0.002688819237887885</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0006673440135256617</v>
+        <v>0.001339391738623905</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0003362598220446485</v>
+        <v>0.0006027240166883425</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0002840260255944915</v>
+        <v>0.0004926797499116294</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0001824348037920803</v>
+        <v>0.0003132802402980749</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7048,7 +7048,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0001456793631829509</v>
+        <v>0.0002484820203181424</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7056,7 +7056,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.344553222664807E-05</v>
+        <v>0.0001174394260102004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.26512662638341E-05</v>
+        <v>8.357048029181916E-05</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.603500651731622E-05</v>
+        <v>5.363405103245996E-05</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7080,7 +7080,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.451417284824378E-05</v>
+        <v>4.961110995527379E-05</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.084746884865785E-05</v>
+        <v>4.378801597860839E-05</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.745908211443855E-05</v>
+        <v>3.767195089335848E-05</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7104,7 +7104,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.099604240215111E-05</v>
+        <v>1.755035924371162E-05</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7112,7 +7112,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.843416744929087E-06</v>
+        <v>1.263810143427979E-05</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7120,7 +7120,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.835962537431892E-06</v>
+        <v>5.768231087095547E-06</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.526411865407652E-06</v>
+        <v>4.14794182086261E-06</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7136,7 +7136,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.857834687415786E-06</v>
+        <v>4.14286732891739E-06</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7144,7 +7144,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.776922008279375E-06</v>
+        <v>2.933326747469448E-06</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.327385085024792E-06</v>
+        <v>2.419941753107857E-06</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.895203724153139E-06</v>
+        <v>1.635222995293871E-06</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.118465465304203E-06</v>
+        <v>1.370390066794535E-06</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.387125033174884E-06</v>
+        <v>7.798168370358193E-07</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.282134153361405E-06</v>
+        <v>5.953113762676026E-07</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.27400311391524E-06</v>
+        <v>5.610174564022768E-07</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7200,7 +7200,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8.44162582829009E-07</v>
+        <v>3.901176095005083E-07</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7208,7 +7208,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.98396686886851E-07</v>
+        <v>3.016772945117536E-07</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6.475431921110144E-07</v>
+        <v>2.472472205431082E-07</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7224,7 +7224,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4.980371683843255E-07</v>
+        <v>2.260016183696397E-07</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7232,7 +7232,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4.352539788376688E-07</v>
+        <v>2.132511033898359E-07</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.529671342863398E-07</v>
+        <v>1.575485339883618E-07</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7248,7 +7248,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6.246709495020628E-08</v>
+        <v>6.804153597467598E-08</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.713152379684812E-08</v>
+        <v>5.756302031843503E-08</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7264,7 +7264,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.351952103646375E-08</v>
+        <v>4.519510015472719E-08</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7272,7 +7272,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.281839759083155E-08</v>
+        <v>1.638306339732262E-08</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7280,7 +7280,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.879677044375892E-09</v>
+        <v>1.629603580154642E-08</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.666097521432742E-09</v>
+        <v>5.891661072982506E-09</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.598579544254541E-09</v>
+        <v>5.627876943543206E-09</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7304,7 +7304,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.417698276068007E-09</v>
+        <v>3.311999341083414E-09</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7312,7 +7312,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.744262511865135E-10</v>
+        <v>1.418779669470267E-09</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7320,7 +7320,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.108557783571783E-10</v>
+        <v>1.584887982541429E-10</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7328,7 +7328,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.498013399861592E-32</v>
+        <v>3.456529325990708E-32</v>
       </c>
     </row>
   </sheetData>
